--- a/public/REM/raw/REM.xlsx
+++ b/public/REM/raw/REM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcranet.sharepoint.com/sites/REM/Documentos compartidos/REM/Publicación/Pagina WEB/2025/25 12 dic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="8_{6BC50749-C53E-42D7-9E27-AD7EFCA45E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF406D3C-C4D1-4B2E-91B9-90452A985476}"/>
+  <xr:revisionPtr revIDLastSave="542" documentId="8_{6BC50749-C53E-42D7-9E27-AD7EFCA45E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EC4C080-607D-4D55-8494-93CAA6ABA776}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{8A5F0209-F8EA-4E2B-A469-F799AD0A214D}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Cuadros de resultados'!$B$2:$M$112</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Resultados TOP 10'!$B$2:$M$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Resultados TOP 10'!$B$2:$M$87</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Cuadros de resultados'!$2:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Resultados TOP 10'!$2:$4</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="49">
   <si>
     <t>Precios minoristas (IPC nivel general-Nacional; INDEC)</t>
   </si>
@@ -197,11 +197,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -381,14 +380,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,7 +395,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -440,7 +438,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -455,23 +453,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,10 +471,10 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -503,33 +489,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Millares" xfId="4" builtinId="3"/>
+  <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="1" xr:uid="{E1EAF663-1358-40F2-AE07-51712904DA28}"/>
     <cellStyle name="Millares 2 2" xfId="2" xr:uid="{E0690555-5B9A-4C29-B9FC-5B57FD1C99F4}"/>
     <cellStyle name="Millares 3" xfId="3" xr:uid="{F0619288-BA2C-4FE5-AAC5-C9B30D145308}"/>
@@ -1871,9 +1835,7 @@
   </sheetPr>
   <dimension ref="B2:M112"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2963,40 +2925,40 @@
       <c r="M37" s="15"/>
     </row>
     <row r="38" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="I38" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K38" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="M38" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3007,13 +2969,13 @@
       <c r="C39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="26">
         <v>28.05</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="26">
         <v>28.76946250483217</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="26">
         <v>2.482104355333568</v>
       </c>
       <c r="G39" s="4">
@@ -3045,13 +3007,13 @@
       <c r="C40" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="27">
         <v>27.524219785732772</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="27">
         <v>27.84611278836859</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="27">
         <v>2.6327107313063571</v>
       </c>
       <c r="G40" s="19">
@@ -3083,13 +3045,13 @@
       <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="26">
         <v>27.3</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="26">
         <v>27.277763975567961</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="26">
         <v>2.7592020449111749</v>
       </c>
       <c r="G41" s="4">
@@ -3121,13 +3083,13 @@
       <c r="C42" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="27">
         <v>26.25</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="27">
         <v>26.040093707140102</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="27">
         <v>2.8310043797879358</v>
       </c>
       <c r="G42" s="19">
@@ -3159,13 +3121,13 @@
       <c r="C43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="26">
         <v>25.860184856305231</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="26">
         <v>25.176822004949521</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="26">
         <v>2.8363978340564242</v>
       </c>
       <c r="G43" s="4">
@@ -3197,13 +3159,13 @@
       <c r="C44" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="27">
         <v>24.358730292403301</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="27">
         <v>24.4137540086538</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="27">
         <v>3.0411579837136409</v>
       </c>
       <c r="G44" s="19">
@@ -3235,13 +3197,13 @@
       <c r="C45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="26">
         <v>21</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="26">
         <v>21.57449211503727</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="26">
         <v>3.623478548638873</v>
       </c>
       <c r="G45" s="4">
@@ -3273,13 +3235,13 @@
       <c r="C46" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="27">
         <v>21</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="27">
         <v>21.57449211503727</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="27">
         <v>3.623478548638873</v>
       </c>
       <c r="G46" s="19">
@@ -3311,13 +3273,13 @@
       <c r="C47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="26">
         <v>15.799999999999869</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="26">
         <v>16.165463782086</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="26">
         <v>3.47690983830103</v>
       </c>
       <c r="G47" s="4">
@@ -3363,40 +3325,40 @@
       <c r="M50" s="15"/>
     </row>
     <row r="51" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="H51" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="25" t="s">
+      <c r="I51" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="25" t="s">
+      <c r="J51" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="25" t="s">
+      <c r="K51" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L51" s="25" t="s">
+      <c r="L51" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M51" s="26" t="s">
+      <c r="M51" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3407,31 +3369,31 @@
       <c r="C52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D52" s="28">
         <v>1484.3</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="28">
         <v>1486.90868830971</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="28">
         <v>23.564744617785859</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="28">
         <v>1556.666666666667</v>
       </c>
-      <c r="H52" s="32">
+      <c r="H52" s="28">
         <v>1443.7</v>
       </c>
-      <c r="I52" s="32">
+      <c r="I52" s="28">
         <v>1517.907599153438</v>
       </c>
-      <c r="J52" s="32">
+      <c r="J52" s="28">
         <v>1501.7425000000001</v>
       </c>
-      <c r="K52" s="32">
+      <c r="K52" s="28">
         <v>1468.2319927766659</v>
       </c>
-      <c r="L52" s="32">
+      <c r="L52" s="28">
         <v>1460.4194012583359</v>
       </c>
       <c r="M52" s="5">
@@ -3445,31 +3407,31 @@
       <c r="C53" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="33">
+      <c r="D53" s="29">
         <v>1514.655</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E53" s="29">
         <v>1515.566164116369</v>
       </c>
-      <c r="F53" s="33">
+      <c r="F53" s="29">
         <v>29.370533348278329</v>
       </c>
-      <c r="G53" s="33">
+      <c r="G53" s="29">
         <v>1570.88</v>
       </c>
-      <c r="H53" s="33">
+      <c r="H53" s="29">
         <v>1447.3</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="29">
         <v>1552.7159999999999</v>
       </c>
-      <c r="J53" s="33">
+      <c r="J53" s="29">
         <v>1536.3629603558011</v>
       </c>
-      <c r="K53" s="33">
+      <c r="K53" s="29">
         <v>1489.6786756833731</v>
       </c>
-      <c r="L53" s="33">
+      <c r="L53" s="29">
         <v>1479.37</v>
       </c>
       <c r="M53" s="20">
@@ -3483,31 +3445,31 @@
       <c r="C54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="28">
         <v>1544.200351616827</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="28">
         <v>1540.5087997060571</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="28">
         <v>34.742390473530158</v>
       </c>
-      <c r="G54" s="32">
+      <c r="G54" s="28">
         <v>1608.58</v>
       </c>
-      <c r="H54" s="32">
+      <c r="H54" s="28">
         <v>1446.6</v>
       </c>
-      <c r="I54" s="32">
+      <c r="I54" s="28">
         <v>1584.3589999999999</v>
       </c>
-      <c r="J54" s="32">
+      <c r="J54" s="28">
         <v>1563.6175000000001</v>
       </c>
-      <c r="K54" s="32">
+      <c r="K54" s="28">
         <v>1511.154770259729</v>
       </c>
-      <c r="L54" s="32">
+      <c r="L54" s="28">
         <v>1494.23</v>
       </c>
       <c r="M54" s="5">
@@ -3521,31 +3483,31 @@
       <c r="C55" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="33">
+      <c r="D55" s="29">
         <v>1570</v>
       </c>
-      <c r="E55" s="33">
+      <c r="E55" s="29">
         <v>1563.853142684216</v>
       </c>
-      <c r="F55" s="33">
+      <c r="F55" s="29">
         <v>41.775985833294783</v>
       </c>
-      <c r="G55" s="33">
+      <c r="G55" s="29">
         <v>1646.87</v>
       </c>
-      <c r="H55" s="33">
+      <c r="H55" s="29">
         <v>1444.4</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="29">
         <v>1608.575</v>
       </c>
-      <c r="J55" s="33">
+      <c r="J55" s="29">
         <v>1596.0748433928429</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="29">
         <v>1530.6756922731049</v>
       </c>
-      <c r="L55" s="33">
+      <c r="L55" s="29">
         <v>1509.16</v>
       </c>
       <c r="M55" s="20">
@@ -3559,31 +3521,31 @@
       <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="32">
+      <c r="D56" s="28">
         <v>1587.6505834012689</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="28">
         <v>1584.3829723305239</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="28">
         <v>48.137166278644607</v>
       </c>
-      <c r="G56" s="32">
+      <c r="G56" s="28">
         <v>1685.73</v>
       </c>
-      <c r="H56" s="32">
+      <c r="H56" s="28">
         <v>1442.27</v>
       </c>
-      <c r="I56" s="32">
+      <c r="I56" s="28">
         <v>1639.8973841033901</v>
       </c>
-      <c r="J56" s="32">
+      <c r="J56" s="28">
         <v>1624.6010544773701</v>
       </c>
-      <c r="K56" s="32">
+      <c r="K56" s="28">
         <v>1546.9675</v>
       </c>
-      <c r="L56" s="32">
+      <c r="L56" s="28">
         <v>1521.17</v>
       </c>
       <c r="M56" s="5">
@@ -3597,31 +3559,31 @@
       <c r="C57" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="33">
+      <c r="D57" s="29">
         <v>1605.35</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="29">
         <v>1605.3532108447621</v>
       </c>
-      <c r="F57" s="33">
+      <c r="F57" s="29">
         <v>56.562145487469273</v>
       </c>
-      <c r="G57" s="33">
+      <c r="G57" s="29">
         <v>1725.18</v>
       </c>
-      <c r="H57" s="33">
+      <c r="H57" s="29">
         <v>1443</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="29">
         <v>1670.5360000000001</v>
       </c>
-      <c r="J57" s="33">
+      <c r="J57" s="29">
         <v>1645.054385717898</v>
       </c>
-      <c r="K57" s="33">
+      <c r="K57" s="29">
         <v>1564.2189315843871</v>
       </c>
-      <c r="L57" s="33">
+      <c r="L57" s="29">
         <v>1534.970696438332</v>
       </c>
       <c r="M57" s="20">
@@ -3635,31 +3597,31 @@
       <c r="C58" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="32">
+      <c r="D58" s="28">
         <v>1752.5</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="28">
         <v>1740.5791879012741</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="28">
         <v>97.179179387445544</v>
       </c>
-      <c r="G58" s="32">
+      <c r="G58" s="28">
         <v>1954.8</v>
       </c>
-      <c r="H58" s="32">
+      <c r="H58" s="28">
         <v>1475.8</v>
       </c>
-      <c r="I58" s="32">
+      <c r="I58" s="28">
         <v>1865.0740000000001</v>
       </c>
-      <c r="J58" s="32">
+      <c r="J58" s="28">
         <v>1808.25</v>
       </c>
-      <c r="K58" s="32">
+      <c r="K58" s="28">
         <v>1675.4876076441039</v>
       </c>
-      <c r="L58" s="32">
+      <c r="L58" s="28">
         <v>1616.011</v>
       </c>
       <c r="M58" s="5">
@@ -3673,31 +3635,31 @@
       <c r="C59" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="33">
+      <c r="D59" s="29">
         <v>1752.5</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="29">
         <v>1740.5791879012741</v>
       </c>
-      <c r="F59" s="33">
+      <c r="F59" s="29">
         <v>97.179179387445544</v>
       </c>
-      <c r="G59" s="33">
+      <c r="G59" s="29">
         <v>1954.8</v>
       </c>
-      <c r="H59" s="33">
+      <c r="H59" s="29">
         <v>1475.8</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="29">
         <v>1865.0740000000001</v>
       </c>
-      <c r="J59" s="33">
+      <c r="J59" s="29">
         <v>1808.25</v>
       </c>
-      <c r="K59" s="33">
+      <c r="K59" s="29">
         <v>1675.4876076441039</v>
       </c>
-      <c r="L59" s="33">
+      <c r="L59" s="29">
         <v>1616.011</v>
       </c>
       <c r="M59" s="20">
@@ -3711,31 +3673,31 @@
       <c r="C60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="32">
+      <c r="D60" s="28">
         <v>1979.9349999999999</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E60" s="28">
         <v>1968.6145979159221</v>
       </c>
-      <c r="F60" s="32">
+      <c r="F60" s="28">
         <v>148.34719790986861</v>
       </c>
-      <c r="G60" s="32">
+      <c r="G60" s="28">
         <v>2288.1</v>
       </c>
-      <c r="H60" s="32">
+      <c r="H60" s="28">
         <v>1623</v>
       </c>
-      <c r="I60" s="32">
+      <c r="I60" s="28">
         <v>2137.1</v>
       </c>
-      <c r="J60" s="32">
+      <c r="J60" s="28">
         <v>2061.9278804743358</v>
       </c>
-      <c r="K60" s="32">
+      <c r="K60" s="28">
         <v>1866.0439675320169</v>
       </c>
-      <c r="L60" s="32">
+      <c r="L60" s="28">
         <v>1802.3293929041461</v>
       </c>
       <c r="M60" s="5">
@@ -3767,40 +3729,40 @@
       <c r="M63" s="15"/>
     </row>
     <row r="64" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G64" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="25" t="s">
+      <c r="I64" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J64" s="25" t="s">
+      <c r="J64" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K64" s="25" t="s">
+      <c r="K64" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L64" s="25" t="s">
+      <c r="L64" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M64" s="26" t="s">
+      <c r="M64" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3811,31 +3773,31 @@
       <c r="C65" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="32">
+      <c r="D65" s="28">
         <v>7450</v>
       </c>
-      <c r="E65" s="32">
+      <c r="E65" s="28">
         <v>7345.2781801479296</v>
       </c>
-      <c r="F65" s="32">
+      <c r="F65" s="28">
         <v>593.85894732038582</v>
       </c>
-      <c r="G65" s="32">
+      <c r="G65" s="28">
         <v>8368.6108834050392</v>
       </c>
-      <c r="H65" s="32">
+      <c r="H65" s="28">
         <v>5630.0021442742982</v>
       </c>
-      <c r="I65" s="32">
+      <c r="I65" s="28">
         <v>8033.3189830282499</v>
       </c>
-      <c r="J65" s="32">
+      <c r="J65" s="28">
         <v>7718.4590550568491</v>
       </c>
-      <c r="K65" s="32">
+      <c r="K65" s="28">
         <v>6897</v>
       </c>
-      <c r="L65" s="32">
+      <c r="L65" s="28">
         <v>6673.1316769653422</v>
       </c>
       <c r="M65" s="8">
@@ -3849,31 +3811,31 @@
       <c r="C66" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="33">
+      <c r="D66" s="29">
         <v>6437.6821458956292</v>
       </c>
-      <c r="E66" s="33">
+      <c r="E66" s="29">
         <v>6547.5847351836883</v>
       </c>
-      <c r="F66" s="33">
+      <c r="F66" s="29">
         <v>509.57283957968298</v>
       </c>
-      <c r="G66" s="33">
+      <c r="G66" s="29">
         <v>7761</v>
       </c>
-      <c r="H66" s="33">
+      <c r="H66" s="29">
         <v>5436.34</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="29">
         <v>7049.534013137215</v>
       </c>
-      <c r="J66" s="33">
+      <c r="J66" s="29">
         <v>6930</v>
       </c>
-      <c r="K66" s="33">
+      <c r="K66" s="29">
         <v>6241</v>
       </c>
-      <c r="L66" s="33">
+      <c r="L66" s="29">
         <v>6042.1154697990687</v>
       </c>
       <c r="M66" s="20">
@@ -3887,31 +3849,31 @@
       <c r="C67" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="32">
+      <c r="D67" s="28">
         <v>6654</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E67" s="28">
         <v>6669.1836204625079</v>
       </c>
-      <c r="F67" s="32">
+      <c r="F67" s="28">
         <v>361.46179509891078</v>
       </c>
-      <c r="G67" s="32">
+      <c r="G67" s="28">
         <v>8071</v>
       </c>
-      <c r="H67" s="32">
+      <c r="H67" s="28">
         <v>6148.959072604669</v>
       </c>
-      <c r="I67" s="32">
+      <c r="I67" s="28">
         <v>7021.4711714515324</v>
       </c>
-      <c r="J67" s="32">
+      <c r="J67" s="28">
         <v>6842.932376946681</v>
       </c>
-      <c r="K67" s="32">
+      <c r="K67" s="28">
         <v>6395.5096310217841</v>
       </c>
-      <c r="L67" s="32">
+      <c r="L67" s="28">
         <v>6300.6585741591953</v>
       </c>
       <c r="M67" s="5">
@@ -3925,31 +3887,31 @@
       <c r="C68" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="33">
+      <c r="D68" s="29">
         <v>7232.9109169087897</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E68" s="29">
         <v>7308.1193080160274</v>
       </c>
-      <c r="F68" s="33">
+      <c r="F68" s="29">
         <v>418.42950698581791</v>
       </c>
-      <c r="G68" s="33">
+      <c r="G68" s="29">
         <v>8798</v>
       </c>
-      <c r="H68" s="33">
+      <c r="H68" s="29">
         <v>6702.9728989048444</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="29">
         <v>7931.5634650540651</v>
       </c>
-      <c r="J68" s="33">
+      <c r="J68" s="29">
         <v>7435.8368253813987</v>
       </c>
-      <c r="K68" s="33">
+      <c r="K68" s="29">
         <v>7059</v>
       </c>
-      <c r="L68" s="33">
+      <c r="L68" s="29">
         <v>6903.527391618516</v>
       </c>
       <c r="M68" s="20">
@@ -3963,31 +3925,31 @@
       <c r="C69" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="32">
+      <c r="D69" s="28">
         <v>7743</v>
       </c>
-      <c r="E69" s="32">
+      <c r="E69" s="28">
         <v>7663.4125533044371</v>
       </c>
-      <c r="F69" s="32">
+      <c r="F69" s="28">
         <v>571.20820646148741</v>
       </c>
-      <c r="G69" s="32">
+      <c r="G69" s="28">
         <v>8841</v>
       </c>
-      <c r="H69" s="32">
+      <c r="H69" s="28">
         <v>6256.9811965861727</v>
       </c>
-      <c r="I69" s="32">
+      <c r="I69" s="28">
         <v>8409.1230113303136</v>
       </c>
-      <c r="J69" s="32">
+      <c r="J69" s="28">
         <v>8012.25</v>
       </c>
-      <c r="K69" s="32">
+      <c r="K69" s="28">
         <v>7280.2647193617868</v>
       </c>
-      <c r="L69" s="32">
+      <c r="L69" s="28">
         <v>6876.813033306491</v>
       </c>
       <c r="M69" s="5">
@@ -4001,31 +3963,31 @@
       <c r="C70" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="33">
+      <c r="D70" s="29">
         <v>8247.1105947843062</v>
       </c>
-      <c r="E70" s="33">
+      <c r="E70" s="29">
         <v>8173.9143050584471</v>
       </c>
-      <c r="F70" s="33">
+      <c r="F70" s="29">
         <v>609.30966742275734</v>
       </c>
-      <c r="G70" s="33">
+      <c r="G70" s="29">
         <v>9284</v>
       </c>
-      <c r="H70" s="33">
+      <c r="H70" s="29">
         <v>6835.3503125965744</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="29">
         <v>8982.2879350566946</v>
       </c>
-      <c r="J70" s="33">
+      <c r="J70" s="29">
         <v>8543.6550088316144</v>
       </c>
-      <c r="K70" s="33">
+      <c r="K70" s="29">
         <v>7710.1841496380903</v>
       </c>
-      <c r="L70" s="33">
+      <c r="L70" s="29">
         <v>7337.3549999999996</v>
       </c>
       <c r="M70" s="20">
@@ -4039,31 +4001,31 @@
       <c r="C71" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="32">
+      <c r="D71" s="28">
         <v>7957.5182054670768</v>
       </c>
-      <c r="E71" s="32">
+      <c r="E71" s="28">
         <v>7981.8554251322475</v>
       </c>
-      <c r="F71" s="32">
+      <c r="F71" s="28">
         <v>537.816174585878</v>
       </c>
-      <c r="G71" s="32">
+      <c r="G71" s="28">
         <v>9423</v>
       </c>
-      <c r="H71" s="32">
+      <c r="H71" s="28">
         <v>6691.1469602889829</v>
       </c>
-      <c r="I71" s="32">
+      <c r="I71" s="28">
         <v>8631.1717305311395</v>
       </c>
-      <c r="J71" s="32">
+      <c r="J71" s="28">
         <v>8310.8917594722716</v>
       </c>
-      <c r="K71" s="32">
+      <c r="K71" s="28">
         <v>7607.9995666385139</v>
       </c>
-      <c r="L71" s="32">
+      <c r="L71" s="28">
         <v>7408.7</v>
       </c>
       <c r="M71" s="5">
@@ -4077,31 +4039,31 @@
       <c r="C72" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="33">
+      <c r="D72" s="29">
         <v>91406.94105634572</v>
       </c>
-      <c r="E72" s="33">
+      <c r="E72" s="29">
         <v>91377.734487206122</v>
       </c>
-      <c r="F72" s="33">
+      <c r="F72" s="29">
         <v>3288.182943155758</v>
       </c>
-      <c r="G72" s="33">
+      <c r="G72" s="29">
         <v>100000</v>
       </c>
-      <c r="H72" s="33">
+      <c r="H72" s="29">
         <v>85230</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="29">
         <v>94858</v>
       </c>
-      <c r="J72" s="33">
+      <c r="J72" s="29">
         <v>93270</v>
       </c>
-      <c r="K72" s="33">
+      <c r="K72" s="29">
         <v>88787.963214528994</v>
       </c>
-      <c r="L72" s="33">
+      <c r="L72" s="29">
         <v>88000</v>
       </c>
       <c r="M72" s="20">
@@ -4115,31 +4077,31 @@
       <c r="C73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D73" s="28">
         <v>97575</v>
       </c>
-      <c r="E73" s="32">
+      <c r="E73" s="28">
         <v>97122.977633505012</v>
       </c>
-      <c r="F73" s="32">
+      <c r="F73" s="28">
         <v>5709.1230130972626</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G73" s="28">
         <v>110000</v>
       </c>
-      <c r="H73" s="32">
+      <c r="H73" s="28">
         <v>85920</v>
       </c>
-      <c r="I73" s="32">
+      <c r="I73" s="28">
         <v>103300.3</v>
       </c>
-      <c r="J73" s="32">
+      <c r="J73" s="28">
         <v>101625</v>
       </c>
-      <c r="K73" s="32">
+      <c r="K73" s="28">
         <v>93168.176262796173</v>
       </c>
-      <c r="L73" s="32">
+      <c r="L73" s="28">
         <v>89836.2</v>
       </c>
       <c r="M73" s="5">
@@ -4171,40 +4133,40 @@
       <c r="M76" s="15"/>
     </row>
     <row r="77" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="25" t="s">
+      <c r="E77" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F77" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="25" t="s">
+      <c r="G77" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="25" t="s">
+      <c r="H77" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I77" s="25" t="s">
+      <c r="I77" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J77" s="25" t="s">
+      <c r="J77" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K77" s="25" t="s">
+      <c r="K77" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L77" s="25" t="s">
+      <c r="L77" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M77" s="26" t="s">
+      <c r="M77" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4215,31 +4177,31 @@
       <c r="C78" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D78" s="28">
         <v>5932.2854625996924</v>
       </c>
-      <c r="E78" s="32">
+      <c r="E78" s="28">
         <v>5940.9607377597486</v>
       </c>
-      <c r="F78" s="32">
+      <c r="F78" s="28">
         <v>429.42960724352599</v>
       </c>
-      <c r="G78" s="32">
+      <c r="G78" s="28">
         <v>6978</v>
       </c>
-      <c r="H78" s="32">
+      <c r="H78" s="28">
         <v>5138.6792622990561</v>
       </c>
-      <c r="I78" s="32">
+      <c r="I78" s="28">
         <v>6418.3828464798471</v>
       </c>
-      <c r="J78" s="32">
+      <c r="J78" s="28">
         <v>6135.3775000000014</v>
       </c>
-      <c r="K78" s="32">
+      <c r="K78" s="28">
         <v>5657.6634424365966</v>
       </c>
-      <c r="L78" s="32">
+      <c r="L78" s="28">
         <v>5414.3035810310084</v>
       </c>
       <c r="M78" s="8">
@@ -4253,31 +4215,31 @@
       <c r="C79" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="33">
+      <c r="D79" s="29">
         <v>6040.3250000000007</v>
       </c>
-      <c r="E79" s="33">
+      <c r="E79" s="29">
         <v>6023.2696555180009</v>
       </c>
-      <c r="F79" s="33">
+      <c r="F79" s="29">
         <v>338.12767281762848</v>
       </c>
-      <c r="G79" s="33">
+      <c r="G79" s="29">
         <v>6972.3702313944495</v>
       </c>
-      <c r="H79" s="33">
+      <c r="H79" s="29">
         <v>5344.8116534201599</v>
       </c>
-      <c r="I79" s="33">
+      <c r="I79" s="29">
         <v>6379.5</v>
       </c>
-      <c r="J79" s="33">
+      <c r="J79" s="29">
         <v>6240.4942001744821</v>
       </c>
-      <c r="K79" s="33">
+      <c r="K79" s="29">
         <v>5848.0396243305349</v>
       </c>
-      <c r="L79" s="33">
+      <c r="L79" s="29">
         <v>5557.7662516428427</v>
       </c>
       <c r="M79" s="20">
@@ -4291,31 +4253,31 @@
       <c r="C80" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="32">
+      <c r="D80" s="28">
         <v>5985.6399999999994</v>
       </c>
-      <c r="E80" s="32">
+      <c r="E80" s="28">
         <v>5924.0247523043199</v>
       </c>
-      <c r="F80" s="32">
+      <c r="F80" s="28">
         <v>391.07951403096411</v>
       </c>
-      <c r="G80" s="32">
+      <c r="G80" s="28">
         <v>7042.3133385103702</v>
       </c>
-      <c r="H80" s="32">
+      <c r="H80" s="28">
         <v>4955.6656843901901</v>
       </c>
-      <c r="I80" s="32">
+      <c r="I80" s="28">
         <v>6316.7000000000007</v>
       </c>
-      <c r="J80" s="32">
+      <c r="J80" s="28">
         <v>6155.75</v>
       </c>
-      <c r="K80" s="32">
+      <c r="K80" s="28">
         <v>5667.633712959052</v>
       </c>
-      <c r="L80" s="32">
+      <c r="L80" s="28">
         <v>5483.4701517080966</v>
       </c>
       <c r="M80" s="5">
@@ -4329,31 +4291,31 @@
       <c r="C81" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="33">
+      <c r="D81" s="29">
         <v>6489.6253980972469</v>
       </c>
-      <c r="E81" s="33">
+      <c r="E81" s="29">
         <v>6397.4397058043642</v>
       </c>
-      <c r="F81" s="33">
+      <c r="F81" s="29">
         <v>350.64282884019519</v>
       </c>
-      <c r="G81" s="33">
+      <c r="G81" s="29">
         <v>7092.3566746601073</v>
       </c>
-      <c r="H81" s="33">
+      <c r="H81" s="29">
         <v>5402.1652097985616</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="29">
         <v>6783.2024762943302</v>
       </c>
-      <c r="J81" s="33">
+      <c r="J81" s="29">
         <v>6608.25</v>
       </c>
-      <c r="K81" s="33">
+      <c r="K81" s="29">
         <v>6151.5988462305022</v>
       </c>
-      <c r="L81" s="33">
+      <c r="L81" s="29">
         <v>5979.7388918253982</v>
       </c>
       <c r="M81" s="20">
@@ -4367,31 +4329,31 @@
       <c r="C82" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="32">
+      <c r="D82" s="28">
         <v>6604.2407324820397</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E82" s="28">
         <v>6610.1929935728986</v>
       </c>
-      <c r="F82" s="32">
+      <c r="F82" s="28">
         <v>329.15839157235138</v>
       </c>
-      <c r="G82" s="32">
+      <c r="G82" s="28">
         <v>7531.129713440665</v>
       </c>
-      <c r="H82" s="32">
+      <c r="H82" s="28">
         <v>5962</v>
       </c>
-      <c r="I82" s="32">
+      <c r="I82" s="28">
         <v>6917.0464279064836</v>
       </c>
-      <c r="J82" s="32">
+      <c r="J82" s="28">
         <v>6795.3283744775017</v>
       </c>
-      <c r="K82" s="32">
+      <c r="K82" s="28">
         <v>6423.344926852661</v>
       </c>
-      <c r="L82" s="32">
+      <c r="L82" s="28">
         <v>6158.0343649462266</v>
       </c>
       <c r="M82" s="5">
@@ -4405,31 +4367,31 @@
       <c r="C83" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="33">
+      <c r="D83" s="29">
         <v>6947.5991666606187</v>
       </c>
-      <c r="E83" s="33">
+      <c r="E83" s="29">
         <v>6916.44870952155</v>
       </c>
-      <c r="F83" s="33">
+      <c r="F83" s="29">
         <v>380.03102727005569</v>
       </c>
-      <c r="G83" s="33">
+      <c r="G83" s="29">
         <v>7531.0858216495244</v>
       </c>
-      <c r="H83" s="33">
+      <c r="H83" s="29">
         <v>6167</v>
       </c>
-      <c r="I83" s="33">
+      <c r="I83" s="29">
         <v>7413.5759120223192</v>
       </c>
-      <c r="J83" s="33">
+      <c r="J83" s="29">
         <v>7222.050185375525</v>
       </c>
-      <c r="K83" s="33">
+      <c r="K83" s="29">
         <v>6620</v>
       </c>
-      <c r="L83" s="33">
+      <c r="L83" s="29">
         <v>6418.3895784350798</v>
       </c>
       <c r="M83" s="20">
@@ -4443,31 +4405,31 @@
       <c r="C84" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="32">
+      <c r="D84" s="28">
         <v>6870.7650471368197</v>
       </c>
-      <c r="E84" s="32">
+      <c r="E84" s="28">
         <v>6865.6752680756617</v>
       </c>
-      <c r="F84" s="32">
+      <c r="F84" s="28">
         <v>393.21141610236509</v>
       </c>
-      <c r="G84" s="32">
+      <c r="G84" s="28">
         <v>7567</v>
       </c>
-      <c r="H84" s="32">
+      <c r="H84" s="28">
         <v>5900</v>
       </c>
-      <c r="I84" s="32">
+      <c r="I84" s="28">
         <v>7313.1837697930396</v>
       </c>
-      <c r="J84" s="32">
+      <c r="J84" s="28">
         <v>7156.9113465565533</v>
       </c>
-      <c r="K84" s="32">
+      <c r="K84" s="28">
         <v>6605</v>
       </c>
-      <c r="L84" s="32">
+      <c r="L84" s="28">
         <v>6395.3080854002283</v>
       </c>
       <c r="M84" s="5">
@@ -4481,31 +4443,31 @@
       <c r="C85" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D85" s="29">
         <v>80441.718779052884</v>
       </c>
-      <c r="E85" s="33">
+      <c r="E85" s="29">
         <v>80516.157533694553</v>
       </c>
-      <c r="F85" s="33">
+      <c r="F85" s="29">
         <v>3388.2633740781462</v>
       </c>
-      <c r="G85" s="33">
+      <c r="G85" s="29">
         <v>89283.856360221398</v>
       </c>
-      <c r="H85" s="33">
+      <c r="H85" s="29">
         <v>73320</v>
       </c>
-      <c r="I85" s="33">
+      <c r="I85" s="29">
         <v>85000</v>
       </c>
-      <c r="J85" s="33">
+      <c r="J85" s="29">
         <v>82492.933268748238</v>
       </c>
-      <c r="K85" s="33">
+      <c r="K85" s="29">
         <v>78770.762826099672</v>
       </c>
-      <c r="L85" s="33">
+      <c r="L85" s="29">
         <v>76195</v>
       </c>
       <c r="M85" s="20">
@@ -4519,31 +4481,31 @@
       <c r="C86" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D86" s="28">
         <v>85952.718841285096</v>
       </c>
-      <c r="E86" s="32">
+      <c r="E86" s="28">
         <v>85853.297789096163</v>
       </c>
-      <c r="F86" s="32">
+      <c r="F86" s="28">
         <v>6145.7584562619068</v>
       </c>
-      <c r="G86" s="32">
+      <c r="G86" s="28">
         <v>98815.987809625076</v>
       </c>
-      <c r="H86" s="32">
+      <c r="H86" s="28">
         <v>74490</v>
       </c>
-      <c r="I86" s="32">
+      <c r="I86" s="28">
         <v>94207</v>
       </c>
-      <c r="J86" s="32">
+      <c r="J86" s="28">
         <v>89842.238830130955</v>
       </c>
-      <c r="K86" s="32">
+      <c r="K86" s="28">
         <v>81310.75</v>
       </c>
-      <c r="L86" s="32">
+      <c r="L86" s="28">
         <v>78208.825151469049</v>
       </c>
       <c r="M86" s="5">
@@ -4581,40 +4543,40 @@
       <c r="M89" s="15"/>
     </row>
     <row r="90" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="25" t="s">
+      <c r="E90" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="25" t="s">
+      <c r="G90" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H90" s="25" t="s">
+      <c r="H90" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I90" s="25" t="s">
+      <c r="I90" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J90" s="25" t="s">
+      <c r="J90" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K90" s="25" t="s">
+      <c r="K90" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L90" s="25" t="s">
+      <c r="L90" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M90" s="26" t="s">
+      <c r="M90" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4625,31 +4587,31 @@
       <c r="C91" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="34">
+      <c r="D91" s="30">
         <v>15982.5</v>
       </c>
-      <c r="E91" s="34">
+      <c r="E91" s="30">
         <v>15437.747617075869</v>
       </c>
-      <c r="F91" s="34">
+      <c r="F91" s="30">
         <v>2683.797878076753</v>
       </c>
-      <c r="G91" s="34">
+      <c r="G91" s="30">
         <v>21418.979338091209</v>
       </c>
-      <c r="H91" s="34">
+      <c r="H91" s="30">
         <v>7666</v>
       </c>
-      <c r="I91" s="34">
+      <c r="I91" s="30">
         <v>18289.154301723011</v>
       </c>
-      <c r="J91" s="34">
+      <c r="J91" s="30">
         <v>16721.959032383191</v>
       </c>
-      <c r="K91" s="34">
+      <c r="K91" s="30">
         <v>13837.019801909681</v>
       </c>
-      <c r="L91" s="34">
+      <c r="L91" s="30">
         <v>12442.5</v>
       </c>
       <c r="M91" s="20">
@@ -4663,31 +4625,31 @@
       <c r="C92" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="35">
+      <c r="D92" s="31">
         <v>17777.5</v>
       </c>
-      <c r="E92" s="35">
+      <c r="E92" s="31">
         <v>17957.4084214824</v>
       </c>
-      <c r="F92" s="35">
+      <c r="F92" s="31">
         <v>4506.9347008654768</v>
       </c>
-      <c r="G92" s="35">
+      <c r="G92" s="31">
         <v>26988.85</v>
       </c>
-      <c r="H92" s="35">
+      <c r="H92" s="31">
         <v>2000</v>
       </c>
-      <c r="I92" s="35">
+      <c r="I92" s="31">
         <v>23281.09602432889</v>
       </c>
-      <c r="J92" s="35">
+      <c r="J92" s="31">
         <v>19898.75</v>
       </c>
-      <c r="K92" s="35">
+      <c r="K92" s="31">
         <v>16300</v>
       </c>
-      <c r="L92" s="35">
+      <c r="L92" s="31">
         <v>14020</v>
       </c>
       <c r="M92" s="5">
@@ -4725,40 +4687,40 @@
       <c r="M95" s="15"/>
     </row>
     <row r="96" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="25" t="s">
+      <c r="E96" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="F96" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="25" t="s">
+      <c r="G96" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H96" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I96" s="25" t="s">
+      <c r="I96" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J96" s="25" t="s">
+      <c r="J96" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K96" s="25" t="s">
+      <c r="K96" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L96" s="25" t="s">
+      <c r="L96" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M96" s="26" t="s">
+      <c r="M96" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4983,40 +4945,40 @@
       <c r="M104" s="15"/>
     </row>
     <row r="105" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B105" s="25" t="s">
+      <c r="B105" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="25" t="s">
+      <c r="D105" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="25" t="s">
+      <c r="E105" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F105" s="25" t="s">
+      <c r="F105" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="25" t="s">
+      <c r="G105" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H105" s="25" t="s">
+      <c r="H105" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I105" s="25" t="s">
+      <c r="I105" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J105" s="25" t="s">
+      <c r="J105" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K105" s="25" t="s">
+      <c r="K105" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L105" s="25" t="s">
+      <c r="L105" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M105" s="26" t="s">
+      <c r="M105" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5282,11 +5244,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M112"/>
+  <dimension ref="B2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A94" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5301,54 +5261,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="2:13" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:13" ht="36" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
@@ -5389,548 +5349,548 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="17">
+      <c r="B7" s="2">
         <v>46022</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="4">
         <v>2.371</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="4">
         <v>2.33</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="4">
         <v>0.1987991728129449</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="4">
         <v>2.7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="4">
         <v>2.1</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="4">
         <v>2.61</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="4">
         <v>2.5</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="4">
         <v>2.2250000000000001</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="4">
         <v>2.145</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="2">
+      <c r="B8" s="17">
         <v>46053</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="19">
         <v>2.1440000000000001</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="19">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="19">
         <v>0.21925125110500759</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="19">
         <v>2.5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="19">
         <v>1.9</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="19">
         <v>2.41</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="19">
         <v>2.35</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="19">
         <v>2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="19">
         <v>1.9</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="17">
+      <c r="B9" s="2">
         <v>46081</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="4">
         <v>1.875</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="4">
         <v>1.8049999999999999</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="4">
         <v>0.25513612924171369</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="4">
         <v>2.38</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="4">
         <v>1.46</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="4">
         <v>2.1280000000000001</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="4">
         <v>1.7250000000000001</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="4">
         <v>1.6759999999999999</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="2">
+      <c r="B10" s="17">
         <v>46112</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="19">
         <v>2.0430000000000001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="19">
         <v>2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="19">
         <v>0.29356241055163868</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="19">
         <v>2.4</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="19">
         <v>1.69</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="19">
         <v>2.4</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="19">
         <v>2.34</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="19">
         <v>1.8</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="19">
         <v>1.6990000000000001</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="17">
+      <c r="B11" s="2">
         <v>46142</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="4">
         <v>1.8939999999999999</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="4">
         <v>1.89</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="4">
         <v>0.3062388319959149</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="4">
         <v>2.4</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="4">
         <v>1.52</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="4">
         <v>2.3460000000000001</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="4">
         <v>2</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="4">
         <v>1.625</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="4">
         <v>1.5920000000000001</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="2">
+      <c r="B12" s="17">
         <v>46173</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="19">
         <v>1.7829999999999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="19">
         <v>1.6850000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="19">
         <v>0.37208272676322329</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="19">
         <v>2.4</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="19">
         <v>1.3</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="19">
         <v>2.3279999999999998</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="19">
         <v>1.9750000000000001</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="19">
         <v>1.6</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="19">
         <v>1.3360000000000001</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" s="17">
+      <c r="B13" s="2">
         <v>46203</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="4">
         <v>1.65</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="4">
         <v>1.63</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="4">
         <v>0.39880376683833429</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="4">
         <v>2.2200000000000002</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="4">
         <v>0.82</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="4">
         <v>2.0219999999999998</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="4">
         <v>1.95</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="4">
         <v>1.5249999999999999</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="4">
         <v>1.252</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="19">
         <v>22.545000000000002</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="19">
         <v>23</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="19">
         <v>4.1366525651116079</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="19">
         <v>28.8</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="19">
         <v>14.83</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="19">
         <v>27</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="19">
         <v>24.93</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="19">
         <v>20.074999999999999</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="19">
         <v>18.582999999999998</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="19">
-        <v>15.956</v>
-      </c>
-      <c r="E15" s="19">
-        <v>16.484999999999999</v>
-      </c>
-      <c r="F15" s="19">
-        <v>3.4273676325846472</v>
-      </c>
-      <c r="G15" s="19">
-        <v>20</v>
-      </c>
-      <c r="H15" s="19">
-        <v>9.09</v>
-      </c>
-      <c r="I15" s="19">
-        <v>19.64</v>
-      </c>
-      <c r="J15" s="19">
-        <v>17.975000000000001</v>
-      </c>
-      <c r="K15" s="19">
-        <v>15</v>
-      </c>
-      <c r="L15" s="19">
-        <v>11.709</v>
-      </c>
-      <c r="M15" s="20">
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4">
+        <v>22.545000000000002</v>
+      </c>
+      <c r="E15" s="4">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4.1366525651116079</v>
+      </c>
+      <c r="G15" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="H15" s="4">
+        <v>14.83</v>
+      </c>
+      <c r="I15" s="4">
+        <v>27</v>
+      </c>
+      <c r="J15" s="4">
+        <v>24.93</v>
+      </c>
+      <c r="K15" s="4">
+        <v>20.074999999999999</v>
+      </c>
+      <c r="L15" s="4">
+        <v>18.582999999999998</v>
+      </c>
+      <c r="M15" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4">
-        <v>22.545000000000002</v>
-      </c>
-      <c r="E16" s="4">
-        <v>23</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4.1366525651116079</v>
-      </c>
-      <c r="G16" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="H16" s="4">
-        <v>14.83</v>
-      </c>
-      <c r="I16" s="4">
-        <v>27</v>
-      </c>
-      <c r="J16" s="4">
-        <v>24.93</v>
-      </c>
-      <c r="K16" s="4">
-        <v>20.074999999999999</v>
-      </c>
-      <c r="L16" s="4">
-        <v>18.582999999999998</v>
-      </c>
-      <c r="M16" s="5">
+    <row r="18" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="B19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="19">
-        <v>15.956</v>
-      </c>
-      <c r="E17" s="19">
-        <v>16.484999999999999</v>
-      </c>
-      <c r="F17" s="19">
-        <v>3.4273676325846472</v>
-      </c>
-      <c r="G17" s="19">
-        <v>20</v>
-      </c>
-      <c r="H17" s="19">
-        <v>9.09</v>
-      </c>
-      <c r="I17" s="19">
-        <v>19.64</v>
-      </c>
-      <c r="J17" s="19">
-        <v>17.975000000000001</v>
-      </c>
-      <c r="K17" s="19">
-        <v>15</v>
-      </c>
-      <c r="L17" s="19">
-        <v>11.709</v>
-      </c>
-      <c r="M17" s="20">
+      <c r="L19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="2">
+        <v>46022</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.331337076059635</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.1704071678527451</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2.163370760596361</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L20" s="4">
+        <v>2.1963370760596361</v>
+      </c>
+      <c r="M20" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4">
-        <v>12.96834415276011</v>
-      </c>
-      <c r="E18" s="4">
-        <v>12.7</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2.7493733967137439</v>
-      </c>
-      <c r="G18" s="4">
-        <v>18.683441527601051</v>
-      </c>
-      <c r="H18" s="4">
+    <row r="21" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="17">
+        <v>46053</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2.0757368904968478</v>
+      </c>
+      <c r="E21" s="19">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.2363448651770268</v>
+      </c>
+      <c r="G21" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1.677368904968479</v>
+      </c>
+      <c r="I21" s="19">
+        <v>2.41</v>
+      </c>
+      <c r="J21" s="19">
+        <v>2.145</v>
+      </c>
+      <c r="K21" s="19">
+        <v>2</v>
+      </c>
+      <c r="L21" s="19">
+        <v>1.8777368904968481</v>
+      </c>
+      <c r="M21" s="20">
         <v>10</v>
       </c>
-      <c r="I18" s="4">
-        <v>15.3683441527601</v>
-      </c>
-      <c r="J18" s="4">
-        <v>14.45</v>
-      </c>
-      <c r="K18" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="L18" s="4">
+    </row>
+    <row r="22" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="2">
+        <v>46081</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8517156635793</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.16294950229093791</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1.6371566357930021</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1.6937156635793</v>
+      </c>
+      <c r="M22" s="5">
         <v>10</v>
-      </c>
-      <c r="M18" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-    </row>
-    <row r="22" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B22" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="17">
-        <v>46022</v>
+        <v>46112</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="19">
-        <v>2.331337076059635</v>
+        <v>1.873141059967286</v>
       </c>
       <c r="E23" s="19">
-        <v>2.2749999999999999</v>
+        <v>1.84</v>
       </c>
       <c r="F23" s="19">
-        <v>0.1704071678527451</v>
+        <v>0.2538126376876802</v>
       </c>
       <c r="G23" s="19">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H23" s="19">
-        <v>2.163370760596361</v>
+        <v>1.511410599672858</v>
       </c>
       <c r="I23" s="19">
-        <v>2.52</v>
+        <v>2.246</v>
       </c>
       <c r="J23" s="19">
-        <v>2.4</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="K23" s="19">
-        <v>2.2000000000000002</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="L23" s="19">
-        <v>2.1963370760596361</v>
+        <v>1.5911410599672859</v>
       </c>
       <c r="M23" s="20">
         <v>10</v>
@@ -5938,37 +5898,37 @@
     </row>
     <row r="24" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
-        <v>46053</v>
+        <v>46142</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="4">
-        <v>2.0757368904968478</v>
+        <v>1.81508387334792</v>
       </c>
       <c r="E24" s="4">
-        <v>2.0099999999999998</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="F24" s="4">
-        <v>0.2363448651770268</v>
+        <v>0.28057256571664768</v>
       </c>
       <c r="G24" s="4">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H24" s="4">
-        <v>1.677368904968479</v>
+        <v>1.480838733479195</v>
       </c>
       <c r="I24" s="4">
-        <v>2.41</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="J24" s="4">
-        <v>2.145</v>
+        <v>1.95</v>
       </c>
       <c r="K24" s="4">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="L24" s="4">
-        <v>1.8777368904968481</v>
+        <v>1.49808387334792</v>
       </c>
       <c r="M24" s="5">
         <v>10</v>
@@ -5976,37 +5936,37 @@
     </row>
     <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="17">
-        <v>46081</v>
+        <v>46173</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="19">
-        <v>1.8517156635793</v>
+        <v>1.749626794431945</v>
       </c>
       <c r="E25" s="19">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="F25" s="19">
-        <v>0.16294950229093791</v>
+        <v>0.32435895124176461</v>
       </c>
       <c r="G25" s="19">
-        <v>2.14</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H25" s="19">
-        <v>1.6371566357930021</v>
+        <v>1.4</v>
       </c>
       <c r="I25" s="19">
-        <v>2.0139999999999998</v>
+        <v>2.21</v>
       </c>
       <c r="J25" s="19">
         <v>1.9750000000000001</v>
       </c>
       <c r="K25" s="19">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="L25" s="19">
-        <v>1.6937156635793</v>
+        <v>1.4866411498875061</v>
       </c>
       <c r="M25" s="20">
         <v>10</v>
@@ -6014,2680 +5974,2148 @@
     </row>
     <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
-        <v>46112</v>
+        <v>46203</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="4">
-        <v>1.873141059967286</v>
+        <v>1.6895403808705971</v>
       </c>
       <c r="E26" s="4">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="F26" s="4">
-        <v>0.2538126376876802</v>
+        <v>0.26403391707592427</v>
       </c>
       <c r="G26" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="H26" s="4">
-        <v>1.511410599672858</v>
+        <v>1.4</v>
       </c>
       <c r="I26" s="4">
-        <v>2.246</v>
+        <v>2.0110000000000001</v>
       </c>
       <c r="J26" s="4">
-        <v>1.9750000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="K26" s="4">
-        <v>1.7250000000000001</v>
+        <v>1.4690528565294769</v>
       </c>
       <c r="L26" s="4">
-        <v>1.5911410599672859</v>
+        <v>1.4</v>
       </c>
       <c r="M26" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="17">
-        <v>46142</v>
+      <c r="B27" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D27" s="19">
-        <v>1.81508387334792</v>
+        <v>21.544192695692999</v>
       </c>
       <c r="E27" s="19">
-        <v>1.7749999999999999</v>
+        <v>20.8</v>
       </c>
       <c r="F27" s="19">
-        <v>0.28057256571664768</v>
+        <v>4.1517989452530184</v>
       </c>
       <c r="G27" s="19">
-        <v>2.2999999999999998</v>
+        <v>28.1</v>
       </c>
       <c r="H27" s="19">
-        <v>1.480838733479195</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="I27" s="19">
-        <v>2.2280000000000002</v>
+        <v>27.47</v>
       </c>
       <c r="J27" s="19">
-        <v>1.95</v>
+        <v>24.25</v>
       </c>
       <c r="K27" s="19">
-        <v>1.625</v>
+        <v>17.892921651126329</v>
       </c>
       <c r="L27" s="19">
-        <v>1.49808387334792</v>
+        <v>17.215216317182179</v>
       </c>
       <c r="M27" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B28" s="2">
-        <v>46173</v>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4">
-        <v>1.749626794431945</v>
+        <v>21.544192695692999</v>
       </c>
       <c r="E28" s="4">
-        <v>1.6</v>
+        <v>20.8</v>
       </c>
       <c r="F28" s="4">
-        <v>0.32435895124176461</v>
+        <v>4.1517989452530184</v>
       </c>
       <c r="G28" s="4">
-        <v>2.2999999999999998</v>
+        <v>28.1</v>
       </c>
       <c r="H28" s="4">
-        <v>1.4</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="I28" s="4">
-        <v>2.21</v>
+        <v>27.47</v>
       </c>
       <c r="J28" s="4">
-        <v>1.9750000000000001</v>
+        <v>24.25</v>
       </c>
       <c r="K28" s="4">
-        <v>1.5</v>
+        <v>17.892921651126329</v>
       </c>
       <c r="L28" s="4">
-        <v>1.4866411498875061</v>
+        <v>17.215216317182179</v>
       </c>
       <c r="M28" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B29" s="17">
-        <v>46203</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="19">
-        <v>1.6895403808705971</v>
-      </c>
-      <c r="E29" s="19">
-        <v>1.6</v>
-      </c>
-      <c r="F29" s="19">
-        <v>0.26403391707592427</v>
-      </c>
-      <c r="G29" s="19">
-        <v>2.11</v>
-      </c>
-      <c r="H29" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="I29" s="19">
-        <v>2.0110000000000001</v>
-      </c>
-      <c r="J29" s="19">
-        <v>1.9</v>
-      </c>
-      <c r="K29" s="19">
-        <v>1.4690528565294769</v>
-      </c>
-      <c r="L29" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="M29" s="20">
+    <row r="30" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+    </row>
+    <row r="32" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="B32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="4">
-        <v>21.544192695692999</v>
-      </c>
-      <c r="E30" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="F30" s="4">
-        <v>4.1517989452530184</v>
-      </c>
-      <c r="G30" s="4">
-        <v>28.1</v>
-      </c>
-      <c r="H30" s="4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="I30" s="4">
-        <v>27.47</v>
-      </c>
-      <c r="J30" s="4">
-        <v>24.25</v>
-      </c>
-      <c r="K30" s="4">
-        <v>17.892921651126329</v>
-      </c>
-      <c r="L30" s="4">
-        <v>17.215216317182179</v>
-      </c>
-      <c r="M30" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="19">
-        <v>15.287450433017851</v>
-      </c>
-      <c r="E31" s="19">
-        <v>15.174671270949441</v>
-      </c>
-      <c r="F31" s="19">
-        <v>4.1113010115505588</v>
-      </c>
-      <c r="G31" s="19">
-        <v>22</v>
-      </c>
-      <c r="H31" s="19">
-        <v>8.7751617882796396</v>
-      </c>
-      <c r="I31" s="19">
-        <v>20.83</v>
-      </c>
-      <c r="J31" s="19">
-        <v>16.95</v>
-      </c>
-      <c r="K31" s="19">
-        <v>12.3125</v>
-      </c>
-      <c r="L31" s="19">
-        <v>11.677516178827959</v>
-      </c>
-      <c r="M31" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="4">
-        <v>21.544192695692999</v>
-      </c>
-      <c r="E32" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="F32" s="4">
-        <v>4.1517989452530184</v>
-      </c>
-      <c r="G32" s="4">
-        <v>28.1</v>
-      </c>
-      <c r="H32" s="4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="I32" s="4">
-        <v>27.47</v>
-      </c>
-      <c r="J32" s="4">
-        <v>24.25</v>
-      </c>
-      <c r="K32" s="4">
-        <v>17.892921651126329</v>
-      </c>
-      <c r="L32" s="4">
-        <v>17.215216317182179</v>
-      </c>
-      <c r="M32" s="5">
-        <v>10</v>
+      <c r="L32" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B33" s="17" t="s">
-        <v>37</v>
+      <c r="B33" s="17">
+        <v>46053</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D33" s="19">
-        <v>15.287450433017851</v>
+        <v>28.290236434108529</v>
       </c>
       <c r="E33" s="19">
-        <v>15.174671270949441</v>
+        <v>27.65</v>
       </c>
       <c r="F33" s="19">
-        <v>4.1113010115505588</v>
+        <v>2.553453800770932</v>
       </c>
       <c r="G33" s="19">
-        <v>22</v>
+        <v>33.4</v>
       </c>
       <c r="H33" s="19">
-        <v>8.7751617882796396</v>
+        <v>25</v>
       </c>
       <c r="I33" s="19">
-        <v>20.83</v>
+        <v>31.24</v>
       </c>
       <c r="J33" s="19">
-        <v>16.95</v>
+        <v>29.78</v>
       </c>
       <c r="K33" s="19">
-        <v>12.3125</v>
+        <v>26.581773255813939</v>
       </c>
       <c r="L33" s="19">
-        <v>11.677516178827959</v>
+        <v>26.17</v>
       </c>
       <c r="M33" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B34" s="2" t="s">
-        <v>41</v>
+      <c r="B34" s="2">
+        <v>46081</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D34" s="4">
-        <v>11.36896292046869</v>
+        <v>27.869236434108529</v>
       </c>
       <c r="E34" s="4">
-        <v>11.45</v>
+        <v>26.85</v>
       </c>
       <c r="F34" s="4">
-        <v>3.755185542201164</v>
+        <v>2.6382615822889779</v>
       </c>
       <c r="G34" s="4">
-        <v>18.173078884064541</v>
+        <v>32.5</v>
       </c>
       <c r="H34" s="4">
-        <v>5.3</v>
+        <v>25</v>
       </c>
       <c r="I34" s="4">
-        <v>14.957307888406451</v>
+        <v>31.15</v>
       </c>
       <c r="J34" s="4">
-        <v>13.675000000000001</v>
+        <v>30.105</v>
       </c>
       <c r="K34" s="4">
-        <v>8.7250000000000014</v>
+        <v>26.339273255813939</v>
       </c>
       <c r="L34" s="4">
-        <v>7.4748952885601359</v>
+        <v>25.18</v>
       </c>
       <c r="M34" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-    </row>
-    <row r="37" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="38"/>
-    </row>
-    <row r="38" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B38" s="25" t="s">
+    <row r="35" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B35" s="17">
+        <v>46112</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="19">
+        <v>27.630481436148511</v>
+      </c>
+      <c r="E35" s="19">
+        <v>26.84</v>
+      </c>
+      <c r="F35" s="19">
+        <v>2.4969391292379171</v>
+      </c>
+      <c r="G35" s="19">
+        <v>31.42</v>
+      </c>
+      <c r="H35" s="19">
+        <v>25</v>
+      </c>
+      <c r="I35" s="19">
+        <v>30.591999999999999</v>
+      </c>
+      <c r="J35" s="19">
+        <v>29.86370359037128</v>
+      </c>
+      <c r="K35" s="19">
+        <v>25.5625</v>
+      </c>
+      <c r="L35" s="19">
+        <v>25</v>
+      </c>
+      <c r="M35" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B36" s="2">
+        <v>46142</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="4">
+        <v>26.69948143614851</v>
+      </c>
+      <c r="E36" s="4">
+        <v>26.33</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2.66349810665014</v>
+      </c>
+      <c r="G36" s="4">
+        <v>30</v>
+      </c>
+      <c r="H36" s="4">
+        <v>23</v>
+      </c>
+      <c r="I36" s="4">
+        <v>29.509332925336601</v>
+      </c>
+      <c r="J36" s="4">
+        <v>29.285</v>
+      </c>
+      <c r="K36" s="4">
+        <v>24.8125</v>
+      </c>
+      <c r="L36" s="4">
+        <v>23.675000000000001</v>
+      </c>
+      <c r="M36" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B37" s="17">
+        <v>46173</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="19">
+        <v>25.754481436148509</v>
+      </c>
+      <c r="E37" s="19">
+        <v>25.47740718074256</v>
+      </c>
+      <c r="F37" s="19">
+        <v>2.4525080688836831</v>
+      </c>
+      <c r="G37" s="19">
+        <v>30</v>
+      </c>
+      <c r="H37" s="19">
+        <v>23</v>
+      </c>
+      <c r="I37" s="19">
+        <v>28.65</v>
+      </c>
+      <c r="J37" s="19">
+        <v>27.4</v>
+      </c>
+      <c r="K37" s="19">
+        <v>23.842500000000001</v>
+      </c>
+      <c r="L37" s="19">
+        <v>23</v>
+      </c>
+      <c r="M37" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B38" s="2">
+        <v>46203</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="4">
+        <v>25.29848143614851</v>
+      </c>
+      <c r="E38" s="4">
+        <v>25.22740718074256</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2.2702587505277538</v>
+      </c>
+      <c r="G38" s="4">
+        <v>28</v>
+      </c>
+      <c r="H38" s="4">
+        <v>22.25</v>
+      </c>
+      <c r="I38" s="4">
+        <v>27.739000000000001</v>
+      </c>
+      <c r="J38" s="4">
+        <v>27.48</v>
+      </c>
+      <c r="K38" s="4">
+        <v>23.25</v>
+      </c>
+      <c r="L38" s="4">
+        <v>22.861999999999998</v>
+      </c>
+      <c r="M38" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B39" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="19">
+        <v>22.166</v>
+      </c>
+      <c r="E39" s="19">
+        <v>21.574999999999999</v>
+      </c>
+      <c r="F39" s="19">
+        <v>2.8672914047930318</v>
+      </c>
+      <c r="G39" s="19">
+        <v>28</v>
+      </c>
+      <c r="H39" s="19">
+        <v>19.53</v>
+      </c>
+      <c r="I39" s="19">
+        <v>26.542000000000002</v>
+      </c>
+      <c r="J39" s="19">
+        <v>22.375</v>
+      </c>
+      <c r="K39" s="19">
+        <v>20.125</v>
+      </c>
+      <c r="L39" s="19">
+        <v>19.593</v>
+      </c>
+      <c r="M39" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="4">
+        <v>22.166</v>
+      </c>
+      <c r="E40" s="4">
+        <v>21.574999999999999</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2.8672914047930318</v>
+      </c>
+      <c r="G40" s="4">
+        <v>28</v>
+      </c>
+      <c r="H40" s="4">
+        <v>19.53</v>
+      </c>
+      <c r="I40" s="4">
+        <v>26.542000000000002</v>
+      </c>
+      <c r="J40" s="4">
+        <v>22.375</v>
+      </c>
+      <c r="K40" s="4">
+        <v>20.125</v>
+      </c>
+      <c r="L40" s="4">
+        <v>19.593</v>
+      </c>
+      <c r="M40" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+    </row>
+    <row r="43" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="34"/>
+    </row>
+    <row r="44" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="B44" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D44" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G44" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H44" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="I44" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J44" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K44" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L44" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="M44" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B39" s="7">
+    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B45" s="17">
         <v>46053</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="30">
-        <v>28.290236434108529</v>
-      </c>
-      <c r="E39" s="30">
-        <v>27.65</v>
-      </c>
-      <c r="F39" s="30">
-        <v>2.553453800770932</v>
-      </c>
-      <c r="G39" s="4">
-        <v>33.4</v>
-      </c>
-      <c r="H39" s="4">
-        <v>25</v>
-      </c>
-      <c r="I39" s="4">
-        <v>31.24</v>
-      </c>
-      <c r="J39" s="4">
-        <v>29.78</v>
-      </c>
-      <c r="K39" s="4">
-        <v>26.581773255813939</v>
-      </c>
-      <c r="L39" s="4">
-        <v>26.17</v>
-      </c>
-      <c r="M39" s="8">
+      <c r="C45" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="29">
+        <v>1490.767387519639</v>
+      </c>
+      <c r="E45" s="29">
+        <v>1489.44</v>
+      </c>
+      <c r="F45" s="29">
+        <v>19.433303488106649</v>
+      </c>
+      <c r="G45" s="29">
+        <v>1518.6624928728479</v>
+      </c>
+      <c r="H45" s="29">
+        <v>1465.1038330784679</v>
+      </c>
+      <c r="I45" s="29">
+        <v>1518.4064481988471</v>
+      </c>
+      <c r="J45" s="29">
+        <v>1501.3125</v>
+      </c>
+      <c r="K45" s="29">
+        <v>1475.7449999999999</v>
+      </c>
+      <c r="L45" s="29">
+        <v>1471.2379787168529</v>
+      </c>
+      <c r="M45" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B40" s="17">
+    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B46" s="2">
         <v>46081</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="31">
-        <v>27.869236434108529</v>
-      </c>
-      <c r="E40" s="31">
-        <v>26.85</v>
-      </c>
-      <c r="F40" s="31">
-        <v>2.6382615822889779</v>
-      </c>
-      <c r="G40" s="19">
-        <v>32.5</v>
-      </c>
-      <c r="H40" s="19">
-        <v>25</v>
-      </c>
-      <c r="I40" s="19">
-        <v>31.15</v>
-      </c>
-      <c r="J40" s="19">
-        <v>30.105</v>
-      </c>
-      <c r="K40" s="19">
-        <v>26.339273255813939</v>
-      </c>
-      <c r="L40" s="19">
-        <v>25.18</v>
-      </c>
-      <c r="M40" s="20">
+      <c r="C46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="28">
+        <v>1523.605659864088</v>
+      </c>
+      <c r="E46" s="28">
+        <v>1514.655</v>
+      </c>
+      <c r="F46" s="28">
+        <v>24.163224267574549</v>
+      </c>
+      <c r="G46" s="28">
+        <v>1556.629055194669</v>
+      </c>
+      <c r="H46" s="28">
+        <v>1485.4518256173669</v>
+      </c>
+      <c r="I46" s="28">
+        <v>1554.6135286789911</v>
+      </c>
+      <c r="J46" s="28">
+        <v>1546.5250000000001</v>
+      </c>
+      <c r="K46" s="28">
+        <v>1510</v>
+      </c>
+      <c r="L46" s="28">
+        <v>1502.303705448177</v>
+      </c>
+      <c r="M46" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B41" s="2">
+    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B47" s="17">
         <v>46112</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="30">
-        <v>27.630481436148511</v>
-      </c>
-      <c r="E41" s="30">
-        <v>26.84</v>
-      </c>
-      <c r="F41" s="30">
-        <v>2.4969391292379171</v>
-      </c>
-      <c r="G41" s="4">
-        <v>31.42</v>
-      </c>
-      <c r="H41" s="4">
-        <v>25</v>
-      </c>
-      <c r="I41" s="4">
-        <v>30.591999999999999</v>
-      </c>
-      <c r="J41" s="4">
-        <v>29.86370359037128</v>
-      </c>
-      <c r="K41" s="4">
-        <v>25.5625</v>
-      </c>
-      <c r="L41" s="4">
-        <v>25</v>
-      </c>
-      <c r="M41" s="5">
+      <c r="C47" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="29">
+        <v>1553.514766772139</v>
+      </c>
+      <c r="E47" s="29">
+        <v>1550.64</v>
+      </c>
+      <c r="F47" s="29">
+        <v>24.747123535462361</v>
+      </c>
+      <c r="G47" s="29">
+        <v>1587.761636298563</v>
+      </c>
+      <c r="H47" s="29">
+        <v>1506.0824198333719</v>
+      </c>
+      <c r="I47" s="29">
+        <v>1587.7479135232379</v>
+      </c>
+      <c r="J47" s="29">
+        <v>1567.5346680471921</v>
+      </c>
+      <c r="K47" s="29">
+        <v>1540</v>
+      </c>
+      <c r="L47" s="29">
+        <v>1536.2341408638381</v>
+      </c>
+      <c r="M47" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B42" s="17">
+    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B48" s="2">
         <v>46142</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="31">
-        <v>26.69948143614851</v>
-      </c>
-      <c r="E42" s="31">
-        <v>26.33</v>
-      </c>
-      <c r="F42" s="31">
-        <v>2.66349810665014</v>
-      </c>
-      <c r="G42" s="19">
-        <v>30</v>
-      </c>
-      <c r="H42" s="19">
+      <c r="C48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="28">
+        <v>1583.5699744269391</v>
+      </c>
+      <c r="E48" s="28">
+        <v>1583.2758287489339</v>
+      </c>
+      <c r="F48" s="28">
+        <v>25.852623126215718</v>
+      </c>
+      <c r="G48" s="28">
+        <v>1615.492649920719</v>
+      </c>
+      <c r="H48" s="28">
+        <v>1526.9995406201931</v>
+      </c>
+      <c r="I48" s="28">
+        <v>1607.7862649920719</v>
+      </c>
+      <c r="J48" s="28">
+        <v>1604.5888620247249</v>
+      </c>
+      <c r="K48" s="28">
+        <v>1571.25</v>
+      </c>
+      <c r="L48" s="28">
+        <v>1565.6999540620191</v>
+      </c>
+      <c r="M48" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B49" s="17">
+        <v>46173</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="29">
+        <v>1609.8009539691529</v>
+      </c>
+      <c r="E49" s="29">
+        <v>1618.71210895474</v>
+      </c>
+      <c r="F49" s="29">
+        <v>29.798642977969632</v>
+      </c>
+      <c r="G49" s="29">
+        <v>1640.32</v>
+      </c>
+      <c r="H49" s="29">
+        <v>1548.2071673821499</v>
+      </c>
+      <c r="I49" s="29">
+        <v>1639.052152310169</v>
+      </c>
+      <c r="J49" s="29">
+        <v>1628.548342005322</v>
+      </c>
+      <c r="K49" s="29">
+        <v>1592.4601295254861</v>
+      </c>
+      <c r="L49" s="29">
+        <v>1576.820716738215</v>
+      </c>
+      <c r="M49" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B50" s="2">
+        <v>46203</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="28">
+        <v>1639.6234777778261</v>
+      </c>
+      <c r="E50" s="28">
+        <v>1646.7029238119319</v>
+      </c>
+      <c r="F50" s="28">
+        <v>31.704337730824729</v>
+      </c>
+      <c r="G50" s="28">
+        <v>1672.39</v>
+      </c>
+      <c r="H50" s="28">
+        <v>1569.709334791246</v>
+      </c>
+      <c r="I50" s="28">
+        <v>1666.828</v>
+      </c>
+      <c r="J50" s="28">
+        <v>1659.7566518565141</v>
+      </c>
+      <c r="K50" s="28">
+        <v>1639.403798357007</v>
+      </c>
+      <c r="L50" s="28">
+        <v>1596.9709334791251</v>
+      </c>
+      <c r="M50" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B51" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="19">
-        <v>29.509332925336601</v>
-      </c>
-      <c r="J42" s="19">
-        <v>29.285</v>
-      </c>
-      <c r="K42" s="19">
-        <v>24.8125</v>
-      </c>
-      <c r="L42" s="19">
-        <v>23.675000000000001</v>
-      </c>
-      <c r="M42" s="20">
+      <c r="D51" s="29">
+        <v>1795.432467624451</v>
+      </c>
+      <c r="E51" s="29">
+        <v>1800</v>
+      </c>
+      <c r="F51" s="29">
+        <v>54.592184211210103</v>
+      </c>
+      <c r="G51" s="29">
+        <v>1873.54</v>
+      </c>
+      <c r="H51" s="29">
+        <v>1705.1407938825209</v>
+      </c>
+      <c r="I51" s="29">
+        <v>1865.2149999999999</v>
+      </c>
+      <c r="J51" s="29">
+        <v>1820.3989075970969</v>
+      </c>
+      <c r="K51" s="29">
+        <v>1771.414867010684</v>
+      </c>
+      <c r="L51" s="29">
+        <v>1718.514079388252</v>
+      </c>
+      <c r="M51" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B43" s="2">
-        <v>46173</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="30">
-        <v>25.754481436148509</v>
-      </c>
-      <c r="E43" s="30">
-        <v>25.47740718074256</v>
-      </c>
-      <c r="F43" s="30">
-        <v>2.4525080688836831</v>
-      </c>
-      <c r="G43" s="4">
-        <v>30</v>
-      </c>
-      <c r="H43" s="4">
+    <row r="52" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="4">
-        <v>28.65</v>
-      </c>
-      <c r="J43" s="4">
-        <v>27.4</v>
-      </c>
-      <c r="K43" s="4">
-        <v>23.842500000000001</v>
-      </c>
-      <c r="L43" s="4">
-        <v>23</v>
-      </c>
-      <c r="M43" s="5">
+      <c r="D52" s="28">
+        <v>1795.432467624451</v>
+      </c>
+      <c r="E52" s="28">
+        <v>1800</v>
+      </c>
+      <c r="F52" s="28">
+        <v>54.592184211210103</v>
+      </c>
+      <c r="G52" s="28">
+        <v>1873.54</v>
+      </c>
+      <c r="H52" s="28">
+        <v>1705.1407938825209</v>
+      </c>
+      <c r="I52" s="28">
+        <v>1865.2149999999999</v>
+      </c>
+      <c r="J52" s="28">
+        <v>1820.3989075970969</v>
+      </c>
+      <c r="K52" s="28">
+        <v>1771.414867010684</v>
+      </c>
+      <c r="L52" s="28">
+        <v>1718.514079388252</v>
+      </c>
+      <c r="M52" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B44" s="17">
-        <v>46203</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="31">
-        <v>25.29848143614851</v>
-      </c>
-      <c r="E44" s="31">
-        <v>25.22740718074256</v>
-      </c>
-      <c r="F44" s="31">
-        <v>2.2702587505277538</v>
-      </c>
-      <c r="G44" s="19">
-        <v>28</v>
-      </c>
-      <c r="H44" s="19">
-        <v>22.25</v>
-      </c>
-      <c r="I44" s="19">
-        <v>27.739000000000001</v>
-      </c>
-      <c r="J44" s="19">
-        <v>27.48</v>
-      </c>
-      <c r="K44" s="19">
-        <v>23.25</v>
-      </c>
-      <c r="L44" s="19">
-        <v>22.861999999999998</v>
-      </c>
-      <c r="M44" s="20">
+    <row r="53" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+    </row>
+    <row r="54" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+    </row>
+    <row r="55" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B55" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="34"/>
+    </row>
+    <row r="56" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="B56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="30">
-        <v>22.166</v>
-      </c>
-      <c r="E45" s="30">
-        <v>21.574999999999999</v>
-      </c>
-      <c r="F45" s="30">
-        <v>2.8672914047930318</v>
-      </c>
-      <c r="G45" s="4">
-        <v>28</v>
-      </c>
-      <c r="H45" s="4">
-        <v>19.53</v>
-      </c>
-      <c r="I45" s="4">
-        <v>26.542000000000002</v>
-      </c>
-      <c r="J45" s="4">
-        <v>22.375</v>
-      </c>
-      <c r="K45" s="4">
-        <v>20.125</v>
-      </c>
-      <c r="L45" s="4">
-        <v>19.593</v>
-      </c>
-      <c r="M45" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B46" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="31">
-        <v>22.166</v>
-      </c>
-      <c r="E46" s="31">
-        <v>21.574999999999999</v>
-      </c>
-      <c r="F46" s="31">
-        <v>2.8672914047930318</v>
-      </c>
-      <c r="G46" s="19">
-        <v>28</v>
-      </c>
-      <c r="H46" s="19">
-        <v>19.53</v>
-      </c>
-      <c r="I46" s="19">
-        <v>26.542000000000002</v>
-      </c>
-      <c r="J46" s="19">
-        <v>22.375</v>
-      </c>
-      <c r="K46" s="19">
-        <v>20.125</v>
-      </c>
-      <c r="L46" s="19">
-        <v>19.593</v>
-      </c>
-      <c r="M46" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="30">
-        <v>16.021999999999998</v>
-      </c>
-      <c r="E47" s="30">
-        <v>15.5</v>
-      </c>
-      <c r="F47" s="30">
-        <v>2.9999362956199218</v>
-      </c>
-      <c r="G47" s="4">
-        <v>24.17</v>
-      </c>
-      <c r="H47" s="4">
-        <v>13.55</v>
-      </c>
-      <c r="I47" s="4">
-        <v>16.817</v>
-      </c>
-      <c r="J47" s="4">
-        <v>16</v>
-      </c>
-      <c r="K47" s="4">
-        <v>14.625</v>
-      </c>
-      <c r="L47" s="4">
-        <v>13.955</v>
-      </c>
-      <c r="M47" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-    </row>
-    <row r="50" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="38"/>
-    </row>
-    <row r="51" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B51" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K51" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L51" s="25" t="s">
+      <c r="L56" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M51" s="26" t="s">
+      <c r="M56" s="25" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B52" s="7">
-        <v>46053</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="30">
-        <v>1490.767387519639</v>
-      </c>
-      <c r="E52" s="30">
-        <v>1489.44</v>
-      </c>
-      <c r="F52" s="30">
-        <v>19.433303488106649</v>
-      </c>
-      <c r="G52" s="4">
-        <v>1518.6624928728479</v>
-      </c>
-      <c r="H52" s="4">
-        <v>1465.1038330784679</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1518.4064481988471</v>
-      </c>
-      <c r="J52" s="4">
-        <v>1501.3125</v>
-      </c>
-      <c r="K52" s="4">
-        <v>1475.7449999999999</v>
-      </c>
-      <c r="L52" s="4">
-        <v>1471.2379787168529</v>
-      </c>
-      <c r="M52" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B53" s="17">
-        <v>46081</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="31">
-        <v>1523.605659864088</v>
-      </c>
-      <c r="E53" s="31">
-        <v>1514.655</v>
-      </c>
-      <c r="F53" s="31">
-        <v>24.163224267574549</v>
-      </c>
-      <c r="G53" s="19">
-        <v>1556.629055194669</v>
-      </c>
-      <c r="H53" s="19">
-        <v>1485.4518256173669</v>
-      </c>
-      <c r="I53" s="19">
-        <v>1554.6135286789911</v>
-      </c>
-      <c r="J53" s="19">
-        <v>1546.5250000000001</v>
-      </c>
-      <c r="K53" s="19">
-        <v>1510</v>
-      </c>
-      <c r="L53" s="19">
-        <v>1502.303705448177</v>
-      </c>
-      <c r="M53" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B54" s="2">
-        <v>46112</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="30">
-        <v>1553.514766772139</v>
-      </c>
-      <c r="E54" s="30">
-        <v>1550.64</v>
-      </c>
-      <c r="F54" s="30">
-        <v>24.747123535462361</v>
-      </c>
-      <c r="G54" s="4">
-        <v>1587.761636298563</v>
-      </c>
-      <c r="H54" s="4">
-        <v>1506.0824198333719</v>
-      </c>
-      <c r="I54" s="4">
-        <v>1587.7479135232379</v>
-      </c>
-      <c r="J54" s="4">
-        <v>1567.5346680471921</v>
-      </c>
-      <c r="K54" s="4">
-        <v>1540</v>
-      </c>
-      <c r="L54" s="4">
-        <v>1536.2341408638381</v>
-      </c>
-      <c r="M54" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B55" s="17">
-        <v>46142</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="31">
-        <v>1583.5699744269391</v>
-      </c>
-      <c r="E55" s="31">
-        <v>1583.2758287489339</v>
-      </c>
-      <c r="F55" s="31">
-        <v>25.852623126215718</v>
-      </c>
-      <c r="G55" s="19">
-        <v>1615.492649920719</v>
-      </c>
-      <c r="H55" s="19">
-        <v>1526.9995406201931</v>
-      </c>
-      <c r="I55" s="19">
-        <v>1607.7862649920719</v>
-      </c>
-      <c r="J55" s="19">
-        <v>1604.5888620247249</v>
-      </c>
-      <c r="K55" s="19">
-        <v>1571.25</v>
-      </c>
-      <c r="L55" s="19">
-        <v>1565.6999540620191</v>
-      </c>
-      <c r="M55" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B56" s="2">
-        <v>46173</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="30">
-        <v>1609.8009539691529</v>
-      </c>
-      <c r="E56" s="30">
-        <v>1618.71210895474</v>
-      </c>
-      <c r="F56" s="30">
-        <v>29.798642977969632</v>
-      </c>
-      <c r="G56" s="4">
-        <v>1640.32</v>
-      </c>
-      <c r="H56" s="4">
-        <v>1548.2071673821499</v>
-      </c>
-      <c r="I56" s="4">
-        <v>1639.052152310169</v>
-      </c>
-      <c r="J56" s="4">
-        <v>1628.548342005322</v>
-      </c>
-      <c r="K56" s="4">
-        <v>1592.4601295254861</v>
-      </c>
-      <c r="L56" s="4">
-        <v>1576.820716738215</v>
-      </c>
-      <c r="M56" s="5">
-        <v>10</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B57" s="17">
-        <v>46203</v>
+        <v>46022</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="31">
-        <v>1639.6234777778261</v>
-      </c>
-      <c r="E57" s="31">
-        <v>1646.7029238119319</v>
-      </c>
-      <c r="F57" s="31">
-        <v>31.704337730824729</v>
-      </c>
-      <c r="G57" s="19">
-        <v>1672.39</v>
-      </c>
-      <c r="H57" s="19">
-        <v>1569.709334791246</v>
-      </c>
-      <c r="I57" s="19">
-        <v>1666.828</v>
-      </c>
-      <c r="J57" s="19">
-        <v>1659.7566518565141</v>
-      </c>
-      <c r="K57" s="19">
-        <v>1639.403798357007</v>
-      </c>
-      <c r="L57" s="19">
-        <v>1596.9709334791251</v>
+        <v>25</v>
+      </c>
+      <c r="D57" s="29">
+        <v>7748.9371316332154</v>
+      </c>
+      <c r="E57" s="29">
+        <v>7693.797627865647</v>
+      </c>
+      <c r="F57" s="29">
+        <v>296.52964309031961</v>
+      </c>
+      <c r="G57" s="29">
+        <v>8173</v>
+      </c>
+      <c r="H57" s="29">
+        <v>7395.2491391284584</v>
+      </c>
+      <c r="I57" s="29">
+        <v>8169.4</v>
+      </c>
+      <c r="J57" s="29">
+        <v>7964.0660731297758</v>
+      </c>
+      <c r="K57" s="29">
+        <v>7482.2763726581761</v>
+      </c>
+      <c r="L57" s="29">
+        <v>7444.5249139128446</v>
       </c>
       <c r="M57" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B58" s="2" t="s">
-        <v>14</v>
+      <c r="B58" s="2">
+        <v>46053</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="30">
-        <v>1795.432467624451</v>
-      </c>
-      <c r="E58" s="30">
-        <v>1800</v>
-      </c>
-      <c r="F58" s="30">
-        <v>54.592184211210103</v>
-      </c>
-      <c r="G58" s="4">
-        <v>1873.54</v>
-      </c>
-      <c r="H58" s="4">
-        <v>1705.1407938825209</v>
-      </c>
-      <c r="I58" s="4">
-        <v>1865.2149999999999</v>
-      </c>
-      <c r="J58" s="4">
-        <v>1820.3989075970969</v>
-      </c>
-      <c r="K58" s="4">
-        <v>1771.414867010684</v>
-      </c>
-      <c r="L58" s="4">
-        <v>1718.514079388252</v>
+        <v>25</v>
+      </c>
+      <c r="D58" s="28">
+        <v>6652.2780893115978</v>
+      </c>
+      <c r="E58" s="28">
+        <v>6446.5</v>
+      </c>
+      <c r="F58" s="28">
+        <v>560.93732751269863</v>
+      </c>
+      <c r="G58" s="28">
+        <v>7761</v>
+      </c>
+      <c r="H58" s="28">
+        <v>5896.2065308014926</v>
+      </c>
+      <c r="I58" s="28">
+        <v>7256.0999999999995</v>
+      </c>
+      <c r="J58" s="28">
+        <v>7002.8523715653964</v>
+      </c>
+      <c r="K58" s="28">
+        <v>6391.2787190132258</v>
+      </c>
+      <c r="L58" s="28">
+        <v>6072.8256530801491</v>
       </c>
       <c r="M58" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B59" s="21" t="s">
-        <v>36</v>
+      <c r="B59" s="17">
+        <v>46081</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="31">
-        <v>1795.432467624451</v>
-      </c>
-      <c r="E59" s="31">
-        <v>1800</v>
-      </c>
-      <c r="F59" s="31">
-        <v>54.592184211210103</v>
-      </c>
-      <c r="G59" s="19">
-        <v>1873.54</v>
-      </c>
-      <c r="H59" s="19">
-        <v>1705.1407938825209</v>
-      </c>
-      <c r="I59" s="19">
-        <v>1865.2149999999999</v>
-      </c>
-      <c r="J59" s="19">
-        <v>1820.3989075970969</v>
-      </c>
-      <c r="K59" s="19">
-        <v>1771.414867010684</v>
-      </c>
-      <c r="L59" s="19">
-        <v>1718.514079388252</v>
+        <v>25</v>
+      </c>
+      <c r="D59" s="29">
+        <v>6849.5185055209677</v>
+      </c>
+      <c r="E59" s="29">
+        <v>6740.7440882405499</v>
+      </c>
+      <c r="F59" s="29">
+        <v>516.04698504474845</v>
+      </c>
+      <c r="G59" s="29">
+        <v>8071</v>
+      </c>
+      <c r="H59" s="29">
+        <v>6324.2</v>
+      </c>
+      <c r="I59" s="29">
+        <v>7278.0999999999995</v>
+      </c>
+      <c r="J59" s="29">
+        <v>6992.5217213810929</v>
+      </c>
+      <c r="K59" s="29">
+        <v>6553.0574949031543</v>
+      </c>
+      <c r="L59" s="29">
+        <v>6339.32</v>
       </c>
       <c r="M59" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B60" s="6" t="s">
-        <v>37</v>
+      <c r="B60" s="2">
+        <v>46112</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" s="30">
-        <v>2011.119545478268</v>
-      </c>
-      <c r="E60" s="30">
-        <v>2010.364533264534</v>
-      </c>
-      <c r="F60" s="30">
-        <v>116.35866943062869</v>
-      </c>
-      <c r="G60" s="4">
-        <v>2208.44</v>
-      </c>
-      <c r="H60" s="4">
-        <v>1864.7252900426899</v>
-      </c>
-      <c r="I60" s="4">
-        <v>2128.8440000000001</v>
-      </c>
-      <c r="J60" s="4">
-        <v>2091.1077745527309</v>
-      </c>
-      <c r="K60" s="4">
-        <v>1903.7175</v>
-      </c>
-      <c r="L60" s="4">
-        <v>1869.4725290042691</v>
+        <v>25</v>
+      </c>
+      <c r="D60" s="28">
+        <v>7513.7927528888122</v>
+      </c>
+      <c r="E60" s="28">
+        <v>7349.0479893539496</v>
+      </c>
+      <c r="F60" s="28">
+        <v>578.85539172316476</v>
+      </c>
+      <c r="G60" s="28">
+        <v>8798</v>
+      </c>
+      <c r="H60" s="28">
+        <v>6841.26</v>
+      </c>
+      <c r="I60" s="28">
+        <v>8084.4903951621936</v>
+      </c>
+      <c r="J60" s="28">
+        <v>7800</v>
+      </c>
+      <c r="K60" s="28">
+        <v>7127.34</v>
+      </c>
+      <c r="L60" s="28">
+        <v>7083.1260000000002</v>
       </c>
       <c r="M60" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-    </row>
-    <row r="62" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
+    <row r="61" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B61" s="17">
+        <v>46142</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="29">
+        <v>7857.4251882242261</v>
+      </c>
+      <c r="E61" s="29">
+        <v>7911</v>
+      </c>
+      <c r="F61" s="29">
+        <v>639.87620919109929</v>
+      </c>
+      <c r="G61" s="29">
+        <v>8841</v>
+      </c>
+      <c r="H61" s="29">
+        <v>6874.22</v>
+      </c>
+      <c r="I61" s="29">
+        <v>8437.2851188569166</v>
+      </c>
+      <c r="J61" s="29">
+        <v>8366.0474321751353</v>
+      </c>
+      <c r="K61" s="29">
+        <v>7348.1235609251726</v>
+      </c>
+      <c r="L61" s="29">
+        <v>7174.55</v>
+      </c>
+      <c r="M61" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B62" s="2">
+        <v>46173</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="28">
+        <v>8344.4129348466631</v>
+      </c>
+      <c r="E62" s="28">
+        <v>8322.5687453307874</v>
+      </c>
+      <c r="F62" s="28">
+        <v>718.23422035696103</v>
+      </c>
+      <c r="G62" s="28">
+        <v>9284</v>
+      </c>
+      <c r="H62" s="28">
+        <v>7307.85</v>
+      </c>
+      <c r="I62" s="28">
+        <v>9184.5876720245451</v>
+      </c>
+      <c r="J62" s="28">
+        <v>8932.75</v>
+      </c>
+      <c r="K62" s="28">
+        <v>7741.9500000000007</v>
+      </c>
+      <c r="L62" s="28">
+        <v>7570.7849999999999</v>
+      </c>
+      <c r="M62" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B63" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="38"/>
-    </row>
-    <row r="64" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B64" s="25" t="s">
+      <c r="B63" s="17">
+        <v>46203</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="29">
+        <v>8195.5162958248657</v>
+      </c>
+      <c r="E63" s="29">
+        <v>7939.2586803517815</v>
+      </c>
+      <c r="F63" s="29">
+        <v>614.92549240938285</v>
+      </c>
+      <c r="G63" s="29">
+        <v>9423</v>
+      </c>
+      <c r="H63" s="29">
+        <v>7493.25</v>
+      </c>
+      <c r="I63" s="29">
+        <v>8907.2999999999993</v>
+      </c>
+      <c r="J63" s="29">
+        <v>8544.4283210510584</v>
+      </c>
+      <c r="K63" s="29">
+        <v>7820.8683771077667</v>
+      </c>
+      <c r="L63" s="29">
+        <v>7589.3249999999998</v>
+      </c>
+      <c r="M63" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="28">
+        <v>92781.582517384231</v>
+      </c>
+      <c r="E64" s="28">
+        <v>93390</v>
+      </c>
+      <c r="F64" s="28">
+        <v>2546.073288760841</v>
+      </c>
+      <c r="G64" s="28">
+        <v>96325.820970575587</v>
+      </c>
+      <c r="H64" s="28">
+        <v>88301</v>
+      </c>
+      <c r="I64" s="28">
+        <v>95911.879932071985</v>
+      </c>
+      <c r="J64" s="28">
+        <v>93976</v>
+      </c>
+      <c r="K64" s="28">
+        <v>91361.429766141431</v>
+      </c>
+      <c r="L64" s="28">
+        <v>89637.714789816528</v>
+      </c>
+      <c r="M64" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+    </row>
+    <row r="66" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
+    </row>
+    <row r="67" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B67" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="34"/>
+    </row>
+    <row r="68" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="B68" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C68" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D68" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E68" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F68" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G68" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H68" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="25" t="s">
+      <c r="I68" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J64" s="25" t="s">
+      <c r="J68" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K64" s="25" t="s">
+      <c r="K68" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L64" s="25" t="s">
+      <c r="L68" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M64" s="26" t="s">
+      <c r="M68" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B65" s="7">
+    <row r="69" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B69" s="17">
         <v>46022</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C69" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="24">
-        <v>7748.9371316332154</v>
-      </c>
-      <c r="E65" s="24">
-        <v>7693.797627865647</v>
-      </c>
-      <c r="F65" s="24">
-        <v>296.52964309031961</v>
-      </c>
-      <c r="G65" s="24">
-        <v>8173</v>
-      </c>
-      <c r="H65" s="24">
-        <v>7395.2491391284584</v>
-      </c>
-      <c r="I65" s="24">
-        <v>8169.4</v>
-      </c>
-      <c r="J65" s="24">
-        <v>7964.0660731297758</v>
-      </c>
-      <c r="K65" s="24">
-        <v>7482.2763726581761</v>
-      </c>
-      <c r="L65" s="24">
-        <v>7444.5249139128446</v>
-      </c>
-      <c r="M65" s="8">
+      <c r="D69" s="29">
+        <v>5822.0504756277569</v>
+      </c>
+      <c r="E69" s="29">
+        <v>5885.6936661659483</v>
+      </c>
+      <c r="F69" s="29">
+        <v>267.29315965127267</v>
+      </c>
+      <c r="G69" s="29">
+        <v>6155</v>
+      </c>
+      <c r="H69" s="29">
+        <v>5400.9748814102923</v>
+      </c>
+      <c r="I69" s="29">
+        <v>6105.5</v>
+      </c>
+      <c r="J69" s="29">
+        <v>6004.9606351361363</v>
+      </c>
+      <c r="K69" s="29">
+        <v>5628.736013753055</v>
+      </c>
+      <c r="L69" s="29">
+        <v>5440.5842734291082</v>
+      </c>
+      <c r="M69" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B66" s="17">
+    <row r="70" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B70" s="2">
         <v>46053</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C70" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="27">
-        <v>6652.2780893115978</v>
-      </c>
-      <c r="E66" s="27">
-        <v>6446.5</v>
-      </c>
-      <c r="F66" s="27">
-        <v>560.93732751269863</v>
-      </c>
-      <c r="G66" s="27">
-        <v>7761</v>
-      </c>
-      <c r="H66" s="27">
-        <v>5896.2065308014926</v>
-      </c>
-      <c r="I66" s="27">
-        <v>7256.0999999999995</v>
-      </c>
-      <c r="J66" s="27">
-        <v>7002.8523715653964</v>
-      </c>
-      <c r="K66" s="27">
-        <v>6391.2787190132258</v>
-      </c>
-      <c r="L66" s="27">
-        <v>6072.8256530801491</v>
-      </c>
-      <c r="M66" s="20">
+      <c r="D70" s="28">
+        <v>6161.6255206476244</v>
+      </c>
+      <c r="E70" s="28">
+        <v>6230.2960363061366</v>
+      </c>
+      <c r="F70" s="28">
+        <v>249.66659367072819</v>
+      </c>
+      <c r="G70" s="28">
+        <v>6430</v>
+      </c>
+      <c r="H70" s="28">
+        <v>5657.7570893360135</v>
+      </c>
+      <c r="I70" s="28">
+        <v>6394</v>
+      </c>
+      <c r="J70" s="28">
+        <v>6356.1320196889219</v>
+      </c>
+      <c r="K70" s="28">
+        <v>6060.7262135718129</v>
+      </c>
+      <c r="L70" s="28">
+        <v>5839.9183565235262</v>
+      </c>
+      <c r="M70" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B67" s="2">
+    <row r="71" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B71" s="17">
         <v>46081</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C71" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="24">
-        <v>6849.5185055209677</v>
-      </c>
-      <c r="E67" s="24">
-        <v>6740.7440882405499</v>
-      </c>
-      <c r="F67" s="24">
-        <v>516.04698504474845</v>
-      </c>
-      <c r="G67" s="24">
-        <v>8071</v>
-      </c>
-      <c r="H67" s="24">
-        <v>6324.2</v>
-      </c>
-      <c r="I67" s="24">
-        <v>7278.0999999999995</v>
-      </c>
-      <c r="J67" s="24">
-        <v>6992.5217213810929</v>
-      </c>
-      <c r="K67" s="24">
-        <v>6553.0574949031543</v>
-      </c>
-      <c r="L67" s="24">
-        <v>6339.32</v>
-      </c>
-      <c r="M67" s="5">
+      <c r="D71" s="29">
+        <v>5869.4724502418712</v>
+      </c>
+      <c r="E71" s="29">
+        <v>5993.0535814731393</v>
+      </c>
+      <c r="F71" s="29">
+        <v>434.7301072051834</v>
+      </c>
+      <c r="G71" s="29">
+        <v>6400</v>
+      </c>
+      <c r="H71" s="29">
+        <v>4955.6656843901901</v>
+      </c>
+      <c r="I71" s="29">
+        <v>6222.7</v>
+      </c>
+      <c r="J71" s="29">
+        <v>6155.75</v>
+      </c>
+      <c r="K71" s="29">
+        <v>5675.7610462651073</v>
+      </c>
+      <c r="L71" s="29">
+        <v>5366.577023563309</v>
+      </c>
+      <c r="M71" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B68" s="17">
+    <row r="72" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B72" s="2">
         <v>46112</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C72" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="27">
-        <v>7513.7927528888122</v>
-      </c>
-      <c r="E68" s="27">
-        <v>7349.0479893539496</v>
-      </c>
-      <c r="F68" s="27">
-        <v>578.85539172316476</v>
-      </c>
-      <c r="G68" s="27">
-        <v>8798</v>
-      </c>
-      <c r="H68" s="27">
-        <v>6841.26</v>
-      </c>
-      <c r="I68" s="27">
-        <v>8084.4903951621936</v>
-      </c>
-      <c r="J68" s="27">
-        <v>7800</v>
-      </c>
-      <c r="K68" s="27">
-        <v>7127.34</v>
-      </c>
-      <c r="L68" s="27">
-        <v>7083.1260000000002</v>
-      </c>
-      <c r="M68" s="20">
+      <c r="D72" s="28">
+        <v>6490.102934101059</v>
+      </c>
+      <c r="E72" s="28">
+        <v>6610</v>
+      </c>
+      <c r="F72" s="28">
+        <v>431.78057855031801</v>
+      </c>
+      <c r="G72" s="28">
+        <v>6908.1532811600291</v>
+      </c>
+      <c r="H72" s="28">
+        <v>5402.1652097985616</v>
+      </c>
+      <c r="I72" s="28">
+        <v>6834.2153281160026</v>
+      </c>
+      <c r="J72" s="28">
+        <v>6729.1809471103534</v>
+      </c>
+      <c r="K72" s="28">
+        <v>6410.3888666967978</v>
+      </c>
+      <c r="L72" s="28">
+        <v>6154.5541810777486</v>
+      </c>
+      <c r="M72" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B69" s="2">
+    <row r="73" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B73" s="17">
         <v>46142</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C73" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="24">
-        <v>7857.4251882242261</v>
-      </c>
-      <c r="E69" s="24">
-        <v>7911</v>
-      </c>
-      <c r="F69" s="24">
-        <v>639.87620919109929</v>
-      </c>
-      <c r="G69" s="24">
-        <v>8841</v>
-      </c>
-      <c r="H69" s="24">
-        <v>6874.22</v>
-      </c>
-      <c r="I69" s="24">
-        <v>8437.2851188569166</v>
-      </c>
-      <c r="J69" s="24">
-        <v>8366.0474321751353</v>
-      </c>
-      <c r="K69" s="24">
-        <v>7348.1235609251726</v>
-      </c>
-      <c r="L69" s="24">
-        <v>7174.55</v>
-      </c>
-      <c r="M69" s="5">
+      <c r="D73" s="29">
+        <v>6739.8128462351424</v>
+      </c>
+      <c r="E73" s="29">
+        <v>6693.5197396936801</v>
+      </c>
+      <c r="F73" s="29">
+        <v>338.26803143338662</v>
+      </c>
+      <c r="G73" s="29">
+        <v>7531.129713440665</v>
+      </c>
+      <c r="H73" s="29">
+        <v>6338.3746723533723</v>
+      </c>
+      <c r="I73" s="29">
+        <v>7035.112971344066</v>
+      </c>
+      <c r="J73" s="29">
+        <v>6808.25</v>
+      </c>
+      <c r="K73" s="29">
+        <v>6553.0935210248626</v>
+      </c>
+      <c r="L73" s="29">
+        <v>6403.8513794585306</v>
+      </c>
+      <c r="M73" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B70" s="17">
+    <row r="74" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B74" s="2">
         <v>46173</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="27">
-        <v>8344.4129348466631</v>
-      </c>
-      <c r="E70" s="27">
-        <v>8322.5687453307874</v>
-      </c>
-      <c r="F70" s="27">
-        <v>718.23422035696103</v>
-      </c>
-      <c r="G70" s="27">
-        <v>9284</v>
-      </c>
-      <c r="H70" s="27">
-        <v>7307.85</v>
-      </c>
-      <c r="I70" s="27">
-        <v>9184.5876720245451</v>
-      </c>
-      <c r="J70" s="27">
-        <v>8932.75</v>
-      </c>
-      <c r="K70" s="27">
-        <v>7741.9500000000007</v>
-      </c>
-      <c r="L70" s="27">
-        <v>7570.7849999999999</v>
-      </c>
-      <c r="M70" s="20">
+      <c r="D74" s="28">
+        <v>7093.546307234089</v>
+      </c>
+      <c r="E74" s="28">
+        <v>7251.0145339082392</v>
+      </c>
+      <c r="F74" s="28">
+        <v>354.87263143617503</v>
+      </c>
+      <c r="G74" s="28">
+        <v>7531.0858216495244</v>
+      </c>
+      <c r="H74" s="28">
+        <v>6398.2985947835996</v>
+      </c>
+      <c r="I74" s="28">
+        <v>7413.1085821649522</v>
+      </c>
+      <c r="J74" s="28">
+        <v>7302.4829141676246</v>
+      </c>
+      <c r="K74" s="28">
+        <v>6876.8514256336148</v>
+      </c>
+      <c r="L74" s="28">
+        <v>6669.82985947836</v>
+      </c>
+      <c r="M74" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B71" s="2">
+    <row r="75" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B75" s="17">
         <v>46203</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C75" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="24">
-        <v>8195.5162958248657</v>
-      </c>
-      <c r="E71" s="24">
-        <v>7939.2586803517815</v>
-      </c>
-      <c r="F71" s="24">
-        <v>614.92549240938285</v>
-      </c>
-      <c r="G71" s="24">
-        <v>9423</v>
-      </c>
-      <c r="H71" s="24">
-        <v>7493.25</v>
-      </c>
-      <c r="I71" s="24">
-        <v>8907.2999999999993</v>
-      </c>
-      <c r="J71" s="24">
-        <v>8544.4283210510584</v>
-      </c>
-      <c r="K71" s="24">
-        <v>7820.8683771077667</v>
-      </c>
-      <c r="L71" s="24">
-        <v>7589.3249999999998</v>
-      </c>
-      <c r="M71" s="5">
+      <c r="D75" s="29">
+        <v>6968.0544122965757</v>
+      </c>
+      <c r="E75" s="29">
+        <v>7037.5137742894804</v>
+      </c>
+      <c r="F75" s="29">
+        <v>332.40969893326519</v>
+      </c>
+      <c r="G75" s="29">
+        <v>7320</v>
+      </c>
+      <c r="H75" s="29">
+        <v>6323.9821574627922</v>
+      </c>
+      <c r="I75" s="29">
+        <v>7311.2362754481937</v>
+      </c>
+      <c r="J75" s="29">
+        <v>7225.0499979596807</v>
+      </c>
+      <c r="K75" s="29">
+        <v>6781.1346395088331</v>
+      </c>
+      <c r="L75" s="29">
+        <v>6572.3982157462797</v>
+      </c>
+      <c r="M75" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B72" s="21" t="s">
+    <row r="76" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B76" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C76" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="27">
-        <v>92781.582517384231</v>
-      </c>
-      <c r="E72" s="27">
-        <v>93390</v>
-      </c>
-      <c r="F72" s="27">
-        <v>2546.073288760841</v>
-      </c>
-      <c r="G72" s="27">
-        <v>96325.820970575587</v>
-      </c>
-      <c r="H72" s="27">
-        <v>88301</v>
-      </c>
-      <c r="I72" s="27">
-        <v>95911.879932071985</v>
-      </c>
-      <c r="J72" s="27">
-        <v>93976</v>
-      </c>
-      <c r="K72" s="27">
-        <v>91361.429766141431</v>
-      </c>
-      <c r="L72" s="27">
-        <v>89637.714789816528</v>
-      </c>
-      <c r="M72" s="20">
+      <c r="D76" s="28">
+        <v>82000.060520161263</v>
+      </c>
+      <c r="E76" s="28">
+        <v>82222.618042551388</v>
+      </c>
+      <c r="F76" s="28">
+        <v>3143.4895951073941</v>
+      </c>
+      <c r="G76" s="28">
+        <v>86207</v>
+      </c>
+      <c r="H76" s="28">
+        <v>77002.574088585054</v>
+      </c>
+      <c r="I76" s="28">
+        <v>86119.7</v>
+      </c>
+      <c r="J76" s="28">
+        <v>84431.258050456279</v>
+      </c>
+      <c r="K76" s="28">
+        <v>79805</v>
+      </c>
+      <c r="L76" s="28">
+        <v>78593.943952348214</v>
+      </c>
+      <c r="M76" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B73" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="24">
-        <v>99095.080021837362</v>
-      </c>
-      <c r="E73" s="24">
-        <v>100475</v>
-      </c>
-      <c r="F73" s="24">
-        <v>5018.2392260725337</v>
-      </c>
-      <c r="G73" s="24">
-        <v>105106.49980060371</v>
-      </c>
-      <c r="H73" s="24">
-        <v>90000</v>
-      </c>
-      <c r="I73" s="24">
-        <v>104027.0828032009</v>
-      </c>
-      <c r="J73" s="24">
-        <v>102682.5</v>
-      </c>
-      <c r="K73" s="24">
-        <v>95402.364627377014</v>
-      </c>
-      <c r="L73" s="24">
-        <v>92928.6</v>
-      </c>
-      <c r="M73" s="5">
+    <row r="77" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+    </row>
+    <row r="79" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="34"/>
+    </row>
+    <row r="80" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="B80" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-    </row>
-    <row r="75" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-    </row>
-    <row r="76" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B76" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="38"/>
-    </row>
-    <row r="77" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B77" s="25" t="s">
+      <c r="L80" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M80" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="28">
+        <v>15297.41601328344</v>
+      </c>
+      <c r="E81" s="28">
+        <v>16178.96249668551</v>
+      </c>
+      <c r="F81" s="28">
+        <v>3816.9927008511622</v>
+      </c>
+      <c r="G81" s="28">
+        <v>20376.34076779048</v>
+      </c>
+      <c r="H81" s="28">
+        <v>7666</v>
+      </c>
+      <c r="I81" s="28">
+        <v>19211.365268650501</v>
+      </c>
+      <c r="J81" s="28">
+        <v>17905.599999999999</v>
+      </c>
+      <c r="K81" s="28">
+        <v>13096.14270628727</v>
+      </c>
+      <c r="L81" s="28">
+        <v>11499.1</v>
+      </c>
+      <c r="M81" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="B82" s="9"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+    </row>
+    <row r="84" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="34"/>
+    </row>
+    <row r="85" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="B85" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C85" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D85" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E85" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F85" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="25" t="s">
+      <c r="G85" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="25" t="s">
+      <c r="H85" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I77" s="25" t="s">
+      <c r="I85" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J77" s="25" t="s">
+      <c r="J85" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K77" s="25" t="s">
+      <c r="K85" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L77" s="25" t="s">
+      <c r="L85" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M77" s="26" t="s">
+      <c r="M85" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B78" s="7">
-        <v>46022</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="24">
-        <v>5822.0504756277569</v>
-      </c>
-      <c r="E78" s="24">
-        <v>5885.6936661659483</v>
-      </c>
-      <c r="F78" s="24">
-        <v>267.29315965127267</v>
-      </c>
-      <c r="G78" s="24">
-        <v>6155</v>
-      </c>
-      <c r="H78" s="24">
-        <v>5400.9748814102923</v>
-      </c>
-      <c r="I78" s="24">
-        <v>6105.5</v>
-      </c>
-      <c r="J78" s="24">
-        <v>6004.9606351361363</v>
-      </c>
-      <c r="K78" s="24">
-        <v>5628.736013753055</v>
-      </c>
-      <c r="L78" s="24">
-        <v>5440.5842734291082</v>
-      </c>
-      <c r="M78" s="8">
+    <row r="86" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B86" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="19">
+        <v>6.8295419900378294</v>
+      </c>
+      <c r="E86" s="19">
+        <v>6.7949999999999999</v>
+      </c>
+      <c r="F86" s="19">
+        <v>0.35756187973074449</v>
+      </c>
+      <c r="G86" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="H86" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="I86" s="19">
+        <v>7.2260190500415096</v>
+      </c>
+      <c r="J86" s="19">
+        <v>7.1719052389719327</v>
+      </c>
+      <c r="K86" s="19">
+        <v>6.5250000000000004</v>
+      </c>
+      <c r="L86" s="19">
+        <v>6.48</v>
+      </c>
+      <c r="M86" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B79" s="17">
-        <v>46053</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="27">
-        <v>6161.6255206476244</v>
-      </c>
-      <c r="E79" s="27">
-        <v>6230.2960363061366</v>
-      </c>
-      <c r="F79" s="27">
-        <v>249.66659367072819</v>
-      </c>
-      <c r="G79" s="27">
-        <v>6430</v>
-      </c>
-      <c r="H79" s="27">
-        <v>5657.7570893360135</v>
-      </c>
-      <c r="I79" s="27">
-        <v>6394</v>
-      </c>
-      <c r="J79" s="27">
-        <v>6356.1320196889219</v>
-      </c>
-      <c r="K79" s="27">
-        <v>6060.7262135718129</v>
-      </c>
-      <c r="L79" s="27">
-        <v>5839.9183565235262</v>
-      </c>
-      <c r="M79" s="20">
+    <row r="87" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="4">
+        <v>7.1307903616374322</v>
+      </c>
+      <c r="E87" s="4">
+        <v>7.15</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0.52339061862769176</v>
+      </c>
+      <c r="G87" s="4">
+        <v>8.0416788902996341</v>
+      </c>
+      <c r="H87" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="I87" s="4">
+        <v>7.8241678890299644</v>
+      </c>
+      <c r="J87" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="K87" s="4">
+        <v>6.7246685445560077</v>
+      </c>
+      <c r="L87" s="4">
+        <v>6.58</v>
+      </c>
+      <c r="M87" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B80" s="2">
-        <v>46081</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="24">
-        <v>5869.4724502418712</v>
-      </c>
-      <c r="E80" s="24">
-        <v>5993.0535814731393</v>
-      </c>
-      <c r="F80" s="24">
-        <v>434.7301072051834</v>
-      </c>
-      <c r="G80" s="24">
-        <v>6400</v>
-      </c>
-      <c r="H80" s="24">
-        <v>4955.6656843901901</v>
-      </c>
-      <c r="I80" s="24">
-        <v>6222.7</v>
-      </c>
-      <c r="J80" s="24">
-        <v>6155.75</v>
-      </c>
-      <c r="K80" s="24">
-        <v>5675.7610462651073</v>
-      </c>
-      <c r="L80" s="24">
-        <v>5366.577023563309</v>
-      </c>
-      <c r="M80" s="5">
+    <row r="88" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B88" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="19">
+        <v>7.1110347095066357</v>
+      </c>
+      <c r="E88" s="19">
+        <v>7.1061001909775197</v>
+      </c>
+      <c r="F88" s="19">
+        <v>0.62155372362508543</v>
+      </c>
+      <c r="G88" s="19">
+        <v>8.3744438601916027</v>
+      </c>
+      <c r="H88" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="I88" s="19">
+        <v>7.8574443860191598</v>
+      </c>
+      <c r="J88" s="19">
+        <v>7.2927771396897896</v>
+      </c>
+      <c r="K88" s="19">
+        <v>6.625</v>
+      </c>
+      <c r="L88" s="19">
+        <v>6.5699999999999994</v>
+      </c>
+      <c r="M88" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B81" s="17">
-        <v>46112</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="27">
-        <v>6490.102934101059</v>
-      </c>
-      <c r="E81" s="27">
-        <v>6610</v>
-      </c>
-      <c r="F81" s="27">
-        <v>431.78057855031801</v>
-      </c>
-      <c r="G81" s="27">
-        <v>6908.1532811600291</v>
-      </c>
-      <c r="H81" s="27">
-        <v>5402.1652097985616</v>
-      </c>
-      <c r="I81" s="27">
-        <v>6834.2153281160026</v>
-      </c>
-      <c r="J81" s="27">
-        <v>6729.1809471103534</v>
-      </c>
-      <c r="K81" s="27">
-        <v>6410.3888666967978</v>
-      </c>
-      <c r="L81" s="27">
-        <v>6154.5541810777486</v>
-      </c>
-      <c r="M81" s="20">
+    <row r="89" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="4">
+        <v>6.6429528315723543</v>
+      </c>
+      <c r="E89" s="4">
+        <v>6.45</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0.5899189534273247</v>
+      </c>
+      <c r="G89" s="4">
+        <v>7.4559554615135513</v>
+      </c>
+      <c r="H89" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="I89" s="4">
+        <v>7.3155955461513553</v>
+      </c>
+      <c r="J89" s="4">
+        <v>7.2133492083679247</v>
+      </c>
+      <c r="K89" s="4">
+        <v>6.1939434774298556</v>
+      </c>
+      <c r="L89" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="M89" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B82" s="2">
-        <v>46142</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="24">
-        <v>6739.8128462351424</v>
-      </c>
-      <c r="E82" s="24">
-        <v>6693.5197396936801</v>
-      </c>
-      <c r="F82" s="24">
-        <v>338.26803143338662</v>
-      </c>
-      <c r="G82" s="24">
-        <v>7531.129713440665</v>
-      </c>
-      <c r="H82" s="24">
-        <v>6338.3746723533723</v>
-      </c>
-      <c r="I82" s="24">
-        <v>7035.112971344066</v>
-      </c>
-      <c r="J82" s="24">
-        <v>6808.25</v>
-      </c>
-      <c r="K82" s="24">
-        <v>6553.0935210248626</v>
-      </c>
-      <c r="L82" s="24">
-        <v>6403.8513794585306</v>
-      </c>
-      <c r="M82" s="5">
+    <row r="90" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+    </row>
+    <row r="92" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="34"/>
+    </row>
+    <row r="93" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="B93" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B83" s="17">
-        <v>46173</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="27">
-        <v>7093.546307234089</v>
-      </c>
-      <c r="E83" s="27">
-        <v>7251.0145339082392</v>
-      </c>
-      <c r="F83" s="27">
-        <v>354.87263143617503</v>
-      </c>
-      <c r="G83" s="27">
-        <v>7531.0858216495244</v>
-      </c>
-      <c r="H83" s="27">
-        <v>6398.2985947835996</v>
-      </c>
-      <c r="I83" s="27">
-        <v>7413.1085821649522</v>
-      </c>
-      <c r="J83" s="27">
-        <v>7302.4829141676246</v>
-      </c>
-      <c r="K83" s="27">
-        <v>6876.8514256336148</v>
-      </c>
-      <c r="L83" s="27">
-        <v>6669.82985947836</v>
-      </c>
-      <c r="M83" s="20">
+      <c r="L93" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B94" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="19">
+        <v>0.51477509740480232</v>
+      </c>
+      <c r="E94" s="19">
+        <v>0.44553332416034241</v>
+      </c>
+      <c r="F94" s="19">
+        <v>0.42572418146608582</v>
+      </c>
+      <c r="G94" s="19">
+        <v>1.282302705382188</v>
+      </c>
+      <c r="H94" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="I94" s="19">
+        <v>1.1370254573065</v>
+      </c>
+      <c r="J94" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="K94" s="19">
+        <v>0.14837451987287639</v>
+      </c>
+      <c r="L94" s="19">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="M94" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B84" s="2">
-        <v>46203</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="24">
-        <v>6968.0544122965757</v>
-      </c>
-      <c r="E84" s="24">
-        <v>7037.5137742894804</v>
-      </c>
-      <c r="F84" s="24">
-        <v>332.40969893326519</v>
-      </c>
-      <c r="G84" s="24">
-        <v>7320</v>
-      </c>
-      <c r="H84" s="24">
-        <v>6323.9821574627922</v>
-      </c>
-      <c r="I84" s="24">
-        <v>7311.2362754481937</v>
-      </c>
-      <c r="J84" s="24">
-        <v>7225.0499979596807</v>
-      </c>
-      <c r="K84" s="24">
-        <v>6781.1346395088331</v>
-      </c>
-      <c r="L84" s="24">
-        <v>6572.3982157462797</v>
-      </c>
-      <c r="M84" s="5">
+    <row r="95" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.89421820057147861</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0.54409877041006094</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1.962302222656986</v>
+      </c>
+      <c r="H95" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1.4923192694261409</v>
+      </c>
+      <c r="J95" s="4">
+        <v>1</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0.69148487085555765</v>
+      </c>
+      <c r="L95" s="4">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="M95" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B85" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="27">
-        <v>82000.060520161263</v>
-      </c>
-      <c r="E85" s="27">
-        <v>82222.618042551388</v>
-      </c>
-      <c r="F85" s="27">
-        <v>3143.4895951073941</v>
-      </c>
-      <c r="G85" s="27">
-        <v>86207</v>
-      </c>
-      <c r="H85" s="27">
-        <v>77002.574088585054</v>
-      </c>
-      <c r="I85" s="27">
-        <v>86119.7</v>
-      </c>
-      <c r="J85" s="27">
-        <v>84431.258050456279</v>
-      </c>
-      <c r="K85" s="27">
-        <v>79805</v>
-      </c>
-      <c r="L85" s="27">
-        <v>78593.943952348214</v>
-      </c>
-      <c r="M85" s="20">
+    <row r="96" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B96" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="19">
+        <v>0.82658658031795196</v>
+      </c>
+      <c r="E96" s="19">
+        <v>0.84433425351553915</v>
+      </c>
+      <c r="F96" s="19">
+        <v>0.51889349304490573</v>
+      </c>
+      <c r="G96" s="19">
+        <v>1.743532106160028</v>
+      </c>
+      <c r="H96" s="19">
+        <v>-0.2</v>
+      </c>
+      <c r="I96" s="19">
+        <v>1.3713532106160029</v>
+      </c>
+      <c r="J96" s="19">
+        <v>1</v>
+      </c>
+      <c r="K96" s="19">
+        <v>0.57701504798767222</v>
+      </c>
+      <c r="L96" s="19">
+        <v>0.4608806134043642</v>
+      </c>
+      <c r="M96" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B86" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="24">
-        <v>88199.85522462611</v>
-      </c>
-      <c r="E86" s="24">
-        <v>88920.477660261909</v>
-      </c>
-      <c r="F86" s="24">
-        <v>6724.3681487374133</v>
-      </c>
-      <c r="G86" s="24">
-        <v>98364</v>
-      </c>
-      <c r="H86" s="24">
-        <v>77611.12572997954</v>
-      </c>
-      <c r="I86" s="24">
-        <v>95336.4</v>
-      </c>
-      <c r="J86" s="24">
-        <v>93479.258378296887</v>
-      </c>
-      <c r="K86" s="24">
-        <v>82834.859420642548</v>
-      </c>
-      <c r="L86" s="24">
-        <v>80612.512572997948</v>
-      </c>
-      <c r="M86" s="5">
+    <row r="97" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B97" s="36">
+        <v>2026</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="4">
+        <v>3.2604998479822611</v>
+      </c>
+      <c r="E97" s="4">
+        <v>3.1382600545107011</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.96515527247203914</v>
+      </c>
+      <c r="G97" s="4">
+        <v>4.5796109684817843</v>
+      </c>
+      <c r="H97" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I97" s="4">
+        <v>4.4753719239079874</v>
+      </c>
+      <c r="J97" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K97" s="4">
+        <v>2.71</v>
+      </c>
+      <c r="L97" s="4">
+        <v>2.3605698350276678</v>
+      </c>
+      <c r="M97" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="2:13" ht="18" x14ac:dyDescent="0.4">
-      <c r="B87" s="9"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-    </row>
-    <row r="89" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="38"/>
-    </row>
-    <row r="90" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B90" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H90" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I90" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J90" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K90" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L90" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="M90" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B91" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="28">
-        <v>15297.41601328344</v>
-      </c>
-      <c r="E91" s="28">
-        <v>16178.96249668551</v>
-      </c>
-      <c r="F91" s="28">
-        <v>3816.9927008511622</v>
-      </c>
-      <c r="G91" s="28">
-        <v>20376.34076779048</v>
-      </c>
-      <c r="H91" s="28">
-        <v>7666</v>
-      </c>
-      <c r="I91" s="28">
-        <v>19211.365268650501</v>
-      </c>
-      <c r="J91" s="28">
-        <v>17905.599999999999</v>
-      </c>
-      <c r="K91" s="28">
-        <v>13096.14270628727</v>
-      </c>
-      <c r="L91" s="28">
-        <v>11499.1</v>
-      </c>
-      <c r="M91" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B92" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="29">
-        <v>19586.727483928589</v>
-      </c>
-      <c r="E92" s="29">
-        <v>19465.667536195509</v>
-      </c>
-      <c r="F92" s="29">
-        <v>4266.7992333254006</v>
-      </c>
-      <c r="G92" s="29">
-        <v>26988.85</v>
-      </c>
-      <c r="H92" s="29">
-        <v>13450</v>
-      </c>
-      <c r="I92" s="29">
-        <v>24005.21410522312</v>
-      </c>
-      <c r="J92" s="29">
-        <v>22764.827709956131</v>
-      </c>
-      <c r="K92" s="29">
-        <v>16919.494872719461</v>
-      </c>
-      <c r="L92" s="29">
-        <v>14485</v>
-      </c>
-      <c r="M92" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" ht="18" x14ac:dyDescent="0.4">
-      <c r="B93" s="9"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-    </row>
-    <row r="95" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="38"/>
-    </row>
-    <row r="96" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B96" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H96" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I96" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J96" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K96" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L96" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="M96" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B97" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D97" s="4">
-        <v>6.8295419900378294</v>
-      </c>
-      <c r="E97" s="4">
-        <v>6.7949999999999999</v>
-      </c>
-      <c r="F97" s="4">
-        <v>0.35756187973074449</v>
-      </c>
-      <c r="G97" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="H97" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="I97" s="4">
-        <v>7.2260190500415096</v>
-      </c>
-      <c r="J97" s="4">
-        <v>7.1719052389719327</v>
-      </c>
-      <c r="K97" s="4">
-        <v>6.5250000000000004</v>
-      </c>
-      <c r="L97" s="4">
-        <v>6.48</v>
-      </c>
-      <c r="M97" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B98" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="19">
-        <v>7.1307903616374322</v>
-      </c>
-      <c r="E98" s="19">
-        <v>7.15</v>
-      </c>
-      <c r="F98" s="19">
-        <v>0.52339061862769176</v>
-      </c>
-      <c r="G98" s="19">
-        <v>8.0416788902996341</v>
-      </c>
-      <c r="H98" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="I98" s="19">
-        <v>7.8241678890299644</v>
-      </c>
-      <c r="J98" s="19">
-        <v>7.3</v>
-      </c>
-      <c r="K98" s="19">
-        <v>6.7246685445560077</v>
-      </c>
-      <c r="L98" s="19">
-        <v>6.58</v>
-      </c>
-      <c r="M98" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B99" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="4">
-        <v>7.1110347095066357</v>
-      </c>
-      <c r="E99" s="4">
-        <v>7.1061001909775197</v>
-      </c>
-      <c r="F99" s="4">
-        <v>0.62155372362508543</v>
-      </c>
-      <c r="G99" s="4">
-        <v>8.3744438601916027</v>
-      </c>
-      <c r="H99" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="I99" s="4">
-        <v>7.8574443860191598</v>
-      </c>
-      <c r="J99" s="4">
-        <v>7.2927771396897896</v>
-      </c>
-      <c r="K99" s="4">
-        <v>6.625</v>
-      </c>
-      <c r="L99" s="4">
-        <v>6.5699999999999994</v>
-      </c>
-      <c r="M99" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B100" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D100" s="19">
-        <v>6.6429528315723543</v>
-      </c>
-      <c r="E100" s="19">
-        <v>6.45</v>
-      </c>
-      <c r="F100" s="19">
-        <v>0.5899189534273247</v>
-      </c>
-      <c r="G100" s="19">
-        <v>7.4559554615135513</v>
-      </c>
-      <c r="H100" s="19">
-        <v>5.9</v>
-      </c>
-      <c r="I100" s="19">
-        <v>7.3155955461513553</v>
-      </c>
-      <c r="J100" s="19">
-        <v>7.2133492083679247</v>
-      </c>
-      <c r="K100" s="19">
-        <v>6.1939434774298556</v>
-      </c>
-      <c r="L100" s="19">
-        <v>5.99</v>
-      </c>
-      <c r="M100" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B101" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D101" s="4">
-        <v>6.5142716875159792</v>
-      </c>
-      <c r="E101" s="4">
-        <v>6.1185217375367102</v>
-      </c>
-      <c r="F101" s="4">
-        <v>0.75842401222419353</v>
-      </c>
-      <c r="G101" s="4">
-        <v>8</v>
-      </c>
-      <c r="H101" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="I101" s="4">
-        <v>7.28</v>
-      </c>
-      <c r="J101" s="4">
-        <v>7.1264183500215923</v>
-      </c>
-      <c r="K101" s="4">
-        <v>6</v>
-      </c>
-      <c r="L101" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="M101" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="2:13" ht="18" x14ac:dyDescent="0.4">
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-    </row>
-    <row r="104" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="37"/>
-      <c r="K104" s="37"/>
-      <c r="L104" s="37"/>
-      <c r="M104" s="38"/>
-    </row>
-    <row r="105" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B105" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F105" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H105" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I105" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J105" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K105" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L105" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="M105" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B106" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106" s="42">
-        <v>0.51477509740480232</v>
-      </c>
-      <c r="E106" s="42">
-        <v>0.44553332416034241</v>
-      </c>
-      <c r="F106" s="42">
-        <v>0.42572418146608582</v>
-      </c>
-      <c r="G106" s="42">
-        <v>1.282302705382188</v>
-      </c>
-      <c r="H106" s="42">
-        <v>0.08</v>
-      </c>
-      <c r="I106" s="42">
-        <v>1.1370254573065</v>
-      </c>
-      <c r="J106" s="42">
-        <v>0.72</v>
-      </c>
-      <c r="K106" s="42">
-        <v>0.14837451987287639</v>
-      </c>
-      <c r="L106" s="42">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="M106" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B107" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" s="4">
-        <v>0.89421820057147861</v>
-      </c>
-      <c r="E107" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="F107" s="4">
-        <v>0.54409877041006094</v>
-      </c>
-      <c r="G107" s="4">
-        <v>1.962302222656986</v>
-      </c>
-      <c r="H107" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="I107" s="4">
-        <v>1.4923192694261409</v>
-      </c>
-      <c r="J107" s="4">
-        <v>1</v>
-      </c>
-      <c r="K107" s="4">
-        <v>0.69148487085555765</v>
-      </c>
-      <c r="L107" s="4">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="M107" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B108" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C108" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="42">
-        <v>0.82658658031795196</v>
-      </c>
-      <c r="E108" s="42">
-        <v>0.84433425351553915</v>
-      </c>
-      <c r="F108" s="42">
-        <v>0.51889349304490573</v>
-      </c>
-      <c r="G108" s="42">
-        <v>1.743532106160028</v>
-      </c>
-      <c r="H108" s="42">
-        <v>-0.2</v>
-      </c>
-      <c r="I108" s="42">
-        <v>1.3713532106160029</v>
-      </c>
-      <c r="J108" s="42">
-        <v>1</v>
-      </c>
-      <c r="K108" s="42">
-        <v>0.57701504798767222</v>
-      </c>
-      <c r="L108" s="42">
-        <v>0.4608806134043642</v>
-      </c>
-      <c r="M108" s="45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B109" s="46">
-        <v>2026</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D109" s="4">
-        <v>3.2604998479822611</v>
-      </c>
-      <c r="E109" s="4">
-        <v>3.1382600545107011</v>
-      </c>
-      <c r="F109" s="4">
-        <v>0.96515527247203914</v>
-      </c>
-      <c r="G109" s="4">
-        <v>4.5796109684817843</v>
-      </c>
-      <c r="H109" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="I109" s="4">
-        <v>4.4753719239079874</v>
-      </c>
-      <c r="J109" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K109" s="4">
-        <v>2.71</v>
-      </c>
-      <c r="L109" s="4">
-        <v>2.3605698350276678</v>
-      </c>
-      <c r="M109" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B110" s="47">
-        <v>2027</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D110" s="42">
-        <v>3.0532661671128669</v>
-      </c>
-      <c r="E110" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="F110" s="42">
-        <v>1.0751527723641101</v>
-      </c>
-      <c r="G110" s="42">
-        <v>4.52915042546711</v>
-      </c>
-      <c r="H110" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I110" s="42">
-        <v>3.994826516336492</v>
-      </c>
-      <c r="J110" s="42">
-        <v>3.5944431543379749</v>
-      </c>
-      <c r="K110" s="42">
-        <v>2.7977110764074271</v>
-      </c>
-      <c r="L110" s="42">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M110" s="45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B111" s="46">
-        <v>2028</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D111" s="4">
-        <v>2.9545923500106661</v>
-      </c>
-      <c r="E111" s="4">
-        <v>3.0489782357215458</v>
-      </c>
-      <c r="F111" s="4">
-        <v>0.76806726337966436</v>
-      </c>
-      <c r="G111" s="4">
-        <v>3.72</v>
-      </c>
-      <c r="H111" s="4">
-        <v>1</v>
-      </c>
-      <c r="I111" s="4">
-        <v>3.5219999999999998</v>
-      </c>
-      <c r="J111" s="4">
-        <v>3.4319917571658931</v>
-      </c>
-      <c r="K111" s="4">
-        <v>3</v>
-      </c>
-      <c r="L111" s="4">
-        <v>2.35</v>
-      </c>
-      <c r="M111" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="2:13" ht="18" x14ac:dyDescent="0.4">
-      <c r="B112" s="9" t="s">
+    <row r="98" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="B98" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B76:M76"/>
-    <mergeCell ref="B89:M89"/>
-    <mergeCell ref="B95:M95"/>
-    <mergeCell ref="B104:M104"/>
+    <mergeCell ref="B67:M67"/>
+    <mergeCell ref="B79:M79"/>
+    <mergeCell ref="B84:M84"/>
+    <mergeCell ref="B92:M92"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="B37:M37"/>
-    <mergeCell ref="B50:M50"/>
-    <mergeCell ref="B63:M63"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="B55:M55"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -8696,7 +8124,7 @@
     <oddFooter>&amp;C&amp;"Roboto,Normal"Página &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="42" min="1" max="12" man="1"/>
+    <brk id="36" min="1" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8708,9 +8136,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:O1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8725,6 +8151,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b80df5a0-8011-40eb-be96-4c6a59f56b6e">
@@ -8735,18 +8170,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E1357DA6D65CA49A875959554824B49" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5b079a4cf0d0c901b10846bc0d09f581">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b80df5a0-8011-40eb-be96-4c6a59f56b6e" xmlns:ns3="6b042263-e944-4dfe-97a8-6e4c84e0ae4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9f150cf7859752d1514ab3093161269" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E1357DA6D65CA49A875959554824B49" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e8f8602aebf7bbdcbcb5348c529dc11a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b80df5a0-8011-40eb-be96-4c6a59f56b6e" xmlns:ns3="6b042263-e944-4dfe-97a8-6e4c84e0ae4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a39dbf9ae3c20398b89cd584be7bda98" ns2:_="" ns3:_="">
     <xsd:import namespace="b80df5a0-8011-40eb-be96-4c6a59f56b6e"/>
     <xsd:import namespace="6b042263-e944-4dfe-97a8-6e4c84e0ae4b"/>
     <xsd:element name="properties">
@@ -8994,6 +8420,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3E4A204-179E-478B-A62E-54900BF00ECD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB7C2FA5-1A6F-45A0-B729-06C123F95F83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9010,29 +8444,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3E4A204-179E-478B-A62E-54900BF00ECD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2BC3AC5-637C-49E9-892D-289E60559E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b80df5a0-8011-40eb-be96-4c6a59f56b6e"/>
-    <ds:schemaRef ds:uri="6b042263-e944-4dfe-97a8-6e4c84e0ae4b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD676F35-7D8A-4EF2-9206-BAD3978C89F5}"/>
 </file>
--- a/public/REM/raw/REM.xlsx
+++ b/public/REM/raw/REM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcranet.sharepoint.com/sites/REM/Documentos compartidos/REM/Publicación/Pagina WEB/2025/25 12 dic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcranet.sharepoint.com/sites/REM/Documentos compartidos/REM/Publicación/Pagina WEB/2026/25 01 Ene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="542" documentId="8_{6BC50749-C53E-42D7-9E27-AD7EFCA45E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EC4C080-607D-4D55-8494-93CAA6ABA776}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{563D5886-1088-4C76-92B3-92AAC244057A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{8A5F0209-F8EA-4E2B-A469-F799AD0A214D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A5F0209-F8EA-4E2B-A469-F799AD0A214D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadros de resultados" sheetId="14" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Cuadros de resultados'!$2:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Resultados TOP 10'!$2:$4</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="53">
   <si>
     <t>Precios minoristas (IPC nivel general-Nacional; INDEC)</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Trim. I-26</t>
   </si>
   <si>
-    <t>Relevamiento de Expectativas de Mercado (REM)  - BCRA - Diciembre 2025</t>
-  </si>
-  <si>
     <t>2028</t>
   </si>
   <si>
@@ -187,20 +184,34 @@
     <t>% de la PEA; Trim. IV-27</t>
   </si>
   <si>
-    <t>Fuente: REM - BCRA (dic-25)</t>
+    <t>var. % i.a.; ene-27</t>
   </si>
   <si>
-    <t>Relevamiento de Expectativas de Mercado (REM)  Top 10 - BCRA - Diciembre 2025</t>
+    <t>Relevamiento de Expectativas de Mercado (REM)  Top 10 - BCRA - Enero 2026</t>
+  </si>
+  <si>
+    <t>var. % i.a.; ene-28</t>
+  </si>
+  <si>
+    <t>TNA; %; ene-27</t>
+  </si>
+  <si>
+    <t>$/USD; ene-27</t>
+  </si>
+  <si>
+    <t>Fuente: REM - BCRA (ene-26)</t>
+  </si>
+  <si>
+    <t>Relevamiento de Expectativas de Mercado (REM)  - BCRA - Enero 2026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -276,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -379,6 +390,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -386,7 +412,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,27 +497,47 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="1" xr:uid="{E1EAF663-1358-40F2-AE07-51712904DA28}"/>
@@ -1830,29 +1876,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556BA34D-D1CA-4035-A3E8-638451BB2414}">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M112"/>
+  <dimension ref="B2:N112"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="14.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1866,7 +1914,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="2:13" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1880,11 +1928,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
@@ -1900,7 +1948,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
@@ -1938,123 +1986,126 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
-        <v>46022</v>
+        <v>46053</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="19">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E7" s="19">
-        <v>2.3211356965721741</v>
+        <v>2.3673706013096072</v>
       </c>
       <c r="F7" s="19">
-        <v>0.16822571961757979</v>
+        <v>0.1615353897031177</v>
       </c>
       <c r="G7" s="19">
-        <v>2.7</v>
+        <v>2.6616613582840509</v>
       </c>
       <c r="H7" s="19">
-        <v>1.9</v>
+        <v>1.8472528945311399</v>
       </c>
       <c r="I7" s="19">
         <v>2.5</v>
       </c>
       <c r="J7" s="19">
-        <v>2.4350000000000001</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K7" s="19">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L7" s="19">
-        <v>2.1118565980494628</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M7" s="20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N7" s="43"/>
+    </row>
+    <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>46053</v>
+        <v>46081</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E8" s="4">
-        <v>2.0675406057214292</v>
+        <v>2.088167674209394</v>
       </c>
       <c r="F8" s="4">
-        <v>0.25325254338354308</v>
+        <v>0.2037025458123658</v>
       </c>
       <c r="G8" s="4">
         <v>2.5099999999999998</v>
       </c>
       <c r="H8" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="I8" s="4">
-        <v>2.3936849692220981</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J8" s="4">
-        <v>2.240011621077171</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K8" s="4">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="L8" s="4">
-        <v>1.9</v>
+        <v>1.860417494869717</v>
       </c>
       <c r="M8" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N8" s="43"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
-        <v>46081</v>
+        <v>46112</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="19">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E9" s="19">
-        <v>1.848266469919285</v>
+        <v>2.2025131542208669</v>
       </c>
       <c r="F9" s="19">
-        <v>0.25957886978649958</v>
+        <v>0.25764765103878212</v>
       </c>
       <c r="G9" s="19">
-        <v>2.42</v>
+        <v>3.02</v>
       </c>
       <c r="H9" s="19">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="I9" s="19">
-        <v>2.1672164213835998</v>
+        <v>2.4878930612935211</v>
       </c>
       <c r="J9" s="19">
+        <v>2.3977820764239839</v>
+      </c>
+      <c r="K9" s="19">
         <v>2</v>
       </c>
-      <c r="K9" s="19">
-        <v>1.7</v>
-      </c>
       <c r="L9" s="19">
-        <v>1.568137952132127</v>
+        <v>1.9</v>
       </c>
       <c r="M9" s="20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N9" s="43"/>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>46112</v>
+        <v>46142</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -2063,36 +2114,37 @@
         <v>1.9</v>
       </c>
       <c r="E10" s="4">
-        <v>1.9666497673320451</v>
+        <v>1.925252921187653</v>
       </c>
       <c r="F10" s="4">
-        <v>0.31962093183385271</v>
+        <v>0.22945227009704211</v>
       </c>
       <c r="G10" s="4">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="H10" s="4">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="I10" s="4">
-        <v>2.4</v>
+        <v>2.2004104731402179</v>
       </c>
       <c r="J10" s="4">
-        <v>2.1110791225287029</v>
+        <v>2.1</v>
       </c>
       <c r="K10" s="4">
-        <v>1.799337379169623</v>
+        <v>1.8</v>
       </c>
       <c r="L10" s="4">
-        <v>1.655</v>
+        <v>1.6921853183387761</v>
       </c>
       <c r="M10" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N10" s="43"/>
+    </row>
+    <row r="11" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
-        <v>46142</v>
+        <v>46173</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>13</v>
@@ -2101,74 +2153,76 @@
         <v>1.7</v>
       </c>
       <c r="E11" s="19">
-        <v>1.7612296838912931</v>
+        <v>1.7301743448098139</v>
       </c>
       <c r="F11" s="19">
-        <v>0.30636401339850627</v>
+        <v>0.26821717496135983</v>
       </c>
       <c r="G11" s="19">
         <v>2.4</v>
       </c>
       <c r="H11" s="19">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I11" s="19">
-        <v>2.2039899991556111</v>
+        <v>2.0183387347222861</v>
       </c>
       <c r="J11" s="19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K11" s="19">
-        <v>1.5969145825283519</v>
+        <v>1.5379975534861849</v>
       </c>
       <c r="L11" s="19">
-        <v>1.5</v>
+        <v>1.4221440276132451</v>
       </c>
       <c r="M11" s="20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N11" s="43"/>
+    </row>
+    <row r="12" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>46173</v>
+        <v>46203</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="E12" s="4">
-        <v>1.6296122666988051</v>
+        <v>1.610035441622524</v>
       </c>
       <c r="F12" s="4">
-        <v>0.29777897079804222</v>
+        <v>0.26289227741035098</v>
       </c>
       <c r="G12" s="4">
-        <v>2.4</v>
+        <v>2.11</v>
       </c>
       <c r="H12" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>1.999641435828466</v>
+        <v>1.9286388076649339</v>
       </c>
       <c r="J12" s="4">
-        <v>1.7665085300975309</v>
+        <v>1.8</v>
       </c>
       <c r="K12" s="4">
-        <v>1.426235718202175</v>
+        <v>1.46</v>
       </c>
       <c r="L12" s="4">
-        <v>1.3</v>
+        <v>1.252</v>
       </c>
       <c r="M12" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N12" s="43"/>
+    </row>
+    <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
-        <v>46203</v>
+        <v>46234</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>13</v>
@@ -2177,110 +2231,113 @@
         <v>1.5</v>
       </c>
       <c r="E13" s="19">
-        <v>1.5282413425133921</v>
+        <v>1.5566795902389781</v>
       </c>
       <c r="F13" s="19">
-        <v>0.31726425644702</v>
+        <v>0.27229105970617468</v>
       </c>
       <c r="G13" s="19">
-        <v>2.2200000000000002</v>
+        <v>2.09</v>
       </c>
       <c r="H13" s="19">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I13" s="19">
-        <v>1.987890649391427</v>
+        <v>1.9915999104944331</v>
       </c>
       <c r="J13" s="19">
-        <v>1.6812252003887349</v>
+        <v>1.74</v>
       </c>
       <c r="K13" s="19">
-        <v>1.376157760013607</v>
+        <v>1.4</v>
       </c>
       <c r="L13" s="19">
-        <v>1.2173279733849369</v>
+        <v>1.194</v>
       </c>
       <c r="M13" s="20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N13" s="43"/>
+    </row>
+    <row r="14" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4">
-        <v>20.149372466788609</v>
+        <v>20.972204042663261</v>
       </c>
       <c r="E14" s="4">
-        <v>21.087177424572179</v>
+        <v>20.983917175061439</v>
       </c>
       <c r="F14" s="4">
-        <v>4.079707970927636</v>
+        <v>3.361089873224318</v>
       </c>
       <c r="G14" s="4">
-        <v>30.57434633381888</v>
+        <v>27.4</v>
       </c>
       <c r="H14" s="4">
-        <v>9.9</v>
+        <v>11.2</v>
       </c>
       <c r="I14" s="4">
-        <v>26.581003607664179</v>
+        <v>25.088532090094461</v>
       </c>
       <c r="J14" s="4">
-        <v>24.10569984562126</v>
+        <v>23.3</v>
       </c>
       <c r="K14" s="4">
-        <v>18.897052339585329</v>
+        <v>19.019283488763389</v>
       </c>
       <c r="L14" s="4">
-        <v>17.43</v>
+        <v>17.315414321377219</v>
       </c>
       <c r="M14" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="N14" s="43"/>
+    </row>
+    <row r="15" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D15" s="19">
-        <v>12.7</v>
+        <v>14.6</v>
       </c>
       <c r="E15" s="19">
-        <v>13.610885572799051</v>
+        <v>13.86813921411767</v>
       </c>
       <c r="F15" s="19">
-        <v>4.3837577143032753</v>
+        <v>3.6638429123387048</v>
       </c>
       <c r="G15" s="19">
-        <v>22</v>
+        <v>20.08058906548802</v>
       </c>
       <c r="H15" s="19">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I15" s="19">
-        <v>19.934782608695649</v>
+        <v>18.454000000000001</v>
       </c>
       <c r="J15" s="19">
-        <v>16.612335635474729</v>
+        <v>16.2</v>
       </c>
       <c r="K15" s="19">
-        <v>11.350967495666779</v>
+        <v>11.458261944809429</v>
       </c>
       <c r="L15" s="19">
-        <v>8.5098691646689044</v>
+        <v>9.2291899165999993</v>
       </c>
       <c r="M15" s="20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="N15" s="43"/>
+    </row>
+    <row r="16" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
@@ -2288,37 +2345,38 @@
         <v>16</v>
       </c>
       <c r="D16" s="4">
-        <v>20.149372466788609</v>
+        <v>22.417992281752142</v>
       </c>
       <c r="E16" s="4">
-        <v>21.087177424572179</v>
+        <v>22.3510334435028</v>
       </c>
       <c r="F16" s="4">
-        <v>4.079707970927636</v>
+        <v>3.1605224972766641</v>
       </c>
       <c r="G16" s="4">
-        <v>30.57434633381888</v>
+        <v>28.6</v>
       </c>
       <c r="H16" s="4">
-        <v>9.9</v>
+        <v>12.9</v>
       </c>
       <c r="I16" s="4">
-        <v>26.581003607664179</v>
+        <v>26.015756744974588</v>
       </c>
       <c r="J16" s="4">
-        <v>24.10569984562126</v>
+        <v>24.365890203749132</v>
       </c>
       <c r="K16" s="4">
-        <v>18.897052339585329</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L16" s="4">
-        <v>17.43</v>
+        <v>18.622</v>
       </c>
       <c r="M16" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N16" s="43"/>
+    </row>
+    <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
@@ -2326,75 +2384,77 @@
         <v>17</v>
       </c>
       <c r="D17" s="19">
-        <v>12.7</v>
+        <v>15</v>
       </c>
       <c r="E17" s="19">
-        <v>13.610885572799051</v>
+        <v>14.323387924215419</v>
       </c>
       <c r="F17" s="19">
-        <v>4.3837577143032753</v>
+        <v>4.342314471482597</v>
       </c>
       <c r="G17" s="19">
-        <v>22</v>
+        <v>23.00466751580046</v>
       </c>
       <c r="H17" s="19">
         <v>3.6</v>
       </c>
       <c r="I17" s="19">
-        <v>19.934782608695649</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="J17" s="19">
-        <v>16.612335635474729</v>
+        <v>17</v>
       </c>
       <c r="K17" s="19">
-        <v>11.350967495666779</v>
+        <v>11.71</v>
       </c>
       <c r="L17" s="19">
-        <v>8.5098691646689044</v>
+        <v>8.6126138378744841</v>
       </c>
       <c r="M17" s="20">
+        <v>41</v>
+      </c>
+      <c r="N17" s="43"/>
+    </row>
+    <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D18" s="4">
-        <v>9.5</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="E18" s="4">
-        <v>10.01025909532267</v>
+        <v>10.429310889619</v>
       </c>
       <c r="F18" s="4">
-        <v>3.7487349315721832</v>
+        <v>3.6730158833250282</v>
       </c>
       <c r="G18" s="4">
-        <v>18.683441527601051</v>
+        <v>20.70420076422041</v>
       </c>
       <c r="H18" s="4">
         <v>2.4</v>
       </c>
       <c r="I18" s="4">
-        <v>14.68</v>
+        <v>14.2</v>
       </c>
       <c r="J18" s="4">
-        <v>12</v>
+        <v>12.35</v>
       </c>
       <c r="K18" s="4">
-        <v>7.5</v>
+        <v>8.5407120100482263</v>
       </c>
       <c r="L18" s="4">
-        <v>5.9960000000000004</v>
+        <v>7</v>
       </c>
       <c r="M18" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="N18" s="43"/>
+    </row>
+    <row r="21" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>18</v>
       </c>
@@ -2410,7 +2470,7 @@
       <c r="L21" s="14"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>1</v>
       </c>
@@ -2448,161 +2508,165 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="17">
-        <v>46022</v>
+        <v>46053</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="19">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E23" s="19">
-        <v>2.309770575684587</v>
+        <v>2.3242450999648598</v>
       </c>
       <c r="F23" s="19">
-        <v>0.19704558823323959</v>
+        <v>0.29340262344619822</v>
       </c>
       <c r="G23" s="19">
-        <v>2.85</v>
+        <v>2.900879255163535</v>
       </c>
       <c r="H23" s="19">
-        <v>1.94</v>
+        <v>1.5</v>
       </c>
       <c r="I23" s="19">
-        <v>2.5249999999999999</v>
+        <v>2.6160000000000001</v>
       </c>
       <c r="J23" s="19">
-        <v>2.4024999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="K23" s="19">
         <v>2.2000000000000002</v>
       </c>
       <c r="L23" s="19">
-        <v>2.0915184831426452</v>
+        <v>2.024</v>
       </c>
       <c r="M23" s="20">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="N23" s="43"/>
+    </row>
+    <row r="24" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <v>46053</v>
+        <v>46081</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="4">
-        <v>2.0449999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="E24" s="4">
-        <v>2.0573591987489639</v>
+        <v>2.0522349273094238</v>
       </c>
       <c r="F24" s="4">
-        <v>0.216047155776463</v>
+        <v>0.29328466827431893</v>
       </c>
       <c r="G24" s="4">
         <v>2.5</v>
       </c>
       <c r="H24" s="4">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I24" s="4">
-        <v>2.4</v>
+        <v>2.4075950593364048</v>
       </c>
       <c r="J24" s="4">
-        <v>2.145</v>
+        <v>2.2488454153260169</v>
       </c>
       <c r="K24" s="4">
-        <v>1.9680721452460661</v>
+        <v>1.83</v>
       </c>
       <c r="L24" s="4">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="M24" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="N24" s="43"/>
+    </row>
+    <row r="25" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="17">
-        <v>46081</v>
+        <v>46112</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="19">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="E25" s="19">
-        <v>1.887144557602896</v>
+        <v>2.0744965498416921</v>
       </c>
       <c r="F25" s="19">
-        <v>0.2339324071161554</v>
+        <v>0.3290390293586854</v>
       </c>
       <c r="G25" s="19">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="H25" s="19">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="I25" s="19">
-        <v>2.1231665576275609</v>
+        <v>2.5116646558020341</v>
       </c>
       <c r="J25" s="19">
-        <v>2.006557214697605</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K25" s="19">
-        <v>1.7625</v>
+        <v>1.8</v>
       </c>
       <c r="L25" s="19">
-        <v>1.618578317896501</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="M25" s="20">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="N25" s="43"/>
+    </row>
+    <row r="26" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>46112</v>
+        <v>46142</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="4">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="E26" s="4">
-        <v>1.8852041342625001</v>
+        <v>1.8727931294017099</v>
       </c>
       <c r="F26" s="4">
-        <v>0.32203884546086747</v>
+        <v>0.25714164970685432</v>
       </c>
       <c r="G26" s="4">
-        <v>2.5688961073415228</v>
+        <v>2.2759253594371338</v>
       </c>
       <c r="H26" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="I26" s="4">
-        <v>2.3050000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J26" s="4">
-        <v>2.0474999999999999</v>
+        <v>2.027508102002952</v>
       </c>
       <c r="K26" s="4">
-        <v>1.7210494998275341</v>
+        <v>1.7</v>
       </c>
       <c r="L26" s="4">
-        <v>1.5457052998364289</v>
+        <v>1.5</v>
       </c>
       <c r="M26" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="N26" s="43"/>
+    </row>
+    <row r="27" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B27" s="17">
-        <v>46142</v>
+        <v>46173</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>13</v>
@@ -2611,36 +2675,37 @@
         <v>1.7</v>
       </c>
       <c r="E27" s="19">
-        <v>1.7614428254285679</v>
+        <v>1.6994800709378519</v>
       </c>
       <c r="F27" s="19">
-        <v>0.28651858343716552</v>
+        <v>0.29235176384864492</v>
       </c>
       <c r="G27" s="19">
-        <v>2.43925459831138</v>
+        <v>2.27</v>
       </c>
       <c r="H27" s="19">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="19">
-        <v>2.21</v>
+        <v>2.0247827153093771</v>
       </c>
       <c r="J27" s="19">
-        <v>1.9325000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="K27" s="19">
-        <v>1.575</v>
+        <v>1.6</v>
       </c>
       <c r="L27" s="19">
-        <v>1.480419366739598</v>
+        <v>1.3</v>
       </c>
       <c r="M27" s="20">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="N27" s="43"/>
+    </row>
+    <row r="28" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>46173</v>
+        <v>46203</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>13</v>
@@ -2649,148 +2714,152 @@
         <v>1.6</v>
       </c>
       <c r="E28" s="4">
-        <v>1.6559978867851011</v>
+        <v>1.602394346352831</v>
       </c>
       <c r="F28" s="4">
-        <v>0.28479320424544541</v>
+        <v>0.26520352923393992</v>
       </c>
       <c r="G28" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="H28" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="I28" s="4">
-        <v>2.0223761881934972</v>
+        <v>1.966608018749999</v>
       </c>
       <c r="J28" s="4">
-        <v>1.8049999999999999</v>
+        <v>1.74186213811624</v>
       </c>
       <c r="K28" s="4">
-        <v>1.4990669860798631</v>
+        <v>1.44</v>
       </c>
       <c r="L28" s="4">
-        <v>1.3063259697866061</v>
+        <v>1.217706095066095</v>
       </c>
       <c r="M28" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="N28" s="43"/>
+    </row>
+    <row r="29" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B29" s="17">
-        <v>46203</v>
+        <v>46234</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="19">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="E29" s="19">
-        <v>1.550714092059861</v>
+        <v>1.534195860399338</v>
       </c>
       <c r="F29" s="19">
-        <v>0.29313479107788148</v>
+        <v>0.30656576909767791</v>
       </c>
       <c r="G29" s="19">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="H29" s="19">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I29" s="19">
-        <v>1.92</v>
+        <v>1.920301783675473</v>
       </c>
       <c r="J29" s="19">
-        <v>1.7050000000000001</v>
+        <v>1.72</v>
       </c>
       <c r="K29" s="19">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="L29" s="19">
-        <v>1.158462346642386</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="M29" s="20">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="N29" s="43"/>
+    </row>
+    <row r="30" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D30" s="4">
-        <v>20.52</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E30" s="4">
-        <v>21.090132273942611</v>
+        <v>20.745939748403739</v>
       </c>
       <c r="F30" s="4">
-        <v>4.0556304497282047</v>
+        <v>3.630025376966461</v>
       </c>
       <c r="G30" s="4">
-        <v>31.86052900885727</v>
+        <v>28.45</v>
       </c>
       <c r="H30" s="4">
-        <v>14.1</v>
+        <v>12.7</v>
       </c>
       <c r="I30" s="4">
-        <v>27.2</v>
+        <v>25.42</v>
       </c>
       <c r="J30" s="4">
-        <v>23.55</v>
+        <v>23.159420810910142</v>
       </c>
       <c r="K30" s="4">
-        <v>18.426264953378979</v>
+        <v>18.653715813059321</v>
       </c>
       <c r="L30" s="4">
-        <v>16.95</v>
+        <v>16.88</v>
       </c>
       <c r="M30" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="N30" s="43"/>
+    </row>
+    <row r="31" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D31" s="19">
-        <v>12.7</v>
+        <v>13.16229071474487</v>
       </c>
       <c r="E31" s="19">
-        <v>13.60661164978182</v>
+        <v>13.463569803548589</v>
       </c>
       <c r="F31" s="19">
-        <v>4.4304799251457903</v>
+        <v>3.8201996055276348</v>
       </c>
       <c r="G31" s="19">
-        <v>22</v>
+        <v>20.3</v>
       </c>
       <c r="H31" s="19">
         <v>2.2999999999999998</v>
       </c>
       <c r="I31" s="19">
-        <v>20.139355143323069</v>
+        <v>18.803000000000001</v>
       </c>
       <c r="J31" s="19">
-        <v>16.649342541898871</v>
+        <v>16.024999999999999</v>
       </c>
       <c r="K31" s="19">
-        <v>11.2</v>
+        <v>11.07834398075487</v>
       </c>
       <c r="L31" s="19">
-        <v>8.8421294306237108</v>
+        <v>9.316542440000001</v>
       </c>
       <c r="M31" s="20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="N31" s="43"/>
+    </row>
+    <row r="32" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
@@ -2798,37 +2867,38 @@
         <v>16</v>
       </c>
       <c r="D32" s="4">
-        <v>20.52</v>
+        <v>22.133345966031872</v>
       </c>
       <c r="E32" s="4">
-        <v>21.090132273942611</v>
+        <v>22.031492204554269</v>
       </c>
       <c r="F32" s="4">
-        <v>4.0556304497282047</v>
+        <v>3.4775979409550679</v>
       </c>
       <c r="G32" s="4">
-        <v>31.86052900885727</v>
+        <v>28.84050718878024</v>
       </c>
       <c r="H32" s="4">
-        <v>14.1</v>
+        <v>15.1</v>
       </c>
       <c r="I32" s="4">
-        <v>27.2</v>
+        <v>26.611548231419569</v>
       </c>
       <c r="J32" s="4">
-        <v>23.55</v>
+        <v>24.5</v>
       </c>
       <c r="K32" s="4">
-        <v>18.426264953378979</v>
+        <v>19.8</v>
       </c>
       <c r="L32" s="4">
-        <v>16.95</v>
+        <v>17.675999999999998</v>
       </c>
       <c r="M32" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="N32" s="43"/>
+    </row>
+    <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
         <v>37</v>
       </c>
@@ -2836,79 +2906,81 @@
         <v>17</v>
       </c>
       <c r="D33" s="19">
-        <v>12.7</v>
+        <v>13.901730653577451</v>
       </c>
       <c r="E33" s="19">
-        <v>13.60661164978182</v>
+        <v>14.42801388932933</v>
       </c>
       <c r="F33" s="19">
-        <v>4.4304799251457903</v>
+        <v>4.470364920332405</v>
       </c>
       <c r="G33" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H33" s="19">
         <v>2.2999999999999998</v>
       </c>
       <c r="I33" s="19">
-        <v>20.139355143323069</v>
+        <v>21.310315475487641</v>
       </c>
       <c r="J33" s="19">
-        <v>16.649342541898871</v>
+        <v>17.106987633073381</v>
       </c>
       <c r="K33" s="19">
-        <v>11.2</v>
+        <v>11.831437436218399</v>
       </c>
       <c r="L33" s="19">
-        <v>8.8421294306237108</v>
+        <v>9.855814155307689</v>
       </c>
       <c r="M33" s="20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="N33" s="43"/>
+    </row>
+    <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D34" s="4">
-        <v>9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E34" s="4">
-        <v>9.9232759466126073</v>
+        <v>10.19749465880621</v>
       </c>
       <c r="F34" s="4">
-        <v>3.7268074566920402</v>
+        <v>3.619519497366773</v>
       </c>
       <c r="G34" s="4">
-        <v>18.173078884064541</v>
+        <v>20.159723995059949</v>
       </c>
       <c r="H34" s="4">
         <v>1.8</v>
       </c>
       <c r="I34" s="4">
-        <v>14.24</v>
+        <v>13.24</v>
       </c>
       <c r="J34" s="4">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="K34" s="4">
-        <v>8.1750000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L34" s="4">
-        <v>5.8220000000000001</v>
+        <v>6.8493518474913584</v>
       </c>
       <c r="M34" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="N34" s="43"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
     </row>
-    <row r="37" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>35</v>
       </c>
@@ -2924,7 +2996,7 @@
       <c r="L37" s="14"/>
       <c r="M37" s="15"/>
     </row>
-    <row r="38" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B38" s="24" t="s">
         <v>1</v>
       </c>
@@ -2962,273 +3034,280 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
-        <v>46053</v>
+        <v>46081</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="26">
-        <v>28.05</v>
+        <v>31.8</v>
       </c>
       <c r="E39" s="26">
-        <v>28.76946250483217</v>
+        <v>31.058330006879711</v>
       </c>
       <c r="F39" s="26">
-        <v>2.482104355333568</v>
-      </c>
-      <c r="G39" s="4">
-        <v>38.18689539725812</v>
-      </c>
-      <c r="H39" s="4">
+        <v>2.629775230120591</v>
+      </c>
+      <c r="G39" s="26">
+        <v>37.111632179499402</v>
+      </c>
+      <c r="H39" s="26">
         <v>25</v>
       </c>
-      <c r="I39" s="4">
-        <v>31.306999999999999</v>
-      </c>
-      <c r="J39" s="4">
-        <v>30.01125</v>
-      </c>
-      <c r="K39" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="L39" s="4">
-        <v>26.3</v>
+      <c r="I39" s="26">
+        <v>33.460205854011349</v>
+      </c>
+      <c r="J39" s="26">
+        <v>32.83</v>
+      </c>
+      <c r="K39" s="26">
+        <v>29.5</v>
+      </c>
+      <c r="L39" s="26">
+        <v>27.289797333826019</v>
       </c>
       <c r="M39" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="N39" s="43"/>
+    </row>
+    <row r="40" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B40" s="17">
-        <v>46081</v>
+        <v>46112</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="27">
-        <v>27.524219785732772</v>
+        <v>30.141818181818191</v>
       </c>
       <c r="E40" s="27">
-        <v>27.84611278836859</v>
+        <v>30.171062360433151</v>
       </c>
       <c r="F40" s="27">
-        <v>2.6327107313063571</v>
-      </c>
-      <c r="G40" s="19">
-        <v>33.945447950513412</v>
-      </c>
-      <c r="H40" s="19">
-        <v>22.2</v>
-      </c>
-      <c r="I40" s="19">
-        <v>31.55</v>
-      </c>
-      <c r="J40" s="19">
-        <v>29.55</v>
-      </c>
-      <c r="K40" s="19">
-        <v>26</v>
-      </c>
-      <c r="L40" s="19">
-        <v>25</v>
+        <v>2.9431380998926149</v>
+      </c>
+      <c r="G40" s="27">
+        <v>37.833570060401307</v>
+      </c>
+      <c r="H40" s="27">
+        <v>24</v>
+      </c>
+      <c r="I40" s="27">
+        <v>34.1</v>
+      </c>
+      <c r="J40" s="27">
+        <v>32</v>
+      </c>
+      <c r="K40" s="27">
+        <v>28.3</v>
+      </c>
+      <c r="L40" s="27">
+        <v>26.616379132368269</v>
       </c>
       <c r="M40" s="20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="N40" s="43"/>
+    </row>
+    <row r="41" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
-        <v>46112</v>
+        <v>46142</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="26">
-        <v>27.3</v>
+        <v>28.649519325082078</v>
       </c>
       <c r="E41" s="26">
-        <v>27.277763975567961</v>
+        <v>28.63736490674836</v>
       </c>
       <c r="F41" s="26">
-        <v>2.7592020449111749</v>
-      </c>
-      <c r="G41" s="4">
-        <v>32.5</v>
-      </c>
-      <c r="H41" s="4">
-        <v>21.41659970152681</v>
-      </c>
-      <c r="I41" s="4">
-        <v>31.042000000000002</v>
-      </c>
-      <c r="J41" s="4">
-        <v>29.43339109037127</v>
-      </c>
-      <c r="K41" s="4">
-        <v>25</v>
-      </c>
-      <c r="L41" s="4">
-        <v>24</v>
+        <v>2.958028455972979</v>
+      </c>
+      <c r="G41" s="26">
+        <v>35.516097501923142</v>
+      </c>
+      <c r="H41" s="26">
+        <v>22</v>
+      </c>
+      <c r="I41" s="26">
+        <v>32.4</v>
+      </c>
+      <c r="J41" s="26">
+        <v>31</v>
+      </c>
+      <c r="K41" s="26">
+        <v>26.89</v>
+      </c>
+      <c r="L41" s="26">
+        <v>24.503195154890101</v>
       </c>
       <c r="M41" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="N41" s="43"/>
+    </row>
+    <row r="42" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B42" s="17">
-        <v>46142</v>
+        <v>46173</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="27">
-        <v>26.25</v>
+        <v>27.6</v>
       </c>
       <c r="E42" s="27">
-        <v>26.040093707140102</v>
+        <v>27.203347329776829</v>
       </c>
       <c r="F42" s="27">
-        <v>2.8310043797879358</v>
-      </c>
-      <c r="G42" s="19">
-        <v>31.5</v>
-      </c>
-      <c r="H42" s="19">
-        <v>18.2</v>
-      </c>
-      <c r="I42" s="19">
-        <v>29.501136190816201</v>
-      </c>
-      <c r="J42" s="19">
-        <v>27.745000000000001</v>
-      </c>
-      <c r="K42" s="19">
-        <v>24.225000000000001</v>
-      </c>
-      <c r="L42" s="19">
-        <v>22.54</v>
+        <v>3.151303936266292</v>
+      </c>
+      <c r="G42" s="27">
+        <v>33.129764403111331</v>
+      </c>
+      <c r="H42" s="27">
+        <v>20.25</v>
+      </c>
+      <c r="I42" s="27">
+        <v>31.2</v>
+      </c>
+      <c r="J42" s="27">
+        <v>29.132602193419739</v>
+      </c>
+      <c r="K42" s="27">
+        <v>24.74</v>
+      </c>
+      <c r="L42" s="27">
+        <v>23</v>
       </c>
       <c r="M42" s="20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="N42" s="43"/>
+    </row>
+    <row r="43" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
-        <v>46173</v>
+        <v>46203</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="26">
-        <v>25.860184856305231</v>
+        <v>26.15</v>
       </c>
       <c r="E43" s="26">
-        <v>25.176822004949521</v>
+        <v>26.198392237520132</v>
       </c>
       <c r="F43" s="26">
-        <v>2.8363978340564242</v>
-      </c>
-      <c r="G43" s="4">
-        <v>30</v>
-      </c>
-      <c r="H43" s="4">
-        <v>18</v>
-      </c>
-      <c r="I43" s="4">
-        <v>28.158000000000001</v>
-      </c>
-      <c r="J43" s="4">
-        <v>27</v>
-      </c>
-      <c r="K43" s="4">
-        <v>23.375</v>
-      </c>
-      <c r="L43" s="4">
-        <v>21.354939731374131</v>
+        <v>3.269426005811336</v>
+      </c>
+      <c r="G43" s="26">
+        <v>32.531639585965308</v>
+      </c>
+      <c r="H43" s="26">
+        <v>19</v>
+      </c>
+      <c r="I43" s="26">
+        <v>31</v>
+      </c>
+      <c r="J43" s="26">
+        <v>28.053616926996789</v>
+      </c>
+      <c r="K43" s="26">
+        <v>24.5</v>
+      </c>
+      <c r="L43" s="26">
+        <v>22.3</v>
       </c>
       <c r="M43" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="N43" s="43"/>
+    </row>
+    <row r="44" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="17">
-        <v>46203</v>
+        <v>46234</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="27">
-        <v>24.358730292403301</v>
+        <v>25</v>
       </c>
       <c r="E44" s="27">
-        <v>24.4137540086538</v>
+        <v>25.13385234697127</v>
       </c>
       <c r="F44" s="27">
-        <v>3.0411579837136409</v>
-      </c>
-      <c r="G44" s="19">
-        <v>30</v>
-      </c>
-      <c r="H44" s="19">
+        <v>3.170418268610574</v>
+      </c>
+      <c r="G44" s="27">
+        <v>31.797076307168339</v>
+      </c>
+      <c r="H44" s="27">
         <v>17.8</v>
       </c>
-      <c r="I44" s="19">
-        <v>27.91</v>
-      </c>
-      <c r="J44" s="19">
-        <v>26.8125</v>
-      </c>
-      <c r="K44" s="19">
-        <v>22.8475</v>
-      </c>
-      <c r="L44" s="19">
-        <v>20</v>
+      <c r="I44" s="27">
+        <v>29</v>
+      </c>
+      <c r="J44" s="27">
+        <v>27.878281821203061</v>
+      </c>
+      <c r="K44" s="27">
+        <v>23.713043478260861</v>
+      </c>
+      <c r="L44" s="27">
+        <v>21.5</v>
       </c>
       <c r="M44" s="20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="N44" s="43"/>
+    </row>
+    <row r="45" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D45" s="26">
-        <v>21</v>
+        <v>21.774852664229531</v>
       </c>
       <c r="E45" s="26">
-        <v>21.57449211503727</v>
+        <v>21.46101584912725</v>
       </c>
       <c r="F45" s="26">
-        <v>3.623478548638873</v>
-      </c>
-      <c r="G45" s="4">
-        <v>28.47426166150079</v>
-      </c>
-      <c r="H45" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="I45" s="4">
-        <v>27.05</v>
-      </c>
-      <c r="J45" s="4">
-        <v>22.94999999999991</v>
-      </c>
-      <c r="K45" s="4">
-        <v>19.5825</v>
-      </c>
-      <c r="L45" s="4">
-        <v>17.54</v>
+        <v>4.9594155939325004</v>
+      </c>
+      <c r="G45" s="26">
+        <v>35</v>
+      </c>
+      <c r="H45" s="26">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I45" s="26">
+        <v>26.600000000000009</v>
+      </c>
+      <c r="J45" s="26">
+        <v>24</v>
+      </c>
+      <c r="K45" s="26">
+        <v>18.541227402472369</v>
+      </c>
+      <c r="L45" s="26">
+        <v>15.86999999999996</v>
       </c>
       <c r="M45" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="N45" s="43"/>
+    </row>
+    <row r="46" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
         <v>36</v>
       </c>
@@ -3236,79 +3315,85 @@
         <v>20</v>
       </c>
       <c r="D46" s="27">
-        <v>21</v>
+        <v>22.41</v>
       </c>
       <c r="E46" s="27">
-        <v>21.57449211503727</v>
+        <v>22.364056767059139</v>
       </c>
       <c r="F46" s="27">
-        <v>3.623478548638873</v>
-      </c>
-      <c r="G46" s="19">
-        <v>28.47426166150079</v>
-      </c>
-      <c r="H46" s="19">
-        <v>13.6</v>
-      </c>
-      <c r="I46" s="19">
-        <v>27.05</v>
-      </c>
-      <c r="J46" s="19">
-        <v>22.94999999999991</v>
-      </c>
-      <c r="K46" s="19">
-        <v>19.5825</v>
-      </c>
-      <c r="L46" s="19">
-        <v>17.54</v>
+        <v>4.4299855217777049</v>
+      </c>
+      <c r="G46" s="27">
+        <v>35</v>
+      </c>
+      <c r="H46" s="27">
+        <v>11.2</v>
+      </c>
+      <c r="I46" s="27">
+        <v>28</v>
+      </c>
+      <c r="J46" s="27">
+        <v>24.1</v>
+      </c>
+      <c r="K46" s="27">
+        <v>20</v>
+      </c>
+      <c r="L46" s="27">
+        <v>17</v>
       </c>
       <c r="M46" s="20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="N46" s="43"/>
+    </row>
+    <row r="47" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="26">
-        <v>15.799999999999869</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="E47" s="26">
-        <v>16.165463782086</v>
+        <v>17.122072759309859</v>
       </c>
       <c r="F47" s="26">
-        <v>3.47690983830103</v>
-      </c>
-      <c r="G47" s="4">
-        <v>24.17</v>
-      </c>
-      <c r="H47" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="I47" s="4">
-        <v>20.54</v>
-      </c>
-      <c r="J47" s="4">
-        <v>18.45</v>
-      </c>
-      <c r="K47" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="L47" s="4">
-        <v>12.497999999999999</v>
+        <v>4.3407053134023288</v>
+      </c>
+      <c r="G47" s="26">
+        <v>28.388850680861879</v>
+      </c>
+      <c r="H47" s="26">
+        <v>7</v>
+      </c>
+      <c r="I47" s="26">
+        <v>22.2</v>
+      </c>
+      <c r="J47" s="26">
+        <v>19.5</v>
+      </c>
+      <c r="K47" s="26">
+        <v>15</v>
+      </c>
+      <c r="L47" s="26">
+        <v>12.279217982157819</v>
       </c>
       <c r="M47" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="N47" s="43"/>
+    </row>
+    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="22"/>
       <c r="C48" s="23"/>
-    </row>
-    <row r="50" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N48" s="43"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="43"/>
+    </row>
+    <row r="50" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>21</v>
       </c>
@@ -3323,8 +3408,9 @@
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="15"/>
-    </row>
-    <row r="51" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+      <c r="N50" s="43"/>
+    </row>
+    <row r="51" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
         <v>1</v>
       </c>
@@ -3362,273 +3448,280 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
-        <v>46053</v>
+        <v>46081</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="28">
-        <v>1484.3</v>
+        <v>1475</v>
       </c>
       <c r="E52" s="28">
-        <v>1486.90868830971</v>
+        <v>1477.385211817071</v>
       </c>
       <c r="F52" s="28">
-        <v>23.564744617785859</v>
+        <v>19.87634698229375</v>
       </c>
       <c r="G52" s="28">
-        <v>1556.666666666667</v>
+        <v>1563.333333333333</v>
       </c>
       <c r="H52" s="28">
-        <v>1443.7</v>
+        <v>1444.06</v>
       </c>
       <c r="I52" s="28">
-        <v>1517.907599153438</v>
+        <v>1496.191409123388</v>
       </c>
       <c r="J52" s="28">
-        <v>1501.7425000000001</v>
+        <v>1486.763394246</v>
       </c>
       <c r="K52" s="28">
-        <v>1468.2319927766659</v>
+        <v>1464.2</v>
       </c>
       <c r="L52" s="28">
-        <v>1460.4194012583359</v>
+        <v>1459.4228426754969</v>
       </c>
       <c r="M52" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N52" s="43"/>
+    </row>
+    <row r="53" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="17">
-        <v>46081</v>
+        <v>46112</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="29">
-        <v>1514.655</v>
+        <v>1501.63102818846</v>
       </c>
       <c r="E53" s="29">
-        <v>1515.566164116369</v>
+        <v>1505.043021492053</v>
       </c>
       <c r="F53" s="29">
-        <v>29.370533348278329</v>
+        <v>25.73091061304244</v>
       </c>
       <c r="G53" s="29">
-        <v>1570.88</v>
+        <v>1570</v>
       </c>
       <c r="H53" s="29">
-        <v>1447.3</v>
+        <v>1451.5</v>
       </c>
       <c r="I53" s="29">
-        <v>1552.7159999999999</v>
+        <v>1545.8713945926479</v>
       </c>
       <c r="J53" s="29">
-        <v>1536.3629603558011</v>
+        <v>1519.25</v>
       </c>
       <c r="K53" s="29">
-        <v>1489.6786756833731</v>
+        <v>1491</v>
       </c>
       <c r="L53" s="29">
-        <v>1479.37</v>
+        <v>1479.98</v>
       </c>
       <c r="M53" s="20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N53" s="43"/>
+    </row>
+    <row r="54" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
-        <v>46112</v>
+        <v>46142</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="28">
-        <v>1544.200351616827</v>
+        <v>1525.661604667109</v>
       </c>
       <c r="E54" s="28">
-        <v>1540.5087997060571</v>
+        <v>1532.2602996487749</v>
       </c>
       <c r="F54" s="28">
-        <v>34.742390473530158</v>
+        <v>31.96373537080596</v>
       </c>
       <c r="G54" s="28">
-        <v>1608.58</v>
+        <v>1607.47</v>
       </c>
       <c r="H54" s="28">
-        <v>1446.6</v>
+        <v>1449.2</v>
       </c>
       <c r="I54" s="28">
-        <v>1584.3589999999999</v>
+        <v>1578.666666666667</v>
       </c>
       <c r="J54" s="28">
-        <v>1563.6175000000001</v>
+        <v>1552.7313342237851</v>
       </c>
       <c r="K54" s="28">
-        <v>1511.154770259729</v>
+        <v>1514.7000096184449</v>
       </c>
       <c r="L54" s="28">
-        <v>1494.23</v>
+        <v>1496.058</v>
       </c>
       <c r="M54" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N54" s="43"/>
+    </row>
+    <row r="55" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B55" s="17">
-        <v>46142</v>
+        <v>46173</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="29">
-        <v>1570</v>
+        <v>1548.5465287371151</v>
       </c>
       <c r="E55" s="29">
-        <v>1563.853142684216</v>
+        <v>1553.278059588584</v>
       </c>
       <c r="F55" s="29">
-        <v>41.775985833294783</v>
+        <v>41.059652869329511</v>
       </c>
       <c r="G55" s="29">
-        <v>1646.87</v>
+        <v>1663.21</v>
       </c>
       <c r="H55" s="29">
-        <v>1444.4</v>
+        <v>1447.1</v>
       </c>
       <c r="I55" s="29">
-        <v>1608.575</v>
+        <v>1609.76741729019</v>
       </c>
       <c r="J55" s="29">
-        <v>1596.0748433928429</v>
+        <v>1583.333333333333</v>
       </c>
       <c r="K55" s="29">
-        <v>1530.6756922731049</v>
+        <v>1524</v>
       </c>
       <c r="L55" s="29">
-        <v>1509.16</v>
+        <v>1512.3015678202439</v>
       </c>
       <c r="M55" s="20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N55" s="43"/>
+    </row>
+    <row r="56" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
-        <v>46173</v>
+        <v>46203</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="28">
-        <v>1587.6505834012689</v>
+        <v>1577.438884016841</v>
       </c>
       <c r="E56" s="28">
-        <v>1584.3829723305239</v>
+        <v>1577.261854621888</v>
       </c>
       <c r="F56" s="28">
-        <v>48.137166278644607</v>
+        <v>50.375561831096768</v>
       </c>
       <c r="G56" s="28">
-        <v>1685.73</v>
+        <v>1701.97</v>
       </c>
       <c r="H56" s="28">
-        <v>1442.27</v>
+        <v>1447.8</v>
       </c>
       <c r="I56" s="28">
-        <v>1639.8973841033901</v>
+        <v>1645.4932012016361</v>
       </c>
       <c r="J56" s="28">
-        <v>1624.6010544773701</v>
+        <v>1615</v>
       </c>
       <c r="K56" s="28">
-        <v>1546.9675</v>
+        <v>1539.1</v>
       </c>
       <c r="L56" s="28">
-        <v>1521.17</v>
+        <v>1526.612978111883</v>
       </c>
       <c r="M56" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N56" s="43"/>
+    </row>
+    <row r="57" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="17">
-        <v>46203</v>
+        <v>46234</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="29">
-        <v>1605.35</v>
+        <v>1604</v>
       </c>
       <c r="E57" s="29">
-        <v>1605.3532108447621</v>
+        <v>1607.5089479448579</v>
       </c>
       <c r="F57" s="29">
-        <v>56.562145487469273</v>
+        <v>60.654769777879117</v>
       </c>
       <c r="G57" s="29">
-        <v>1725.18</v>
+        <v>1741.28</v>
       </c>
       <c r="H57" s="29">
-        <v>1443</v>
+        <v>1454.3</v>
       </c>
       <c r="I57" s="29">
-        <v>1670.5360000000001</v>
+        <v>1689.7625537341339</v>
       </c>
       <c r="J57" s="29">
-        <v>1645.054385717898</v>
+        <v>1645</v>
       </c>
       <c r="K57" s="29">
-        <v>1564.2189315843871</v>
+        <v>1564.294625872443</v>
       </c>
       <c r="L57" s="29">
-        <v>1534.970696438332</v>
+        <v>1542.24</v>
       </c>
       <c r="M57" s="20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="N57" s="43"/>
+    </row>
+    <row r="58" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D58" s="28">
-        <v>1752.5</v>
+        <v>1767.5650000000001</v>
       </c>
       <c r="E58" s="28">
-        <v>1740.5791879012741</v>
+        <v>1768.6156409996699</v>
       </c>
       <c r="F58" s="28">
-        <v>97.179179387445544</v>
+        <v>119.3968945271486</v>
       </c>
       <c r="G58" s="28">
-        <v>1954.8</v>
+        <v>2111</v>
       </c>
       <c r="H58" s="28">
-        <v>1475.8</v>
+        <v>1480</v>
       </c>
       <c r="I58" s="28">
-        <v>1865.0740000000001</v>
+        <v>1883.3239448597631</v>
       </c>
       <c r="J58" s="28">
-        <v>1808.25</v>
+        <v>1832.2853195311559</v>
       </c>
       <c r="K58" s="28">
-        <v>1675.4876076441039</v>
+        <v>1698.1223318132249</v>
       </c>
       <c r="L58" s="28">
-        <v>1616.011</v>
+        <v>1633.64</v>
       </c>
       <c r="M58" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="N58" s="43"/>
+    </row>
+    <row r="59" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B59" s="21" t="s">
         <v>36</v>
       </c>
@@ -3636,83 +3729,85 @@
         <v>23</v>
       </c>
       <c r="D59" s="29">
-        <v>1752.5</v>
+        <v>1750</v>
       </c>
       <c r="E59" s="29">
-        <v>1740.5791879012741</v>
+        <v>1746.5753341494731</v>
       </c>
       <c r="F59" s="29">
-        <v>97.179179387445544</v>
+        <v>110.0402844962843</v>
       </c>
       <c r="G59" s="29">
-        <v>1954.8</v>
+        <v>2082</v>
       </c>
       <c r="H59" s="29">
-        <v>1475.8</v>
+        <v>1476.6</v>
       </c>
       <c r="I59" s="29">
-        <v>1865.0740000000001</v>
+        <v>1850.940644165192</v>
       </c>
       <c r="J59" s="29">
-        <v>1808.25</v>
+        <v>1803.1337347346389</v>
       </c>
       <c r="K59" s="29">
-        <v>1675.4876076441039</v>
+        <v>1665.097178599613</v>
       </c>
       <c r="L59" s="29">
-        <v>1616.011</v>
+        <v>1620.4</v>
       </c>
       <c r="M59" s="20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N59" s="43"/>
+    </row>
+    <row r="60" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D60" s="28">
-        <v>1979.9349999999999</v>
+        <v>1971</v>
       </c>
       <c r="E60" s="28">
-        <v>1968.6145979159221</v>
+        <v>1988.234975917565</v>
       </c>
       <c r="F60" s="28">
-        <v>148.34719790986861</v>
+        <v>173.42476109955669</v>
       </c>
       <c r="G60" s="28">
-        <v>2288.1</v>
+        <v>2371</v>
       </c>
       <c r="H60" s="28">
-        <v>1623</v>
+        <v>1509.5</v>
       </c>
       <c r="I60" s="28">
-        <v>2137.1</v>
+        <v>2210.3065741893652</v>
       </c>
       <c r="J60" s="28">
-        <v>2061.9278804743358</v>
+        <v>2100</v>
       </c>
       <c r="K60" s="28">
-        <v>1866.0439675320169</v>
+        <v>1881</v>
       </c>
       <c r="L60" s="28">
-        <v>1802.3293929041461</v>
+        <v>1840</v>
       </c>
       <c r="M60" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="N60" s="43"/>
+    </row>
+    <row r="61" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
     </row>
-    <row r="62" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="22"/>
       <c r="C62" s="23"/>
     </row>
-    <row r="63" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>24</v>
       </c>
@@ -3728,7 +3823,7 @@
       <c r="L63" s="14"/>
       <c r="M63" s="15"/>
     </row>
-    <row r="64" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B64" s="24" t="s">
         <v>1</v>
       </c>
@@ -3766,273 +3861,280 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
-        <v>46022</v>
+        <v>46053</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="28">
-        <v>7450</v>
+        <v>6621.4915106058806</v>
       </c>
       <c r="E65" s="28">
-        <v>7345.2781801479296</v>
+        <v>6666.8208205847077</v>
       </c>
       <c r="F65" s="28">
-        <v>593.85894732038582</v>
+        <v>485.12053668863518</v>
       </c>
       <c r="G65" s="28">
-        <v>8368.6108834050392</v>
+        <v>7756</v>
       </c>
       <c r="H65" s="28">
-        <v>5630.0021442742982</v>
+        <v>5487.4503752946794</v>
       </c>
       <c r="I65" s="28">
-        <v>8033.3189830282499</v>
+        <v>7307</v>
       </c>
       <c r="J65" s="28">
-        <v>7718.4590550568491</v>
+        <v>6943.2553011528598</v>
       </c>
       <c r="K65" s="28">
-        <v>6897</v>
+        <v>6401.2501905337986</v>
       </c>
       <c r="L65" s="28">
-        <v>6673.1316769653422</v>
+        <v>6202</v>
       </c>
       <c r="M65" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N65" s="44"/>
+    </row>
+    <row r="66" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B66" s="17">
-        <v>46053</v>
+        <v>46081</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="29">
-        <v>6437.6821458956292</v>
+        <v>6698</v>
       </c>
       <c r="E66" s="29">
-        <v>6547.5847351836883</v>
+        <v>6719.2046150809783</v>
       </c>
       <c r="F66" s="29">
-        <v>509.57283957968298</v>
+        <v>314.27004131380551</v>
       </c>
       <c r="G66" s="29">
-        <v>7761</v>
+        <v>7452.4541796272397</v>
       </c>
       <c r="H66" s="29">
-        <v>5436.34</v>
+        <v>6148.959072604669</v>
       </c>
       <c r="I66" s="29">
-        <v>7049.534013137215</v>
+        <v>7164.9600433400137</v>
       </c>
       <c r="J66" s="29">
-        <v>6930</v>
+        <v>6898.9014961420889</v>
       </c>
       <c r="K66" s="29">
-        <v>6241</v>
+        <v>6520.2800000000007</v>
       </c>
       <c r="L66" s="29">
-        <v>6042.1154697990687</v>
+        <v>6329.4</v>
       </c>
       <c r="M66" s="20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N66" s="44"/>
+    </row>
+    <row r="67" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
-        <v>46081</v>
+        <v>46112</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="28">
-        <v>6654</v>
+        <v>7322.7304639530184</v>
       </c>
       <c r="E67" s="28">
-        <v>6669.1836204625079</v>
+        <v>7399.9363035115784</v>
       </c>
       <c r="F67" s="28">
-        <v>361.46179509891078</v>
+        <v>421.47001234396998</v>
       </c>
       <c r="G67" s="28">
-        <v>8071</v>
+        <v>8549.019280067434</v>
       </c>
       <c r="H67" s="28">
-        <v>6148.959072604669</v>
+        <v>6702.9728989048444</v>
       </c>
       <c r="I67" s="28">
-        <v>7021.4711714515324</v>
+        <v>7879.0463346383121</v>
       </c>
       <c r="J67" s="28">
-        <v>6842.932376946681</v>
+        <v>7649.8164006963543</v>
       </c>
       <c r="K67" s="28">
-        <v>6395.5096310217841</v>
+        <v>7125</v>
       </c>
       <c r="L67" s="28">
-        <v>6300.6585741591953</v>
+        <v>6937.2843625348878</v>
       </c>
       <c r="M67" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N67" s="44"/>
+    </row>
+    <row r="68" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B68" s="17">
-        <v>46112</v>
+        <v>46142</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="29">
-        <v>7232.9109169087897</v>
+        <v>7815.8607022848846</v>
       </c>
       <c r="E68" s="29">
-        <v>7308.1193080160274</v>
+        <v>7780.3919147865072</v>
       </c>
       <c r="F68" s="29">
-        <v>418.42950698581791</v>
+        <v>531.84037159499917</v>
       </c>
       <c r="G68" s="29">
-        <v>8798</v>
+        <v>9315.0163940606744</v>
       </c>
       <c r="H68" s="29">
-        <v>6702.9728989048444</v>
+        <v>6807</v>
       </c>
       <c r="I68" s="29">
-        <v>7931.5634650540651</v>
+        <v>8310.1658418713942</v>
       </c>
       <c r="J68" s="29">
-        <v>7435.8368253813987</v>
+        <v>8056.8810718559562</v>
       </c>
       <c r="K68" s="29">
-        <v>7059</v>
+        <v>7464.6079621217232</v>
       </c>
       <c r="L68" s="29">
-        <v>6903.527391618516</v>
+        <v>7186.3658575498721</v>
       </c>
       <c r="M68" s="20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N68" s="44"/>
+    </row>
+    <row r="69" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
-        <v>46142</v>
+        <v>46173</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="28">
-        <v>7743</v>
+        <v>8249.1042863587263</v>
       </c>
       <c r="E69" s="28">
-        <v>7663.4125533044371</v>
+        <v>8263.5925458383408</v>
       </c>
       <c r="F69" s="28">
-        <v>571.20820646148741</v>
+        <v>500.55832762240942</v>
       </c>
       <c r="G69" s="28">
-        <v>8841</v>
+        <v>9414.9362944449749</v>
       </c>
       <c r="H69" s="28">
-        <v>6256.9811965861727</v>
+        <v>7216.22</v>
       </c>
       <c r="I69" s="28">
-        <v>8409.1230113303136</v>
+        <v>8877.9962070700458</v>
       </c>
       <c r="J69" s="28">
-        <v>8012.25</v>
+        <v>8604.5298225142542</v>
       </c>
       <c r="K69" s="28">
-        <v>7280.2647193617868</v>
+        <v>7937.5</v>
       </c>
       <c r="L69" s="28">
-        <v>6876.813033306491</v>
+        <v>7674.1860055987099</v>
       </c>
       <c r="M69" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N69" s="44"/>
+    </row>
+    <row r="70" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B70" s="17">
-        <v>46173</v>
+        <v>46203</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="29">
-        <v>8247.1105947843062</v>
+        <v>7991.4618070202196</v>
       </c>
       <c r="E70" s="29">
-        <v>8173.9143050584471</v>
+        <v>8064.9690677309018</v>
       </c>
       <c r="F70" s="29">
-        <v>609.30966742275734</v>
+        <v>484.46366303435298</v>
       </c>
       <c r="G70" s="29">
-        <v>9284</v>
+        <v>9871.4532105056478</v>
       </c>
       <c r="H70" s="29">
-        <v>6835.3503125965744</v>
+        <v>7116.3068070104009</v>
       </c>
       <c r="I70" s="29">
-        <v>8982.2879350566946</v>
+        <v>8619.2356908562288</v>
       </c>
       <c r="J70" s="29">
-        <v>8543.6550088316144</v>
+        <v>8289.6690131268588</v>
       </c>
       <c r="K70" s="29">
-        <v>7710.1841496380903</v>
+        <v>7768.1860116369526</v>
       </c>
       <c r="L70" s="29">
-        <v>7337.3549999999996</v>
+        <v>7589.6979527971043</v>
       </c>
       <c r="M70" s="20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N70" s="44"/>
+    </row>
+    <row r="71" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
-        <v>46203</v>
+        <v>46234</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="28">
-        <v>7957.5182054670768</v>
+        <v>8199.73</v>
       </c>
       <c r="E71" s="28">
-        <v>7981.8554251322475</v>
+        <v>8190.919435823409</v>
       </c>
       <c r="F71" s="28">
-        <v>537.816174585878</v>
+        <v>629.38488489228814</v>
       </c>
       <c r="G71" s="28">
-        <v>9423</v>
+        <v>9684.456232295679</v>
       </c>
       <c r="H71" s="28">
-        <v>6691.1469602889829</v>
+        <v>6004.3387760152636</v>
       </c>
       <c r="I71" s="28">
-        <v>8631.1717305311395</v>
+        <v>8782.1557801563795</v>
       </c>
       <c r="J71" s="28">
-        <v>8310.8917594722716</v>
+        <v>8515.5819196930825</v>
       </c>
       <c r="K71" s="28">
-        <v>7607.9995666385139</v>
+        <v>7881</v>
       </c>
       <c r="L71" s="28">
-        <v>7408.7</v>
+        <v>7618.7039999999997</v>
       </c>
       <c r="M71" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N71" s="44"/>
+    </row>
+    <row r="72" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
         <v>36</v>
       </c>
@@ -4040,37 +4142,38 @@
         <v>25</v>
       </c>
       <c r="D72" s="29">
-        <v>91406.94105634572</v>
+        <v>91884.832304551266</v>
       </c>
       <c r="E72" s="29">
-        <v>91377.734487206122</v>
+        <v>92489.944247092266</v>
       </c>
       <c r="F72" s="29">
-        <v>3288.182943155758</v>
+        <v>4738.2166461834158</v>
       </c>
       <c r="G72" s="29">
-        <v>100000</v>
+        <v>113893.9543061141</v>
       </c>
       <c r="H72" s="29">
-        <v>85230</v>
+        <v>85310</v>
       </c>
       <c r="I72" s="29">
-        <v>94858</v>
+        <v>96862.225470702382</v>
       </c>
       <c r="J72" s="29">
-        <v>93270</v>
+        <v>93931.802737486956</v>
       </c>
       <c r="K72" s="29">
-        <v>88787.963214528994</v>
+        <v>89495.683318160416</v>
       </c>
       <c r="L72" s="29">
-        <v>88000</v>
+        <v>88044.612994159601</v>
       </c>
       <c r="M72" s="20">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="N72" s="44"/>
+    </row>
+    <row r="73" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>37</v>
       </c>
@@ -4078,45 +4181,46 @@
         <v>25</v>
       </c>
       <c r="D73" s="28">
-        <v>97575</v>
+        <v>98531.48000000001</v>
       </c>
       <c r="E73" s="28">
-        <v>97122.977633505012</v>
+        <v>98686.633619362212</v>
       </c>
       <c r="F73" s="28">
-        <v>5709.1230130972626</v>
+        <v>6941.3045829602715</v>
       </c>
       <c r="G73" s="28">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="H73" s="28">
-        <v>85920</v>
+        <v>85290</v>
       </c>
       <c r="I73" s="28">
-        <v>103300.3</v>
+        <v>103335.9348092874</v>
       </c>
       <c r="J73" s="28">
-        <v>101625</v>
+        <v>101224.5</v>
       </c>
       <c r="K73" s="28">
-        <v>93168.176262796173</v>
+        <v>95941.35417417706</v>
       </c>
       <c r="L73" s="28">
-        <v>89836.2</v>
+        <v>90758</v>
       </c>
       <c r="M73" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="N73" s="44"/>
+    </row>
+    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
     </row>
-    <row r="75" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
     </row>
-    <row r="76" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
         <v>26</v>
       </c>
@@ -4132,7 +4236,7 @@
       <c r="L76" s="14"/>
       <c r="M76" s="15"/>
     </row>
-    <row r="77" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B77" s="24" t="s">
         <v>1</v>
       </c>
@@ -4170,273 +4274,280 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
-        <v>46022</v>
+        <v>46053</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="28">
-        <v>5932.2854625996924</v>
+        <v>6000</v>
       </c>
       <c r="E78" s="28">
-        <v>5940.9607377597486</v>
+        <v>5986.1410173779514</v>
       </c>
       <c r="F78" s="28">
-        <v>429.42960724352599</v>
+        <v>376.22511362848348</v>
       </c>
       <c r="G78" s="28">
-        <v>6978</v>
+        <v>6982.4925756844495</v>
       </c>
       <c r="H78" s="28">
-        <v>5138.6792622990561</v>
+        <v>5246.7851804536231</v>
       </c>
       <c r="I78" s="28">
-        <v>6418.3828464798471</v>
+        <v>6444</v>
       </c>
       <c r="J78" s="28">
-        <v>6135.3775000000014</v>
+        <v>6218.7456710962088</v>
       </c>
       <c r="K78" s="28">
-        <v>5657.6634424365966</v>
+        <v>5734.8442379854023</v>
       </c>
       <c r="L78" s="28">
-        <v>5414.3035810310084</v>
+        <v>5578.3264542169109</v>
       </c>
       <c r="M78" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N78" s="44"/>
+    </row>
+    <row r="79" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B79" s="17">
-        <v>46053</v>
+        <v>46081</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="29">
-        <v>6040.3250000000007</v>
+        <v>6000</v>
       </c>
       <c r="E79" s="29">
-        <v>6023.2696555180009</v>
+        <v>5919.6601261581918</v>
       </c>
       <c r="F79" s="29">
-        <v>338.12767281762848</v>
+        <v>407.80693295666441</v>
       </c>
       <c r="G79" s="29">
-        <v>6972.3702313944495</v>
+        <v>7052.4356828003702</v>
       </c>
       <c r="H79" s="29">
-        <v>5344.8116534201599</v>
+        <v>4955.6656843901901</v>
       </c>
       <c r="I79" s="29">
-        <v>6379.5</v>
+        <v>6404.5392783269244</v>
       </c>
       <c r="J79" s="29">
-        <v>6240.4942001744821</v>
+        <v>6102.3449999999993</v>
       </c>
       <c r="K79" s="29">
-        <v>5848.0396243305349</v>
+        <v>5611.4752901206266</v>
       </c>
       <c r="L79" s="29">
-        <v>5557.7662516428427</v>
+        <v>5435.5178243161236</v>
       </c>
       <c r="M79" s="20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N79" s="44"/>
+    </row>
+    <row r="80" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
-        <v>46081</v>
+        <v>46112</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="28">
-        <v>5985.6399999999994</v>
+        <v>6493.8846938678507</v>
       </c>
       <c r="E80" s="28">
-        <v>5924.0247523043199</v>
+        <v>6411.7863439883449</v>
       </c>
       <c r="F80" s="28">
-        <v>391.07951403096411</v>
+        <v>393.00652711225513</v>
       </c>
       <c r="G80" s="28">
-        <v>7042.3133385103702</v>
+        <v>7239</v>
       </c>
       <c r="H80" s="28">
-        <v>4955.6656843901901</v>
+        <v>5402.1652097985616</v>
       </c>
       <c r="I80" s="28">
-        <v>6316.7000000000007</v>
+        <v>6872.6457598629313</v>
       </c>
       <c r="J80" s="28">
-        <v>6155.75</v>
+        <v>6647.7108638598584</v>
       </c>
       <c r="K80" s="28">
-        <v>5667.633712959052</v>
+        <v>6181.7881814954908</v>
       </c>
       <c r="L80" s="28">
-        <v>5483.4701517080966</v>
+        <v>5954.6866367993234</v>
       </c>
       <c r="M80" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N80" s="44"/>
+    </row>
+    <row r="81" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B81" s="17">
-        <v>46112</v>
+        <v>46142</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="29">
-        <v>6489.6253980972469</v>
+        <v>6604.2181182640797</v>
       </c>
       <c r="E81" s="29">
-        <v>6397.4397058043642</v>
+        <v>6620.0834178411806</v>
       </c>
       <c r="F81" s="29">
-        <v>350.64282884019519</v>
+        <v>350.47106963122673</v>
       </c>
       <c r="G81" s="29">
-        <v>7092.3566746601073</v>
+        <v>7531.129713440665</v>
       </c>
       <c r="H81" s="29">
-        <v>5402.1652097985616</v>
+        <v>6000</v>
       </c>
       <c r="I81" s="29">
-        <v>6783.2024762943302</v>
+        <v>7052</v>
       </c>
       <c r="J81" s="29">
-        <v>6608.25</v>
+        <v>6762.6143995634166</v>
       </c>
       <c r="K81" s="29">
-        <v>6151.5988462305022</v>
+        <v>6392.5671323949864</v>
       </c>
       <c r="L81" s="29">
-        <v>5979.7388918253982</v>
+        <v>6204.9992185164037</v>
       </c>
       <c r="M81" s="20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N81" s="44"/>
+    </row>
+    <row r="82" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
-        <v>46142</v>
+        <v>46173</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="28">
-        <v>6604.2407324820397</v>
+        <v>6950.7882631303464</v>
       </c>
       <c r="E82" s="28">
-        <v>6610.1929935728986</v>
+        <v>6935.2542231142424</v>
       </c>
       <c r="F82" s="28">
-        <v>329.15839157235138</v>
+        <v>420.26157190776871</v>
       </c>
       <c r="G82" s="28">
-        <v>7531.129713440665</v>
+        <v>7900</v>
       </c>
       <c r="H82" s="28">
-        <v>5962</v>
+        <v>6100</v>
       </c>
       <c r="I82" s="28">
-        <v>6917.0464279064836</v>
+        <v>7464.119232150153</v>
       </c>
       <c r="J82" s="28">
-        <v>6795.3283744775017</v>
+        <v>7252.5132221477143</v>
       </c>
       <c r="K82" s="28">
-        <v>6423.344926852661</v>
+        <v>6646.361297186786</v>
       </c>
       <c r="L82" s="28">
-        <v>6158.0343649462266</v>
+        <v>6390.9508426552193</v>
       </c>
       <c r="M82" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N82" s="44"/>
+    </row>
+    <row r="83" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B83" s="17">
-        <v>46173</v>
+        <v>46203</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="29">
-        <v>6947.5991666606187</v>
+        <v>6942.2093282749383</v>
       </c>
       <c r="E83" s="29">
-        <v>6916.44870952155</v>
+        <v>6912.3543162407896</v>
       </c>
       <c r="F83" s="29">
-        <v>380.03102727005569</v>
+        <v>380.19078497235517</v>
       </c>
       <c r="G83" s="29">
-        <v>7531.0858216495244</v>
+        <v>7564.3792143533456</v>
       </c>
       <c r="H83" s="29">
-        <v>6167</v>
+        <v>6145.3442796922227</v>
       </c>
       <c r="I83" s="29">
-        <v>7413.5759120223192</v>
+        <v>7310.9770931547228</v>
       </c>
       <c r="J83" s="29">
-        <v>7222.050185375525</v>
+        <v>7200.2852701969387</v>
       </c>
       <c r="K83" s="29">
-        <v>6620</v>
+        <v>6681.8627479325896</v>
       </c>
       <c r="L83" s="29">
-        <v>6418.3895784350798</v>
+        <v>6319.1857259702338</v>
       </c>
       <c r="M83" s="20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N83" s="44"/>
+    </row>
+    <row r="84" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
-        <v>46203</v>
+        <v>46234</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="28">
-        <v>6870.7650471368197</v>
+        <v>7317</v>
       </c>
       <c r="E84" s="28">
-        <v>6865.6752680756617</v>
+        <v>7227.3730656252174</v>
       </c>
       <c r="F84" s="28">
-        <v>393.21141610236509</v>
+        <v>504.82802631420537</v>
       </c>
       <c r="G84" s="28">
-        <v>7567</v>
+        <v>8342.9875834676568</v>
       </c>
       <c r="H84" s="28">
         <v>5900</v>
       </c>
       <c r="I84" s="28">
-        <v>7313.1837697930396</v>
+        <v>7694.0557822660539</v>
       </c>
       <c r="J84" s="28">
-        <v>7156.9113465565533</v>
+        <v>7523.1998728427861</v>
       </c>
       <c r="K84" s="28">
-        <v>6605</v>
+        <v>7005.8942020405248</v>
       </c>
       <c r="L84" s="28">
-        <v>6395.3080854002283</v>
+        <v>6563.587905213888</v>
       </c>
       <c r="M84" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="N84" s="44"/>
+    </row>
+    <row r="85" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B85" s="21" t="s">
         <v>36</v>
       </c>
@@ -4444,37 +4555,38 @@
         <v>25</v>
       </c>
       <c r="D85" s="29">
-        <v>80441.718779052884</v>
+        <v>80709.5</v>
       </c>
       <c r="E85" s="29">
-        <v>80516.157533694553</v>
+        <v>80580.615479673885</v>
       </c>
       <c r="F85" s="29">
-        <v>3388.2633740781462</v>
+        <v>3150.2367418590688</v>
       </c>
       <c r="G85" s="29">
-        <v>89283.856360221398</v>
+        <v>88745.232790366397</v>
       </c>
       <c r="H85" s="29">
-        <v>73320</v>
+        <v>73820</v>
       </c>
       <c r="I85" s="29">
-        <v>85000</v>
+        <v>83657.249105527881</v>
       </c>
       <c r="J85" s="29">
-        <v>82492.933268748238</v>
+        <v>82132.887092730147</v>
       </c>
       <c r="K85" s="29">
-        <v>78770.762826099672</v>
+        <v>78788.016510359419</v>
       </c>
       <c r="L85" s="29">
-        <v>76195</v>
+        <v>76550.3</v>
       </c>
       <c r="M85" s="20">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="N85" s="44"/>
+    </row>
+    <row r="86" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>37</v>
       </c>
@@ -4482,37 +4594,38 @@
         <v>25</v>
       </c>
       <c r="D86" s="28">
-        <v>85952.718841285096</v>
+        <v>85156.231834348961</v>
       </c>
       <c r="E86" s="28">
-        <v>85853.297789096163</v>
+        <v>85929.449544764881</v>
       </c>
       <c r="F86" s="28">
-        <v>6145.7584562619068</v>
+        <v>5903.1613273874873</v>
       </c>
       <c r="G86" s="28">
-        <v>98815.987809625076</v>
+        <v>98363.818730191764</v>
       </c>
       <c r="H86" s="28">
-        <v>74490</v>
+        <v>74510</v>
       </c>
       <c r="I86" s="28">
-        <v>94207</v>
+        <v>94313.520146828465</v>
       </c>
       <c r="J86" s="28">
-        <v>89842.238830130955</v>
+        <v>89597.781782848862</v>
       </c>
       <c r="K86" s="28">
-        <v>81310.75</v>
+        <v>82073.5</v>
       </c>
       <c r="L86" s="28">
-        <v>78208.825151469049</v>
+        <v>78857</v>
       </c>
       <c r="M86" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="N86" s="44"/>
+    </row>
+    <row r="87" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -4526,7 +4639,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
     </row>
-    <row r="89" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
         <v>27</v>
       </c>
@@ -4542,7 +4655,7 @@
       <c r="L89" s="14"/>
       <c r="M89" s="15"/>
     </row>
-    <row r="90" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B90" s="24" t="s">
         <v>1</v>
       </c>
@@ -4580,83 +4693,85 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="30">
-        <v>15982.5</v>
-      </c>
-      <c r="E91" s="30">
-        <v>15437.747617075869</v>
-      </c>
-      <c r="F91" s="30">
-        <v>2683.797878076753</v>
-      </c>
-      <c r="G91" s="30">
-        <v>21418.979338091209</v>
-      </c>
-      <c r="H91" s="30">
-        <v>7666</v>
-      </c>
-      <c r="I91" s="30">
-        <v>18289.154301723011</v>
-      </c>
-      <c r="J91" s="30">
-        <v>16721.959032383191</v>
-      </c>
-      <c r="K91" s="30">
-        <v>13837.019801909681</v>
-      </c>
-      <c r="L91" s="30">
-        <v>12442.5</v>
+      <c r="D91" s="29">
+        <v>16000</v>
+      </c>
+      <c r="E91" s="29">
+        <v>15468.17162809911</v>
+      </c>
+      <c r="F91" s="29">
+        <v>2207.0947726099771</v>
+      </c>
+      <c r="G91" s="29">
+        <v>18224.369398282299</v>
+      </c>
+      <c r="H91" s="29">
+        <v>9004</v>
+      </c>
+      <c r="I91" s="29">
+        <v>17721</v>
+      </c>
+      <c r="J91" s="29">
+        <v>16838.53</v>
+      </c>
+      <c r="K91" s="29">
+        <v>15082</v>
+      </c>
+      <c r="L91" s="29">
+        <v>12500</v>
       </c>
       <c r="M91" s="20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="N91" s="43"/>
+    </row>
+    <row r="92" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="31">
-        <v>17777.5</v>
-      </c>
-      <c r="E92" s="31">
-        <v>17957.4084214824</v>
-      </c>
-      <c r="F92" s="31">
-        <v>4506.9347008654768</v>
-      </c>
-      <c r="G92" s="31">
-        <v>26988.85</v>
-      </c>
-      <c r="H92" s="31">
+      <c r="D92" s="28">
+        <v>19200</v>
+      </c>
+      <c r="E92" s="28">
+        <v>18635.17828252081</v>
+      </c>
+      <c r="F92" s="28">
+        <v>4246.6697004547541</v>
+      </c>
+      <c r="G92" s="28">
+        <v>26929.63</v>
+      </c>
+      <c r="H92" s="28">
         <v>2000</v>
       </c>
-      <c r="I92" s="31">
-        <v>23281.09602432889</v>
-      </c>
-      <c r="J92" s="31">
-        <v>19898.75</v>
-      </c>
-      <c r="K92" s="31">
-        <v>16300</v>
-      </c>
-      <c r="L92" s="31">
-        <v>14020</v>
+      <c r="I92" s="28">
+        <v>22079.909340166068</v>
+      </c>
+      <c r="J92" s="28">
+        <v>20834.25</v>
+      </c>
+      <c r="K92" s="28">
+        <v>17527.5</v>
+      </c>
+      <c r="L92" s="28">
+        <v>14458.994575671801</v>
       </c>
       <c r="M92" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="N92" s="43"/>
+    </row>
+    <row r="93" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -4670,7 +4785,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
     </row>
-    <row r="95" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
         <v>29</v>
       </c>
@@ -4686,7 +4801,7 @@
       <c r="L95" s="14"/>
       <c r="M95" s="15"/>
     </row>
-    <row r="96" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B96" s="24" t="s">
         <v>1</v>
       </c>
@@ -4724,7 +4839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>38</v>
       </c>
@@ -4732,37 +4847,38 @@
         <v>30</v>
       </c>
       <c r="D97" s="4">
-        <v>6.8</v>
+        <v>6.7222115435231782</v>
       </c>
       <c r="E97" s="4">
-        <v>6.8832551083556446</v>
+        <v>6.7986147782534756</v>
       </c>
       <c r="F97" s="4">
-        <v>0.46544661290686651</v>
+        <v>0.44489756209527209</v>
       </c>
       <c r="G97" s="4">
         <v>8.1</v>
       </c>
       <c r="H97" s="4">
-        <v>6.16</v>
+        <v>5.9882005014101942</v>
       </c>
       <c r="I97" s="4">
-        <v>7.5243222409846524</v>
+        <v>7.4</v>
       </c>
       <c r="J97" s="4">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K97" s="4">
         <v>6.5</v>
       </c>
       <c r="L97" s="4">
-        <v>6.4</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="M97" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="N97" s="43"/>
+    </row>
+    <row r="98" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B98" s="17" t="s">
         <v>39</v>
       </c>
@@ -4773,72 +4889,74 @@
         <v>7.3</v>
       </c>
       <c r="E98" s="19">
-        <v>7.328607610968171</v>
+        <v>7.2905209725055578</v>
       </c>
       <c r="F98" s="19">
-        <v>0.4999287939675196</v>
+        <v>0.4744476558759711</v>
       </c>
       <c r="G98" s="19">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H98" s="19">
         <v>6.4</v>
       </c>
       <c r="I98" s="19">
-        <v>7.9</v>
+        <v>7.8840000000000003</v>
       </c>
       <c r="J98" s="19">
-        <v>7.8</v>
+        <v>7.6318379425839069</v>
       </c>
       <c r="K98" s="19">
-        <v>6.9828117326753381</v>
+        <v>7</v>
       </c>
       <c r="L98" s="19">
         <v>6.6</v>
       </c>
       <c r="M98" s="20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="N98" s="43"/>
+    </row>
+    <row r="99" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D99" s="4">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="E99" s="4">
-        <v>7.2354271315689713</v>
+        <v>7.1208092617664516</v>
       </c>
       <c r="F99" s="4">
-        <v>0.57371617356710525</v>
+        <v>0.55977117273179067</v>
       </c>
       <c r="G99" s="4">
         <v>8.4</v>
       </c>
       <c r="H99" s="4">
-        <v>6.274548463389519</v>
+        <v>6.2175137401140592</v>
       </c>
       <c r="I99" s="4">
-        <v>7.8</v>
+        <v>7.7020000000000008</v>
       </c>
       <c r="J99" s="4">
-        <v>7.6000000000000014</v>
+        <v>7.5</v>
       </c>
       <c r="K99" s="4">
-        <v>6.7</v>
+        <v>6.66</v>
       </c>
       <c r="L99" s="4">
-        <v>6.5126969514225248</v>
+        <v>6.44</v>
       </c>
       <c r="M99" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="N99" s="43"/>
+    </row>
+    <row r="100" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B100" s="21" t="s">
         <v>36</v>
       </c>
@@ -4846,75 +4964,77 @@
         <v>31</v>
       </c>
       <c r="D100" s="19">
-        <v>6.85</v>
+        <v>6.6</v>
       </c>
       <c r="E100" s="19">
-        <v>6.8304251966573961</v>
+        <v>6.7071012544176298</v>
       </c>
       <c r="F100" s="19">
-        <v>0.64675356772789261</v>
+        <v>0.61223685424154506</v>
       </c>
       <c r="G100" s="19">
-        <v>8.6999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="H100" s="19">
-        <v>5.74</v>
+        <v>5.0785095504135827</v>
       </c>
       <c r="I100" s="19">
-        <v>7.4929777307567758</v>
+        <v>7.4060000000000006</v>
       </c>
       <c r="J100" s="19">
-        <v>7.2</v>
+        <v>6.9580045913649728</v>
       </c>
       <c r="K100" s="19">
-        <v>6.375</v>
+        <v>6.3500000000000014</v>
       </c>
       <c r="L100" s="19">
-        <v>6</v>
+        <v>6.1974643458316523</v>
       </c>
       <c r="M100" s="20">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="N100" s="43"/>
+    </row>
+    <row r="101" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D101" s="4">
-        <v>6.8500000000000014</v>
+        <v>6.5</v>
       </c>
       <c r="E101" s="4">
-        <v>6.7461820489385618</v>
+        <v>6.5816771714761861</v>
       </c>
       <c r="F101" s="4">
-        <v>0.73518316994256361</v>
+        <v>0.72650706279252575</v>
       </c>
       <c r="G101" s="4">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H101" s="4">
-        <v>5.3900039539860432</v>
+        <v>4.7302581941679378</v>
       </c>
       <c r="I101" s="4">
-        <v>7.6800000000000006</v>
+        <v>7.44</v>
       </c>
       <c r="J101" s="4">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="K101" s="4">
-        <v>6.1592608687683548</v>
+        <v>6.0883255091442354</v>
       </c>
       <c r="L101" s="4">
-        <v>5.82</v>
+        <v>5.84</v>
       </c>
       <c r="M101" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="N101" s="43"/>
+    </row>
+    <row r="102" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -4928,7 +5048,7 @@
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
     </row>
-    <row r="104" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
         <v>32</v>
       </c>
@@ -4944,7 +5064,7 @@
       <c r="L104" s="14"/>
       <c r="M104" s="15"/>
     </row>
-    <row r="105" spans="2:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B105" s="24" t="s">
         <v>1</v>
       </c>
@@ -4982,7 +5102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B106" s="17" t="s">
         <v>38</v>
       </c>
@@ -4990,37 +5110,38 @@
         <v>33</v>
       </c>
       <c r="D106" s="19">
-        <v>0.4</v>
+        <v>0.13109489618399969</v>
       </c>
       <c r="E106" s="19">
-        <v>0.50879312545267619</v>
+        <v>0.24435923384415081</v>
       </c>
       <c r="F106" s="19">
-        <v>0.46743338236633231</v>
+        <v>0.31622400503116183</v>
       </c>
       <c r="G106" s="19">
-        <v>1.948</v>
+        <v>1.2</v>
       </c>
       <c r="H106" s="19">
-        <v>-0.34355657926817829</v>
+        <v>-0.19335920059689871</v>
       </c>
       <c r="I106" s="19">
-        <v>1.132530124512187</v>
+        <v>0.65089831927516317</v>
       </c>
       <c r="J106" s="19">
-        <v>0.75</v>
+        <v>0.31151954382744029</v>
       </c>
       <c r="K106" s="19">
-        <v>0.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="L106" s="19">
-        <v>2.044E-2</v>
+        <v>-1.37732848547023E-2</v>
       </c>
       <c r="M106" s="20">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="N106" s="43"/>
+    </row>
+    <row r="107" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
         <v>39</v>
       </c>
@@ -5028,75 +5149,77 @@
         <v>33</v>
       </c>
       <c r="D107" s="4">
-        <v>0.89223625963048558</v>
+        <v>0.9</v>
       </c>
       <c r="E107" s="4">
-        <v>0.79583790911372376</v>
+        <v>0.87856983116249787</v>
       </c>
       <c r="F107" s="4">
-        <v>0.44253660889963109</v>
+        <v>0.55508168016261195</v>
       </c>
       <c r="G107" s="4">
-        <v>1.962302222656986</v>
+        <v>3.46983603033526</v>
       </c>
       <c r="H107" s="4">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="I107" s="4">
-        <v>1.28</v>
+        <v>1.3336467009544419</v>
       </c>
       <c r="J107" s="4">
         <v>1</v>
       </c>
       <c r="K107" s="4">
-        <v>0.48</v>
+        <v>0.60293114881066434</v>
       </c>
       <c r="L107" s="4">
-        <v>0.16</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="M107" s="5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="N107" s="43"/>
+    </row>
+    <row r="108" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B108" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="19">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="E108" s="19">
-        <v>0.93535214606964023</v>
+        <v>1.075097269094591</v>
       </c>
       <c r="F108" s="19">
-        <v>0.57120619846827758</v>
+        <v>0.44961416831536749</v>
       </c>
       <c r="G108" s="19">
         <v>2.4</v>
       </c>
       <c r="H108" s="19">
-        <v>-0.36299999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="I108" s="19">
-        <v>1.5030049999999939</v>
+        <v>1.5176631670819349</v>
       </c>
       <c r="J108" s="19">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="K108" s="19">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="L108" s="19">
-        <v>0.18608</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="M108" s="20">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="N108" s="43"/>
+    </row>
+    <row r="109" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
         <v>36</v>
       </c>
@@ -5104,37 +5227,38 @@
         <v>34</v>
       </c>
       <c r="D109" s="4">
-        <v>3.5</v>
+        <v>3.235914853899136</v>
       </c>
       <c r="E109" s="4">
-        <v>3.4840991628206459</v>
+        <v>3.2658765876893008</v>
       </c>
       <c r="F109" s="4">
-        <v>0.82441667758116022</v>
+        <v>0.78933032519859991</v>
       </c>
       <c r="G109" s="4">
         <v>5.2</v>
       </c>
       <c r="H109" s="4">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="I109" s="4">
-        <v>4.4574108270598094</v>
+        <v>4.1800000000000006</v>
       </c>
       <c r="J109" s="4">
-        <v>4.0749999999999993</v>
+        <v>3.9129900559775872</v>
       </c>
       <c r="K109" s="4">
-        <v>3</v>
+        <v>2.7727388763773901</v>
       </c>
       <c r="L109" s="4">
-        <v>2.4705698350276681</v>
+        <v>2.261112147985588</v>
       </c>
       <c r="M109" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="110" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="N109" s="43"/>
+    </row>
+    <row r="110" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
         <v>37</v>
       </c>
@@ -5142,77 +5266,79 @@
         <v>34</v>
       </c>
       <c r="D110" s="19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E110" s="19">
-        <v>3.2553357327039039</v>
+        <v>3.2660503054024348</v>
       </c>
       <c r="F110" s="19">
-        <v>0.91437682740686566</v>
+        <v>0.71361985951220486</v>
       </c>
       <c r="G110" s="19">
-        <v>5.3107049670647388</v>
+        <v>5.3</v>
       </c>
       <c r="H110" s="19">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I110" s="19">
-        <v>4.5116601701868442</v>
+        <v>4.4758878708254972</v>
       </c>
       <c r="J110" s="19">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="K110" s="19">
         <v>3</v>
       </c>
       <c r="L110" s="19">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="M110" s="20">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="N110" s="43"/>
+    </row>
+    <row r="111" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D111" s="4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E111" s="4">
-        <v>3.108579658574234</v>
+        <v>3.1302730795620199</v>
       </c>
       <c r="F111" s="4">
-        <v>0.75243862069216905</v>
+        <v>0.78152454985114184</v>
       </c>
       <c r="G111" s="4">
         <v>5</v>
       </c>
       <c r="H111" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I111" s="4">
-        <v>3.8159999999999998</v>
+        <v>3.8561322606329038</v>
       </c>
       <c r="J111" s="4">
         <v>3.5</v>
       </c>
       <c r="K111" s="4">
-        <v>3</v>
+        <v>2.889066978886623</v>
       </c>
       <c r="L111" s="4">
-        <v>2.3658399999999999</v>
+        <v>2.5</v>
       </c>
       <c r="M111" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="112" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="N111" s="43"/>
+    </row>
+    <row r="112" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B112" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -5241,418 +5367,428 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E9156F-0B7F-473C-A470-6ABA7EE18CEE}">
-  <sheetPr>
+  <sheetPr codeName="Hoja3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M98"/>
+  <dimension ref="B2:P98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="14.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" spans="2:13" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="2:14" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>46022</v>
+        <v>46053</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4">
-        <v>2.371</v>
+        <v>2.4070011506796121</v>
       </c>
       <c r="E7" s="4">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="F7" s="4">
-        <v>0.1987991728129449</v>
+        <v>0.1060457028515715</v>
       </c>
       <c r="G7" s="4">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H7" s="4">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I7" s="4">
-        <v>2.61</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J7" s="4">
-        <v>2.5</v>
+        <v>2.490002876699029</v>
       </c>
       <c r="K7" s="4">
-        <v>2.2250000000000001</v>
+        <v>2.3025000000000002</v>
       </c>
       <c r="L7" s="4">
-        <v>2.145</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M7" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="17">
-        <v>46053</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="N7" s="43"/>
+    </row>
+    <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>46081</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="19">
-        <v>2.1440000000000001</v>
-      </c>
-      <c r="E8" s="19">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.21925125110500759</v>
-      </c>
-      <c r="G8" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="D8" s="33">
+        <v>2.1634273059756608</v>
+      </c>
+      <c r="E8" s="33">
+        <v>2.1495398401550059</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0.1995546735897524</v>
+      </c>
+      <c r="G8" s="33">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H8" s="33">
         <v>1.9</v>
       </c>
-      <c r="I8" s="19">
-        <v>2.41</v>
-      </c>
-      <c r="J8" s="19">
-        <v>2.35</v>
-      </c>
-      <c r="K8" s="19">
-        <v>2</v>
-      </c>
-      <c r="L8" s="19">
+      <c r="I8" s="33">
+        <v>2.343674041501941</v>
+      </c>
+      <c r="J8" s="33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K8" s="33">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="L8" s="33">
         <v>1.9</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N8" s="43"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>46081</v>
+        <v>46112</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="4">
-        <v>1.875</v>
+        <v>2.2525708992391569</v>
       </c>
       <c r="E9" s="4">
-        <v>1.8049999999999999</v>
+        <v>2.2789634579837892</v>
       </c>
       <c r="F9" s="4">
-        <v>0.25513612924171369</v>
+        <v>0.18730138603033539</v>
       </c>
       <c r="G9" s="4">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H9" s="4">
-        <v>1.46</v>
+        <v>1.9</v>
       </c>
       <c r="I9" s="4">
-        <v>2.1280000000000001</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="J9" s="4">
-        <v>2</v>
+        <v>2.385836557317988</v>
       </c>
       <c r="K9" s="4">
-        <v>1.7250000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L9" s="4">
-        <v>1.6759999999999999</v>
+        <v>1.99</v>
       </c>
       <c r="M9" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="17">
-        <v>46112</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="N9" s="43"/>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <v>46142</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19">
-        <v>2.0430000000000001</v>
-      </c>
-      <c r="E10" s="19">
-        <v>2</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0.29356241055163868</v>
-      </c>
-      <c r="G10" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="H10" s="19">
-        <v>1.69</v>
-      </c>
-      <c r="I10" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="J10" s="19">
-        <v>2.34</v>
-      </c>
-      <c r="K10" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="L10" s="19">
-        <v>1.6990000000000001</v>
-      </c>
-      <c r="M10" s="20">
+      <c r="D10" s="33">
+        <v>2.0899707175934119</v>
+      </c>
+      <c r="E10" s="33">
+        <v>2.1</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0.18372412849714889</v>
+      </c>
+      <c r="G10" s="33">
+        <v>2.33</v>
+      </c>
+      <c r="H10" s="33">
+        <v>1.72</v>
+      </c>
+      <c r="I10" s="33">
+        <v>2.3029999999999999</v>
+      </c>
+      <c r="J10" s="33">
+        <v>2.1955130914252732</v>
+      </c>
+      <c r="K10" s="33">
+        <v>2.01725576350844</v>
+      </c>
+      <c r="L10" s="33">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="M10" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N10" s="43"/>
+    </row>
+    <row r="11" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>46142</v>
+        <v>46173</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4">
-        <v>1.8939999999999999</v>
+        <v>1.923507072902815</v>
       </c>
       <c r="E11" s="4">
-        <v>1.89</v>
+        <v>1.847253085578838</v>
       </c>
       <c r="F11" s="4">
-        <v>0.3062388319959149</v>
+        <v>0.23726947041435401</v>
       </c>
       <c r="G11" s="4">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="H11" s="4">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="I11" s="4">
-        <v>2.3460000000000001</v>
+        <v>2.3010000000000002</v>
       </c>
       <c r="J11" s="4">
-        <v>2</v>
+        <v>2.0229234184028568</v>
       </c>
       <c r="K11" s="4">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="L11" s="4">
-        <v>1.5920000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="M11" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="17">
-        <v>46173</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="N11" s="43"/>
+    </row>
+    <row r="12" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="37">
+        <v>46203</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="19">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="E12" s="19">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0.37208272676322329</v>
-      </c>
-      <c r="G12" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="H12" s="19">
-        <v>1.3</v>
-      </c>
-      <c r="I12" s="19">
-        <v>2.3279999999999998</v>
-      </c>
-      <c r="J12" s="19">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="K12" s="19">
-        <v>1.6</v>
-      </c>
-      <c r="L12" s="19">
-        <v>1.3360000000000001</v>
-      </c>
-      <c r="M12" s="20">
+      <c r="D12" s="33">
+        <v>1.830348264098312</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1.8128756474374501</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0.2070366334929569</v>
+      </c>
+      <c r="G12" s="33">
+        <v>2.11</v>
+      </c>
+      <c r="H12" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="33">
+        <v>2.101</v>
+      </c>
+      <c r="J12" s="33">
+        <v>1.986932836527056</v>
+      </c>
+      <c r="K12" s="33">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="L12" s="33">
+        <v>1.59</v>
+      </c>
+      <c r="M12" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N12" s="43"/>
+    </row>
+    <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>46203</v>
+        <v>46234</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="4">
-        <v>1.65</v>
+        <v>1.777487470291329</v>
       </c>
       <c r="E13" s="4">
-        <v>1.63</v>
+        <v>1.782937463338607</v>
       </c>
       <c r="F13" s="4">
-        <v>0.39880376683833429</v>
+        <v>0.2440030283471033</v>
       </c>
       <c r="G13" s="4">
-        <v>2.2200000000000002</v>
+        <v>2.09</v>
       </c>
       <c r="H13" s="4">
-        <v>0.82</v>
+        <v>1.4</v>
       </c>
       <c r="I13" s="4">
-        <v>2.0219999999999998</v>
+        <v>2.0089999999999999</v>
       </c>
       <c r="J13" s="4">
-        <v>1.95</v>
+        <v>1.9947499440590211</v>
       </c>
       <c r="K13" s="4">
-        <v>1.5249999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="L13" s="4">
-        <v>1.252</v>
+        <v>1.49</v>
       </c>
       <c r="M13" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="17" t="s">
+      <c r="N13" s="43"/>
+    </row>
+    <row r="14" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="19">
-        <v>22.545000000000002</v>
-      </c>
-      <c r="E14" s="19">
-        <v>23</v>
-      </c>
-      <c r="F14" s="19">
-        <v>4.1366525651116079</v>
-      </c>
-      <c r="G14" s="19">
-        <v>28.8</v>
-      </c>
-      <c r="H14" s="19">
-        <v>14.83</v>
-      </c>
-      <c r="I14" s="19">
-        <v>27</v>
-      </c>
-      <c r="J14" s="19">
-        <v>24.93</v>
-      </c>
-      <c r="K14" s="19">
-        <v>20.074999999999999</v>
-      </c>
-      <c r="L14" s="19">
-        <v>18.582999999999998</v>
-      </c>
-      <c r="M14" s="20">
+      <c r="C14" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="33">
+        <v>23.275905283361741</v>
+      </c>
+      <c r="E14" s="33">
+        <v>23.65</v>
+      </c>
+      <c r="F14" s="33">
+        <v>3.1941797662219269</v>
+      </c>
+      <c r="G14" s="33">
+        <v>27.4</v>
+      </c>
+      <c r="H14" s="33">
+        <v>17.8</v>
+      </c>
+      <c r="I14" s="33">
+        <v>26.277863315313081</v>
+      </c>
+      <c r="J14" s="33">
+        <v>25.731330225236139</v>
+      </c>
+      <c r="K14" s="33">
+        <v>21.635412853410379</v>
+      </c>
+      <c r="L14" s="33">
+        <v>18.61</v>
+      </c>
+      <c r="M14" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N14" s="43"/>
+    </row>
+    <row r="15" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
@@ -5660,395 +5796,404 @@
         <v>16</v>
       </c>
       <c r="D15" s="4">
-        <v>22.545000000000002</v>
+        <v>24.517452409140091</v>
       </c>
       <c r="E15" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4">
-        <v>4.1366525651116079</v>
+        <v>2.9754015962113538</v>
       </c>
       <c r="G15" s="4">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="H15" s="4">
-        <v>14.83</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="I15" s="4">
-        <v>27</v>
+        <v>27.34</v>
       </c>
       <c r="J15" s="4">
-        <v>24.93</v>
+        <v>26.781834008962459</v>
       </c>
       <c r="K15" s="4">
-        <v>20.074999999999999</v>
+        <v>22.756863128370011</v>
       </c>
       <c r="L15" s="4">
-        <v>18.582999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="M15" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="33" t="s">
+      <c r="N15" s="43"/>
+    </row>
+    <row r="18" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="34"/>
-    </row>
-    <row r="19" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B19" s="16" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+    </row>
+    <row r="19" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>46022</v>
+        <v>46053</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="4">
-        <v>2.331337076059635</v>
+        <v>2.3574999999999999</v>
       </c>
       <c r="E20" s="4">
-        <v>2.2749999999999999</v>
+        <v>2.3574999999999999</v>
       </c>
       <c r="F20" s="4">
-        <v>0.1704071678527451</v>
+        <v>0.28541636253025149</v>
       </c>
       <c r="G20" s="4">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H20" s="4">
-        <v>2.163370760596361</v>
+        <v>1.75</v>
       </c>
       <c r="I20" s="4">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="J20" s="4">
-        <v>2.4</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="K20" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="L20" s="4">
-        <v>2.1963370760596361</v>
+        <v>2.1459999999999999</v>
       </c>
       <c r="M20" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B21" s="17">
-        <v>46053</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="N20" s="43"/>
+    </row>
+    <row r="21" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="37">
+        <v>46081</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="19">
-        <v>2.0757368904968478</v>
-      </c>
-      <c r="E21" s="19">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0.2363448651770268</v>
-      </c>
-      <c r="G21" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="H21" s="19">
-        <v>1.677368904968479</v>
-      </c>
-      <c r="I21" s="19">
-        <v>2.41</v>
-      </c>
-      <c r="J21" s="19">
-        <v>2.145</v>
-      </c>
-      <c r="K21" s="19">
-        <v>2</v>
-      </c>
-      <c r="L21" s="19">
-        <v>1.8777368904968481</v>
-      </c>
-      <c r="M21" s="20">
+      <c r="D21" s="33">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="E21" s="33">
+        <v>2.2025000000000001</v>
+      </c>
+      <c r="F21" s="33">
+        <v>0.25281525973634489</v>
+      </c>
+      <c r="G21" s="33">
+        <v>2.48</v>
+      </c>
+      <c r="H21" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="I21" s="33">
+        <v>2.4079999999999999</v>
+      </c>
+      <c r="J21" s="33">
+        <v>2.2762500000000001</v>
+      </c>
+      <c r="K21" s="33">
+        <v>1.95</v>
+      </c>
+      <c r="L21" s="33">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="M21" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N21" s="43"/>
+    </row>
+    <row r="22" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>46081</v>
+        <v>46112</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="4">
-        <v>1.8517156635793</v>
+        <v>2.0769250000000001</v>
       </c>
       <c r="E22" s="4">
-        <v>1.85</v>
+        <v>2.062125</v>
       </c>
       <c r="F22" s="4">
-        <v>0.16294950229093791</v>
+        <v>0.29255360501206551</v>
       </c>
       <c r="G22" s="4">
-        <v>2.14</v>
+        <v>2.625</v>
       </c>
       <c r="H22" s="4">
-        <v>1.6371566357930021</v>
+        <v>1.55</v>
       </c>
       <c r="I22" s="4">
-        <v>2.0139999999999998</v>
+        <v>2.3325</v>
       </c>
       <c r="J22" s="4">
-        <v>1.9750000000000001</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="K22" s="4">
-        <v>1.71</v>
+        <v>1.9624999999999999</v>
       </c>
       <c r="L22" s="4">
-        <v>1.6937156635793</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="M22" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B23" s="17">
-        <v>46112</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="N22" s="43"/>
+    </row>
+    <row r="23" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="37">
+        <v>46142</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="19">
-        <v>1.873141059967286</v>
-      </c>
-      <c r="E23" s="19">
-        <v>1.84</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0.2538126376876802</v>
-      </c>
-      <c r="G23" s="19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H23" s="19">
-        <v>1.511410599672858</v>
-      </c>
-      <c r="I23" s="19">
-        <v>2.246</v>
-      </c>
-      <c r="J23" s="19">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="K23" s="19">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="L23" s="19">
-        <v>1.5911410599672859</v>
-      </c>
-      <c r="M23" s="20">
+      <c r="D23" s="33">
+        <v>1.98306125</v>
+      </c>
+      <c r="E23" s="33">
+        <v>2</v>
+      </c>
+      <c r="F23" s="33">
+        <v>0.22923751332542641</v>
+      </c>
+      <c r="G23" s="33">
+        <v>2.23</v>
+      </c>
+      <c r="H23" s="33">
+        <v>1.47</v>
+      </c>
+      <c r="I23" s="33">
+        <v>2.2075</v>
+      </c>
+      <c r="J23" s="33">
+        <v>2.163903125</v>
+      </c>
+      <c r="K23" s="33">
+        <v>1.9025000000000001</v>
+      </c>
+      <c r="L23" s="33">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="M23" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N23" s="43"/>
+    </row>
+    <row r="24" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <v>46142</v>
+        <v>46173</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="4">
-        <v>1.81508387334792</v>
+        <v>1.8172270625</v>
       </c>
       <c r="E24" s="4">
-        <v>1.7749999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="F24" s="4">
-        <v>0.28057256571664768</v>
+        <v>0.27878167137746201</v>
       </c>
       <c r="G24" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="H24" s="4">
-        <v>1.480838733479195</v>
+        <v>1.42</v>
       </c>
       <c r="I24" s="4">
-        <v>2.2280000000000002</v>
+        <v>2.1934999999999998</v>
       </c>
       <c r="J24" s="4">
-        <v>1.95</v>
+        <v>1.9993176562499999</v>
       </c>
       <c r="K24" s="4">
         <v>1.625</v>
       </c>
       <c r="L24" s="4">
-        <v>1.49808387334792</v>
+        <v>1.5820000000000001</v>
       </c>
       <c r="M24" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="17">
-        <v>46173</v>
-      </c>
-      <c r="C25" s="18" t="s">
+      <c r="N24" s="43"/>
+    </row>
+    <row r="25" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="37">
+        <v>46203</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="19">
-        <v>1.749626794431945</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="D25" s="33">
+        <v>1.7432680031250001</v>
+      </c>
+      <c r="E25" s="33">
+        <v>1.615</v>
+      </c>
+      <c r="F25" s="33">
+        <v>0.25736899514030009</v>
+      </c>
+      <c r="G25" s="33">
+        <v>2.16</v>
+      </c>
+      <c r="H25" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="I25" s="33">
+        <v>2.016</v>
+      </c>
+      <c r="J25" s="33">
+        <v>1.9831700078125001</v>
+      </c>
+      <c r="K25" s="33">
         <v>1.6</v>
       </c>
-      <c r="F25" s="19">
-        <v>0.32435895124176461</v>
-      </c>
-      <c r="G25" s="19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H25" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="I25" s="19">
-        <v>2.21</v>
-      </c>
-      <c r="J25" s="19">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="K25" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="L25" s="19">
-        <v>1.4866411498875061</v>
-      </c>
-      <c r="M25" s="20">
+      <c r="L25" s="33">
+        <v>1.49</v>
+      </c>
+      <c r="M25" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N25" s="43"/>
+    </row>
+    <row r="26" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>46203</v>
+        <v>46234</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="4">
-        <v>1.6895403808705971</v>
+        <v>1.6730528026562499</v>
       </c>
       <c r="E26" s="4">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="F26" s="4">
-        <v>0.26403391707592427</v>
+        <v>0.30353569353644311</v>
       </c>
       <c r="G26" s="4">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="H26" s="4">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I26" s="4">
-        <v>2.0110000000000001</v>
+        <v>2.0089999999999999</v>
       </c>
       <c r="J26" s="4">
-        <v>1.9</v>
+        <v>1.976382006640625</v>
       </c>
       <c r="K26" s="4">
-        <v>1.4690528565294769</v>
+        <v>1.40625</v>
       </c>
       <c r="L26" s="4">
-        <v>1.4</v>
+        <v>1.381</v>
       </c>
       <c r="M26" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="17" t="s">
+      <c r="N26" s="43"/>
+    </row>
+    <row r="27" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="19">
-        <v>21.544192695692999</v>
-      </c>
-      <c r="E27" s="19">
-        <v>20.8</v>
-      </c>
-      <c r="F27" s="19">
-        <v>4.1517989452530184</v>
-      </c>
-      <c r="G27" s="19">
-        <v>28.1</v>
-      </c>
-      <c r="H27" s="19">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="I27" s="19">
-        <v>27.47</v>
-      </c>
-      <c r="J27" s="19">
-        <v>24.25</v>
-      </c>
-      <c r="K27" s="19">
-        <v>17.892921651126329</v>
-      </c>
-      <c r="L27" s="19">
-        <v>17.215216317182179</v>
-      </c>
-      <c r="M27" s="20">
+      <c r="C27" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="33">
+        <v>22.222691282812779</v>
+      </c>
+      <c r="E27" s="33">
+        <v>21.278580998224651</v>
+      </c>
+      <c r="F27" s="33">
+        <v>3.759210434725623</v>
+      </c>
+      <c r="G27" s="33">
+        <v>28.45</v>
+      </c>
+      <c r="H27" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="I27" s="33">
+        <v>27.055</v>
+      </c>
+      <c r="J27" s="33">
+        <v>25.024999999999999</v>
+      </c>
+      <c r="K27" s="33">
+        <v>19.639813123758859</v>
+      </c>
+      <c r="L27" s="33">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="M27" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N27" s="43"/>
+    </row>
+    <row r="28" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -6056,1493 +6201,1527 @@
         <v>16</v>
       </c>
       <c r="D28" s="4">
-        <v>21.544192695692999</v>
+        <v>23.548356218668381</v>
       </c>
       <c r="E28" s="4">
-        <v>20.8</v>
+        <v>23.15</v>
       </c>
       <c r="F28" s="4">
-        <v>4.1517989452530184</v>
+        <v>3.312531181340181</v>
       </c>
       <c r="G28" s="4">
-        <v>28.1</v>
+        <v>28.8</v>
       </c>
       <c r="H28" s="4">
-        <v>16.899999999999999</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I28" s="4">
-        <v>27.47</v>
+        <v>28.17</v>
       </c>
       <c r="J28" s="4">
-        <v>24.25</v>
+        <v>25.764435289274459</v>
       </c>
       <c r="K28" s="4">
-        <v>17.892921651126329</v>
+        <v>20.906563367722491</v>
       </c>
       <c r="L28" s="4">
-        <v>17.215216317182179</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="M28" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N28" s="43"/>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
     </row>
-    <row r="31" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="33" t="s">
+    <row r="31" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
-    </row>
-    <row r="32" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B32" s="24" t="s">
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+    </row>
+    <row r="32" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="L32" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="M32" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B33" s="17">
-        <v>46053</v>
-      </c>
-      <c r="C33" s="18" t="s">
+    <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="31">
+        <v>46081</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="19">
-        <v>28.290236434108529</v>
-      </c>
-      <c r="E33" s="19">
-        <v>27.65</v>
-      </c>
-      <c r="F33" s="19">
-        <v>2.553453800770932</v>
-      </c>
-      <c r="G33" s="19">
-        <v>33.4</v>
-      </c>
-      <c r="H33" s="19">
+      <c r="D33" s="38">
+        <v>31.39616321794994</v>
+      </c>
+      <c r="E33" s="38">
+        <v>31.9</v>
+      </c>
+      <c r="F33" s="38">
+        <v>3.0602304732546619</v>
+      </c>
+      <c r="G33" s="33">
+        <v>37.111632179499402</v>
+      </c>
+      <c r="H33" s="33">
         <v>25</v>
       </c>
-      <c r="I33" s="19">
-        <v>31.24</v>
-      </c>
-      <c r="J33" s="19">
-        <v>29.78</v>
-      </c>
-      <c r="K33" s="19">
-        <v>26.581773255813939</v>
-      </c>
-      <c r="L33" s="19">
-        <v>26.17</v>
-      </c>
-      <c r="M33" s="20">
+      <c r="I33" s="33">
+        <v>33.411163217949941</v>
+      </c>
+      <c r="J33" s="33">
+        <v>32.4</v>
+      </c>
+      <c r="K33" s="33">
+        <v>30.25</v>
+      </c>
+      <c r="L33" s="33">
+        <v>29.004999999999999</v>
+      </c>
+      <c r="M33" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N33" s="43"/>
+    </row>
+    <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <v>46081</v>
+        <v>46112</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="4">
-        <v>27.869236434108529</v>
-      </c>
-      <c r="E34" s="4">
-        <v>26.85</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2.6382615822889779</v>
+      <c r="D34" s="26">
+        <v>31.104357006040129</v>
+      </c>
+      <c r="E34" s="26">
+        <v>30.5</v>
+      </c>
+      <c r="F34" s="26">
+        <v>3.420345595327996</v>
       </c>
       <c r="G34" s="4">
-        <v>32.5</v>
+        <v>37.833570060401307</v>
       </c>
       <c r="H34" s="4">
         <v>25</v>
       </c>
       <c r="I34" s="4">
-        <v>31.15</v>
+        <v>34.563357006040142</v>
       </c>
       <c r="J34" s="4">
-        <v>30.105</v>
+        <v>32.625</v>
       </c>
       <c r="K34" s="4">
-        <v>26.339273255813939</v>
+        <v>29.625</v>
       </c>
       <c r="L34" s="4">
-        <v>25.18</v>
+        <v>28.609000000000002</v>
       </c>
       <c r="M34" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B35" s="17">
-        <v>46112</v>
-      </c>
-      <c r="C35" s="18" t="s">
+      <c r="N34" s="43"/>
+    </row>
+    <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="37">
+        <v>46142</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="19">
-        <v>27.630481436148511</v>
-      </c>
-      <c r="E35" s="19">
-        <v>26.84</v>
-      </c>
-      <c r="F35" s="19">
-        <v>2.4969391292379171</v>
-      </c>
-      <c r="G35" s="19">
-        <v>31.42</v>
-      </c>
-      <c r="H35" s="19">
+      <c r="D35" s="38">
+        <v>28.750609750192311</v>
+      </c>
+      <c r="E35" s="38">
+        <v>28.2</v>
+      </c>
+      <c r="F35" s="38">
+        <v>3.2117781798246141</v>
+      </c>
+      <c r="G35" s="33">
+        <v>35.516097501923142</v>
+      </c>
+      <c r="H35" s="33">
         <v>25</v>
       </c>
-      <c r="I35" s="19">
-        <v>30.591999999999999</v>
-      </c>
-      <c r="J35" s="19">
-        <v>29.86370359037128</v>
-      </c>
-      <c r="K35" s="19">
-        <v>25.5625</v>
-      </c>
-      <c r="L35" s="19">
-        <v>25</v>
-      </c>
-      <c r="M35" s="20">
+      <c r="I35" s="33">
+        <v>32.801609750192313</v>
+      </c>
+      <c r="J35" s="33">
+        <v>29.375</v>
+      </c>
+      <c r="K35" s="33">
+        <v>27.0425</v>
+      </c>
+      <c r="L35" s="33">
+        <v>25.18</v>
+      </c>
+      <c r="M35" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N35" s="43"/>
+    </row>
+    <row r="36" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
-        <v>46142</v>
+        <v>46173</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="4">
-        <v>26.69948143614851</v>
-      </c>
-      <c r="E36" s="4">
-        <v>26.33</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2.66349810665014</v>
+      <c r="D36" s="26">
+        <v>26.626976440311129</v>
+      </c>
+      <c r="E36" s="26">
+        <v>25.87</v>
+      </c>
+      <c r="F36" s="26">
+        <v>3.761650729205956</v>
       </c>
       <c r="G36" s="4">
-        <v>30</v>
+        <v>33.129764403111331</v>
       </c>
       <c r="H36" s="4">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="I36" s="4">
-        <v>29.509332925336601</v>
+        <v>32.11297644031113</v>
       </c>
       <c r="J36" s="4">
-        <v>29.285</v>
+        <v>28.375</v>
       </c>
       <c r="K36" s="4">
-        <v>24.8125</v>
+        <v>23.25</v>
       </c>
       <c r="L36" s="4">
-        <v>23.675000000000001</v>
+        <v>22.99</v>
       </c>
       <c r="M36" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B37" s="17">
-        <v>46173</v>
-      </c>
-      <c r="C37" s="18" t="s">
+      <c r="N36" s="43"/>
+    </row>
+    <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="37">
+        <v>46203</v>
+      </c>
+      <c r="C37" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="19">
-        <v>25.754481436148509</v>
-      </c>
-      <c r="E37" s="19">
-        <v>25.47740718074256</v>
-      </c>
-      <c r="F37" s="19">
-        <v>2.4525080688836831</v>
-      </c>
-      <c r="G37" s="19">
-        <v>30</v>
-      </c>
-      <c r="H37" s="19">
-        <v>23</v>
-      </c>
-      <c r="I37" s="19">
-        <v>28.65</v>
-      </c>
-      <c r="J37" s="19">
-        <v>27.4</v>
-      </c>
-      <c r="K37" s="19">
-        <v>23.842500000000001</v>
-      </c>
-      <c r="L37" s="19">
-        <v>23</v>
-      </c>
-      <c r="M37" s="20">
+      <c r="D37" s="38">
+        <v>25.657163958596531</v>
+      </c>
+      <c r="E37" s="38">
+        <v>24.5</v>
+      </c>
+      <c r="F37" s="38">
+        <v>3.8300645507774269</v>
+      </c>
+      <c r="G37" s="33">
+        <v>32.531639585965308</v>
+      </c>
+      <c r="H37" s="33">
+        <v>22</v>
+      </c>
+      <c r="I37" s="33">
+        <v>31.603163958596529</v>
+      </c>
+      <c r="J37" s="33">
+        <v>26.9</v>
+      </c>
+      <c r="K37" s="33">
+        <v>22.78</v>
+      </c>
+      <c r="L37" s="33">
+        <v>22.27</v>
+      </c>
+      <c r="M37" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N37" s="43"/>
+    </row>
+    <row r="38" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <v>46203</v>
+        <v>46234</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="4">
-        <v>25.29848143614851</v>
-      </c>
-      <c r="E38" s="4">
-        <v>25.22740718074256</v>
-      </c>
-      <c r="F38" s="4">
-        <v>2.2702587505277538</v>
+      <c r="D38" s="26">
+        <v>24.86870763071683</v>
+      </c>
+      <c r="E38" s="26">
+        <v>23.695</v>
+      </c>
+      <c r="F38" s="26">
+        <v>3.70075021618214</v>
       </c>
       <c r="G38" s="4">
-        <v>28</v>
+        <v>31.797076307168339</v>
       </c>
       <c r="H38" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="I38" s="4">
+        <v>31.079707630716829</v>
+      </c>
+      <c r="J38" s="4">
+        <v>25.375</v>
+      </c>
+      <c r="K38" s="4">
         <v>22.25</v>
       </c>
-      <c r="I38" s="4">
-        <v>27.739000000000001</v>
-      </c>
-      <c r="J38" s="4">
-        <v>27.48</v>
-      </c>
-      <c r="K38" s="4">
-        <v>23.25</v>
-      </c>
       <c r="L38" s="4">
-        <v>22.861999999999998</v>
+        <v>21.5</v>
       </c>
       <c r="M38" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B39" s="17" t="s">
+      <c r="N38" s="43"/>
+    </row>
+    <row r="39" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="19">
-        <v>22.166</v>
-      </c>
-      <c r="E39" s="19">
-        <v>21.574999999999999</v>
-      </c>
-      <c r="F39" s="19">
-        <v>2.8672914047930318</v>
-      </c>
-      <c r="G39" s="19">
-        <v>28</v>
-      </c>
-      <c r="H39" s="19">
-        <v>19.53</v>
-      </c>
-      <c r="I39" s="19">
-        <v>26.542000000000002</v>
-      </c>
-      <c r="J39" s="19">
-        <v>22.375</v>
-      </c>
-      <c r="K39" s="19">
-        <v>20.125</v>
-      </c>
-      <c r="L39" s="19">
-        <v>19.593</v>
-      </c>
-      <c r="M39" s="20">
+      <c r="C39" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="38">
+        <v>22.86169648846834</v>
+      </c>
+      <c r="E39" s="38">
+        <v>22.204999999999998</v>
+      </c>
+      <c r="F39" s="38">
+        <v>5.081647896013572</v>
+      </c>
+      <c r="G39" s="33">
+        <v>31.006964884683359</v>
+      </c>
+      <c r="H39" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="I39" s="33">
+        <v>29.200696488468331</v>
+      </c>
+      <c r="J39" s="33">
+        <v>24.75</v>
+      </c>
+      <c r="K39" s="33">
+        <v>21.25</v>
+      </c>
+      <c r="L39" s="33">
+        <v>18.98</v>
+      </c>
+      <c r="M39" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B40" s="2" t="s">
+      <c r="N39" s="43"/>
+    </row>
+    <row r="40" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="4">
-        <v>22.166</v>
-      </c>
-      <c r="E40" s="4">
-        <v>21.574999999999999</v>
-      </c>
-      <c r="F40" s="4">
-        <v>2.8672914047930318</v>
+      <c r="D40" s="26">
+        <v>23.254832022961399</v>
+      </c>
+      <c r="E40" s="26">
+        <v>22.204999999999998</v>
+      </c>
+      <c r="F40" s="26">
+        <v>4.3528189909855026</v>
       </c>
       <c r="G40" s="4">
-        <v>28</v>
+        <v>31.038320229614051</v>
       </c>
       <c r="H40" s="4">
-        <v>19.53</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I40" s="4">
-        <v>26.542000000000002</v>
+        <v>30.103832022961409</v>
       </c>
       <c r="J40" s="4">
-        <v>22.375</v>
+        <v>23.875</v>
       </c>
       <c r="K40" s="4">
-        <v>20.125</v>
+        <v>21.25</v>
       </c>
       <c r="L40" s="4">
-        <v>19.593</v>
+        <v>19.66</v>
       </c>
       <c r="M40" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N40" s="43"/>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="22"/>
       <c r="C41" s="23"/>
-    </row>
-    <row r="43" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="33" t="s">
+      <c r="N41" s="43"/>
+    </row>
+    <row r="43" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="34"/>
-    </row>
-    <row r="44" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B44" s="24" t="s">
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+    </row>
+    <row r="44" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="24" t="s">
+      <c r="L44" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M44" s="25" t="s">
+      <c r="M44" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B45" s="17">
-        <v>46053</v>
-      </c>
-      <c r="C45" s="18" t="s">
+    <row r="45" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="31">
+        <v>46081</v>
+      </c>
+      <c r="C45" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="29">
-        <v>1490.767387519639</v>
-      </c>
-      <c r="E45" s="29">
-        <v>1489.44</v>
-      </c>
-      <c r="F45" s="29">
-        <v>19.433303488106649</v>
-      </c>
-      <c r="G45" s="29">
-        <v>1518.6624928728479</v>
-      </c>
-      <c r="H45" s="29">
-        <v>1465.1038330784679</v>
-      </c>
-      <c r="I45" s="29">
-        <v>1518.4064481988471</v>
-      </c>
-      <c r="J45" s="29">
-        <v>1501.3125</v>
-      </c>
-      <c r="K45" s="29">
-        <v>1475.7449999999999</v>
-      </c>
-      <c r="L45" s="29">
-        <v>1471.2379787168529</v>
-      </c>
-      <c r="M45" s="20">
+      <c r="D45" s="39">
+        <v>1469.937731857427</v>
+      </c>
+      <c r="E45" s="39">
+        <v>1469.4438730944901</v>
+      </c>
+      <c r="F45" s="39">
+        <v>11.25545978615213</v>
+      </c>
+      <c r="G45" s="39">
+        <v>1487.54</v>
+      </c>
+      <c r="H45" s="39">
+        <v>1450.9468656965421</v>
+      </c>
+      <c r="I45" s="39">
+        <v>1480.7539999999999</v>
+      </c>
+      <c r="J45" s="39">
+        <v>1478.3892000000001</v>
+      </c>
+      <c r="K45" s="39">
+        <v>1463.19</v>
+      </c>
+      <c r="L45" s="39">
+        <v>1459.1460825895231</v>
+      </c>
+      <c r="M45" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N45" s="43"/>
+    </row>
+    <row r="46" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
-        <v>46081</v>
+        <v>46112</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="28">
-        <v>1523.605659864088</v>
-      </c>
-      <c r="E46" s="28">
-        <v>1514.655</v>
-      </c>
-      <c r="F46" s="28">
-        <v>24.163224267574549</v>
-      </c>
-      <c r="G46" s="28">
-        <v>1556.629055194669</v>
-      </c>
-      <c r="H46" s="28">
-        <v>1485.4518256173669</v>
-      </c>
-      <c r="I46" s="28">
-        <v>1554.6135286789911</v>
-      </c>
-      <c r="J46" s="28">
-        <v>1546.5250000000001</v>
-      </c>
-      <c r="K46" s="28">
-        <v>1510</v>
-      </c>
-      <c r="L46" s="28">
-        <v>1502.303705448177</v>
+      <c r="D46" s="40">
+        <v>1501.428403369742</v>
+      </c>
+      <c r="E46" s="40">
+        <v>1499.5927999999999</v>
+      </c>
+      <c r="F46" s="40">
+        <v>23.9122127713336</v>
+      </c>
+      <c r="G46" s="40">
+        <v>1561.4</v>
+      </c>
+      <c r="H46" s="40">
+        <v>1473.007033018207</v>
+      </c>
+      <c r="I46" s="40">
+        <v>1515.14</v>
+      </c>
+      <c r="J46" s="40">
+        <v>1504.205405196009</v>
+      </c>
+      <c r="K46" s="40">
+        <v>1488.7192151044669</v>
+      </c>
+      <c r="L46" s="40">
+        <v>1480.8217033018209</v>
       </c>
       <c r="M46" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B47" s="17">
-        <v>46112</v>
-      </c>
-      <c r="C47" s="18" t="s">
+      <c r="N46" s="43"/>
+    </row>
+    <row r="47" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="37">
+        <v>46142</v>
+      </c>
+      <c r="C47" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="29">
-        <v>1553.514766772139</v>
-      </c>
-      <c r="E47" s="29">
-        <v>1550.64</v>
-      </c>
-      <c r="F47" s="29">
-        <v>24.747123535462361</v>
-      </c>
-      <c r="G47" s="29">
-        <v>1587.761636298563</v>
-      </c>
-      <c r="H47" s="29">
-        <v>1506.0824198333719</v>
-      </c>
-      <c r="I47" s="29">
-        <v>1587.7479135232379</v>
-      </c>
-      <c r="J47" s="29">
-        <v>1567.5346680471921</v>
-      </c>
-      <c r="K47" s="29">
-        <v>1540</v>
-      </c>
-      <c r="L47" s="29">
-        <v>1536.2341408638381</v>
-      </c>
-      <c r="M47" s="20">
+      <c r="D47" s="39">
+        <v>1533.728577908583</v>
+      </c>
+      <c r="E47" s="39">
+        <v>1525.156461020016</v>
+      </c>
+      <c r="F47" s="39">
+        <v>34.281836779334363</v>
+      </c>
+      <c r="G47" s="39">
+        <v>1607.47</v>
+      </c>
+      <c r="H47" s="39">
+        <v>1495.402602685585</v>
+      </c>
+      <c r="I47" s="39">
+        <v>1573.7470000000001</v>
+      </c>
+      <c r="J47" s="39">
+        <v>1545.6871235900539</v>
+      </c>
+      <c r="K47" s="39">
+        <v>1516.89852</v>
+      </c>
+      <c r="L47" s="39">
+        <v>1495.967260268558</v>
+      </c>
+      <c r="M47" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N47" s="43"/>
+    </row>
+    <row r="48" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
-        <v>46142</v>
+        <v>46173</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="28">
-        <v>1583.5699744269391</v>
-      </c>
-      <c r="E48" s="28">
-        <v>1583.2758287489339</v>
-      </c>
-      <c r="F48" s="28">
-        <v>25.852623126215718</v>
-      </c>
-      <c r="G48" s="28">
-        <v>1615.492649920719</v>
-      </c>
-      <c r="H48" s="28">
-        <v>1526.9995406201931</v>
-      </c>
-      <c r="I48" s="28">
-        <v>1607.7862649920719</v>
-      </c>
-      <c r="J48" s="28">
-        <v>1604.5888620247249</v>
-      </c>
-      <c r="K48" s="28">
-        <v>1571.25</v>
-      </c>
-      <c r="L48" s="28">
-        <v>1565.6999540620191</v>
+      <c r="D48" s="40">
+        <v>1554.562428752123</v>
+      </c>
+      <c r="E48" s="40">
+        <v>1541.2181749112081</v>
+      </c>
+      <c r="F48" s="40">
+        <v>45.48107668468586</v>
+      </c>
+      <c r="G48" s="40">
+        <v>1639.91</v>
+      </c>
+      <c r="H48" s="40">
+        <v>1510.8</v>
+      </c>
+      <c r="I48" s="40">
+        <v>1621.991</v>
+      </c>
+      <c r="J48" s="40">
+        <v>1576.25</v>
+      </c>
+      <c r="K48" s="40">
+        <v>1519.9128416116889</v>
+      </c>
+      <c r="L48" s="40">
+        <v>1513.7735275955481</v>
       </c>
       <c r="M48" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B49" s="17">
-        <v>46173</v>
-      </c>
-      <c r="C49" s="18" t="s">
+      <c r="N48" s="43"/>
+    </row>
+    <row r="49" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="37">
+        <v>46203</v>
+      </c>
+      <c r="C49" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="29">
-        <v>1609.8009539691529</v>
-      </c>
-      <c r="E49" s="29">
-        <v>1618.71210895474</v>
-      </c>
-      <c r="F49" s="29">
-        <v>29.798642977969632</v>
-      </c>
-      <c r="G49" s="29">
-        <v>1640.32</v>
-      </c>
-      <c r="H49" s="29">
-        <v>1548.2071673821499</v>
-      </c>
-      <c r="I49" s="29">
-        <v>1639.052152310169</v>
-      </c>
-      <c r="J49" s="29">
-        <v>1628.548342005322</v>
-      </c>
-      <c r="K49" s="29">
-        <v>1592.4601295254861</v>
-      </c>
-      <c r="L49" s="29">
-        <v>1576.820716738215</v>
-      </c>
-      <c r="M49" s="20">
+      <c r="D49" s="39">
+        <v>1584.743072580259</v>
+      </c>
+      <c r="E49" s="39">
+        <v>1569.5927999999999</v>
+      </c>
+      <c r="F49" s="39">
+        <v>58.053852315851039</v>
+      </c>
+      <c r="G49" s="39">
+        <v>1672.25</v>
+      </c>
+      <c r="H49" s="39">
+        <v>1510.846830004285</v>
+      </c>
+      <c r="I49" s="39">
+        <v>1668.425</v>
+      </c>
+      <c r="J49" s="39">
+        <v>1626.464359247487</v>
+      </c>
+      <c r="K49" s="39">
+        <v>1540.69665040533</v>
+      </c>
+      <c r="L49" s="39">
+        <v>1528.1926830004279</v>
+      </c>
+      <c r="M49" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N49" s="43"/>
+    </row>
+    <row r="50" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
-        <v>46203</v>
+        <v>46234</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="28">
-        <v>1639.6234777778261</v>
-      </c>
-      <c r="E50" s="28">
-        <v>1646.7029238119319</v>
-      </c>
-      <c r="F50" s="28">
-        <v>31.704337730824729</v>
-      </c>
-      <c r="G50" s="28">
-        <v>1672.39</v>
-      </c>
-      <c r="H50" s="28">
-        <v>1569.709334791246</v>
-      </c>
-      <c r="I50" s="28">
-        <v>1666.828</v>
-      </c>
-      <c r="J50" s="28">
-        <v>1659.7566518565141</v>
-      </c>
-      <c r="K50" s="28">
-        <v>1639.403798357007</v>
-      </c>
-      <c r="L50" s="28">
-        <v>1596.9709334791251</v>
+      <c r="D50" s="40">
+        <v>1619.339712397019</v>
+      </c>
+      <c r="E50" s="40">
+        <v>1622.5</v>
+      </c>
+      <c r="F50" s="40">
+        <v>71.34744349565301</v>
+      </c>
+      <c r="G50" s="40">
+        <v>1706.18</v>
+      </c>
+      <c r="H50" s="40">
+        <v>1508.0591426108861</v>
+      </c>
+      <c r="I50" s="40">
+        <v>1702.158157394826</v>
+      </c>
+      <c r="J50" s="40">
+        <v>1684.5822400965201</v>
+      </c>
+      <c r="K50" s="40">
+        <v>1564.3842466809649</v>
+      </c>
+      <c r="L50" s="40">
+        <v>1545.0589142610891</v>
       </c>
       <c r="M50" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B51" s="17" t="s">
+      <c r="N50" s="43"/>
+    </row>
+    <row r="51" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="29">
-        <v>1795.432467624451</v>
-      </c>
-      <c r="E51" s="29">
-        <v>1800</v>
-      </c>
-      <c r="F51" s="29">
-        <v>54.592184211210103</v>
-      </c>
-      <c r="G51" s="29">
-        <v>1873.54</v>
-      </c>
-      <c r="H51" s="29">
-        <v>1705.1407938825209</v>
-      </c>
-      <c r="I51" s="29">
-        <v>1865.2149999999999</v>
-      </c>
-      <c r="J51" s="29">
-        <v>1820.3989075970969</v>
-      </c>
-      <c r="K51" s="29">
-        <v>1771.414867010684</v>
-      </c>
-      <c r="L51" s="29">
-        <v>1718.514079388252</v>
-      </c>
-      <c r="M51" s="20">
+      <c r="C51" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="39">
+        <v>1777.5998746086821</v>
+      </c>
+      <c r="E51" s="39">
+        <v>1785.2</v>
+      </c>
+      <c r="F51" s="39">
+        <v>92.479388997154871</v>
+      </c>
+      <c r="G51" s="39">
+        <v>1884.49</v>
+      </c>
+      <c r="H51" s="39">
+        <v>1624</v>
+      </c>
+      <c r="I51" s="39">
+        <v>1873.995503737862</v>
+      </c>
+      <c r="J51" s="39">
+        <v>1860.4403195311561</v>
+      </c>
+      <c r="K51" s="39">
+        <v>1722.0835145234259</v>
+      </c>
+      <c r="L51" s="39">
+        <v>1647.4</v>
+      </c>
+      <c r="M51" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B52" s="2" t="s">
+      <c r="N51" s="43"/>
+    </row>
+    <row r="52" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="28">
-        <v>1795.432467624451</v>
-      </c>
-      <c r="E52" s="28">
-        <v>1800</v>
-      </c>
-      <c r="F52" s="28">
-        <v>54.592184211210103</v>
-      </c>
-      <c r="G52" s="28">
-        <v>1873.54</v>
-      </c>
-      <c r="H52" s="28">
-        <v>1705.1407938825209</v>
-      </c>
-      <c r="I52" s="28">
-        <v>1865.2149999999999</v>
-      </c>
-      <c r="J52" s="28">
-        <v>1820.3989075970969</v>
-      </c>
-      <c r="K52" s="28">
-        <v>1771.414867010684</v>
-      </c>
-      <c r="L52" s="28">
-        <v>1718.514079388252</v>
+      <c r="D52" s="40">
+        <v>1751.573351155291</v>
+      </c>
+      <c r="E52" s="40">
+        <v>1752.5</v>
+      </c>
+      <c r="F52" s="40">
+        <v>77.041909296332761</v>
+      </c>
+      <c r="G52" s="40">
+        <v>1868.91</v>
+      </c>
+      <c r="H52" s="40">
+        <v>1642.44</v>
+      </c>
+      <c r="I52" s="40">
+        <v>1852.885651927731</v>
+      </c>
+      <c r="J52" s="40">
+        <v>1796.2961362304529</v>
+      </c>
+      <c r="K52" s="40">
+        <v>1700.4526208277871</v>
+      </c>
+      <c r="L52" s="40">
+        <v>1649.2439999999999</v>
       </c>
       <c r="M52" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N52" s="43"/>
+    </row>
+    <row r="53" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
     </row>
-    <row r="54" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
     </row>
-    <row r="55" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B55" s="33" t="s">
+    <row r="55" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="34"/>
-    </row>
-    <row r="56" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B56" s="24" t="s">
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+    </row>
+    <row r="56" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="24" t="s">
+      <c r="H56" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I56" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J56" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K56" s="24" t="s">
+      <c r="K56" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L56" s="24" t="s">
+      <c r="L56" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M56" s="25" t="s">
+      <c r="M56" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B57" s="17">
-        <v>46022</v>
-      </c>
-      <c r="C57" s="18" t="s">
+    <row r="57" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="31">
+        <v>46053</v>
+      </c>
+      <c r="C57" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="29">
-        <v>7748.9371316332154</v>
-      </c>
-      <c r="E57" s="29">
-        <v>7693.797627865647</v>
-      </c>
-      <c r="F57" s="29">
-        <v>296.52964309031961</v>
-      </c>
-      <c r="G57" s="29">
-        <v>8173</v>
-      </c>
-      <c r="H57" s="29">
-        <v>7395.2491391284584</v>
-      </c>
-      <c r="I57" s="29">
-        <v>8169.4</v>
-      </c>
-      <c r="J57" s="29">
-        <v>7964.0660731297758</v>
-      </c>
-      <c r="K57" s="29">
-        <v>7482.2763726581761</v>
-      </c>
-      <c r="L57" s="29">
-        <v>7444.5249139128446</v>
-      </c>
-      <c r="M57" s="20">
+      <c r="D57" s="39">
+        <v>6811.0724232653711</v>
+      </c>
+      <c r="E57" s="39">
+        <v>6612.5704243620085</v>
+      </c>
+      <c r="F57" s="39">
+        <v>496.67966630613472</v>
+      </c>
+      <c r="G57" s="39">
+        <v>7756</v>
+      </c>
+      <c r="H57" s="39">
+        <v>6388.2000000000007</v>
+      </c>
+      <c r="I57" s="39">
+        <v>7615.6</v>
+      </c>
+      <c r="J57" s="39">
+        <v>6967.2648168151609</v>
+      </c>
+      <c r="K57" s="39">
+        <v>6460.934964170362</v>
+      </c>
+      <c r="L57" s="39">
+        <v>6434.82</v>
+      </c>
+      <c r="M57" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N57" s="44"/>
+    </row>
+    <row r="58" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
-        <v>46053</v>
+        <v>46081</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="28">
-        <v>6652.2780893115978</v>
-      </c>
-      <c r="E58" s="28">
-        <v>6446.5</v>
-      </c>
-      <c r="F58" s="28">
-        <v>560.93732751269863</v>
-      </c>
-      <c r="G58" s="28">
-        <v>7761</v>
-      </c>
-      <c r="H58" s="28">
-        <v>5896.2065308014926</v>
-      </c>
-      <c r="I58" s="28">
-        <v>7256.0999999999995</v>
-      </c>
-      <c r="J58" s="28">
-        <v>7002.8523715653964</v>
-      </c>
-      <c r="K58" s="28">
-        <v>6391.2787190132258</v>
-      </c>
-      <c r="L58" s="28">
-        <v>6072.8256530801491</v>
+      <c r="D58" s="40">
+        <v>6777.1542798722194</v>
+      </c>
+      <c r="E58" s="40">
+        <v>6743.9081136965651</v>
+      </c>
+      <c r="F58" s="40">
+        <v>301.33261514239132</v>
+      </c>
+      <c r="G58" s="40">
+        <v>7200</v>
+      </c>
+      <c r="H58" s="40">
+        <v>6148.959072604669</v>
+      </c>
+      <c r="I58" s="40">
+        <v>7160.5800487575152</v>
+      </c>
+      <c r="J58" s="40">
+        <v>6930.4140546667677</v>
+      </c>
+      <c r="K58" s="40">
+        <v>6645.9000000000005</v>
+      </c>
+      <c r="L58" s="40">
+        <v>6572.8959072604666</v>
       </c>
       <c r="M58" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B59" s="17">
-        <v>46081</v>
-      </c>
-      <c r="C59" s="18" t="s">
+      <c r="N58" s="44"/>
+    </row>
+    <row r="59" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="37">
+        <v>46112</v>
+      </c>
+      <c r="C59" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="29">
-        <v>6849.5185055209677</v>
-      </c>
-      <c r="E59" s="29">
-        <v>6740.7440882405499</v>
-      </c>
-      <c r="F59" s="29">
-        <v>516.04698504474845</v>
-      </c>
-      <c r="G59" s="29">
-        <v>8071</v>
-      </c>
-      <c r="H59" s="29">
-        <v>6324.2</v>
-      </c>
-      <c r="I59" s="29">
-        <v>7278.0999999999995</v>
-      </c>
-      <c r="J59" s="29">
-        <v>6992.5217213810929</v>
-      </c>
-      <c r="K59" s="29">
-        <v>6553.0574949031543</v>
-      </c>
-      <c r="L59" s="29">
-        <v>6339.32</v>
-      </c>
-      <c r="M59" s="20">
+      <c r="D59" s="39">
+        <v>7356.8871962315779</v>
+      </c>
+      <c r="E59" s="39">
+        <v>7379.9725864600177</v>
+      </c>
+      <c r="F59" s="39">
+        <v>338.89410940244318</v>
+      </c>
+      <c r="G59" s="39">
+        <v>7817.9522688242714</v>
+      </c>
+      <c r="H59" s="39">
+        <v>6702.9728989048444</v>
+      </c>
+      <c r="I59" s="39">
+        <v>7721.8824105971189</v>
+      </c>
+      <c r="J59" s="39">
+        <v>7592.1786634887321</v>
+      </c>
+      <c r="K59" s="39">
+        <v>7197.52</v>
+      </c>
+      <c r="L59" s="39">
+        <v>6970.2972898904854</v>
+      </c>
+      <c r="M59" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N59" s="44"/>
+    </row>
+    <row r="60" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
-        <v>46112</v>
+        <v>46142</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="28">
-        <v>7513.7927528888122</v>
-      </c>
-      <c r="E60" s="28">
-        <v>7349.0479893539496</v>
-      </c>
-      <c r="F60" s="28">
-        <v>578.85539172316476</v>
-      </c>
-      <c r="G60" s="28">
-        <v>8798</v>
-      </c>
-      <c r="H60" s="28">
-        <v>6841.26</v>
-      </c>
-      <c r="I60" s="28">
-        <v>8084.4903951621936</v>
-      </c>
-      <c r="J60" s="28">
-        <v>7800</v>
-      </c>
-      <c r="K60" s="28">
-        <v>7127.34</v>
-      </c>
-      <c r="L60" s="28">
-        <v>7083.1260000000002</v>
+      <c r="D60" s="40">
+        <v>7851.8677580958201</v>
+      </c>
+      <c r="E60" s="40">
+        <v>7621.3979315556471</v>
+      </c>
+      <c r="F60" s="40">
+        <v>550.93342975609335</v>
+      </c>
+      <c r="G60" s="40">
+        <v>8999.5813244242654</v>
+      </c>
+      <c r="H60" s="40">
+        <v>7207.92</v>
+      </c>
+      <c r="I60" s="40">
+        <v>8527.1850092437908</v>
+      </c>
+      <c r="J60" s="40">
+        <v>8105.8509545499264</v>
+      </c>
+      <c r="K60" s="40">
+        <v>7485</v>
+      </c>
+      <c r="L60" s="40">
+        <v>7452.0863318191014</v>
       </c>
       <c r="M60" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B61" s="17">
-        <v>46142</v>
-      </c>
-      <c r="C61" s="18" t="s">
+      <c r="N60" s="44"/>
+    </row>
+    <row r="61" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="37">
+        <v>46173</v>
+      </c>
+      <c r="C61" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="29">
-        <v>7857.4251882242261</v>
-      </c>
-      <c r="E61" s="29">
-        <v>7911</v>
-      </c>
-      <c r="F61" s="29">
-        <v>639.87620919109929</v>
-      </c>
-      <c r="G61" s="29">
-        <v>8841</v>
-      </c>
-      <c r="H61" s="29">
-        <v>6874.22</v>
-      </c>
-      <c r="I61" s="29">
-        <v>8437.2851188569166</v>
-      </c>
-      <c r="J61" s="29">
-        <v>8366.0474321751353</v>
-      </c>
-      <c r="K61" s="29">
-        <v>7348.1235609251726</v>
-      </c>
-      <c r="L61" s="29">
-        <v>7174.55</v>
-      </c>
-      <c r="M61" s="20">
+      <c r="D61" s="39">
+        <v>8253.3144046607576</v>
+      </c>
+      <c r="E61" s="39">
+        <v>8321.2542884945578</v>
+      </c>
+      <c r="F61" s="39">
+        <v>381.38199709671301</v>
+      </c>
+      <c r="G61" s="39">
+        <v>8932.3429195982608</v>
+      </c>
+      <c r="H61" s="39">
+        <v>7662.6</v>
+      </c>
+      <c r="I61" s="39">
+        <v>8583.589344985221</v>
+      </c>
+      <c r="J61" s="39">
+        <v>8463.1251601531385</v>
+      </c>
+      <c r="K61" s="39">
+        <v>7986.911809817786</v>
+      </c>
+      <c r="L61" s="39">
+        <v>7786.26</v>
+      </c>
+      <c r="M61" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N61" s="44"/>
+    </row>
+    <row r="62" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
-        <v>46173</v>
+        <v>46203</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="28">
-        <v>8344.4129348466631</v>
-      </c>
-      <c r="E62" s="28">
-        <v>8322.5687453307874</v>
-      </c>
-      <c r="F62" s="28">
-        <v>718.23422035696103</v>
-      </c>
-      <c r="G62" s="28">
-        <v>9284</v>
-      </c>
-      <c r="H62" s="28">
-        <v>7307.85</v>
-      </c>
-      <c r="I62" s="28">
-        <v>9184.5876720245451</v>
-      </c>
-      <c r="J62" s="28">
-        <v>8932.75</v>
-      </c>
-      <c r="K62" s="28">
-        <v>7741.9500000000007</v>
-      </c>
-      <c r="L62" s="28">
-        <v>7570.7849999999999</v>
+      <c r="D62" s="40">
+        <v>7935.1740975963839</v>
+      </c>
+      <c r="E62" s="40">
+        <v>7978.0377174391324</v>
+      </c>
+      <c r="F62" s="40">
+        <v>377.2322376499838</v>
+      </c>
+      <c r="G62" s="40">
+        <v>8487.9462056439534</v>
+      </c>
+      <c r="H62" s="40">
+        <v>7116.3068070104009</v>
+      </c>
+      <c r="I62" s="40">
+        <v>8346.8662548871616</v>
+      </c>
+      <c r="J62" s="40">
+        <v>8060</v>
+      </c>
+      <c r="K62" s="40">
+        <v>7873.5554559070397</v>
+      </c>
+      <c r="L62" s="40">
+        <v>7551.6306807010405</v>
       </c>
       <c r="M62" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B63" s="17">
-        <v>46203</v>
-      </c>
-      <c r="C63" s="18" t="s">
+      <c r="N62" s="44"/>
+    </row>
+    <row r="63" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="37">
+        <v>46234</v>
+      </c>
+      <c r="C63" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="29">
-        <v>8195.5162958248657</v>
-      </c>
-      <c r="E63" s="29">
-        <v>7939.2586803517815</v>
-      </c>
-      <c r="F63" s="29">
-        <v>614.92549240938285</v>
-      </c>
-      <c r="G63" s="29">
-        <v>9423</v>
-      </c>
-      <c r="H63" s="29">
-        <v>7493.25</v>
-      </c>
-      <c r="I63" s="29">
-        <v>8907.2999999999993</v>
-      </c>
-      <c r="J63" s="29">
-        <v>8544.4283210510584</v>
-      </c>
-      <c r="K63" s="29">
-        <v>7820.8683771077667</v>
-      </c>
-      <c r="L63" s="29">
-        <v>7589.3249999999998</v>
-      </c>
-      <c r="M63" s="20">
+      <c r="D63" s="39">
+        <v>8236.8622979027277</v>
+      </c>
+      <c r="E63" s="39">
+        <v>8466.3802702405301</v>
+      </c>
+      <c r="F63" s="39">
+        <v>893.38666511514373</v>
+      </c>
+      <c r="G63" s="39">
+        <v>9174.8727227236868</v>
+      </c>
+      <c r="H63" s="39">
+        <v>6004.3387760152636</v>
+      </c>
+      <c r="I63" s="39">
+        <v>8938.5964366059052</v>
+      </c>
+      <c r="J63" s="39">
+        <v>8666.4430679108355</v>
+      </c>
+      <c r="K63" s="39">
+        <v>8186.7875000000004</v>
+      </c>
+      <c r="L63" s="39">
+        <v>7440.4338776015265</v>
+      </c>
+      <c r="M63" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B64" s="2" t="s">
+      <c r="N63" s="44"/>
+    </row>
+    <row r="64" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="28">
-        <v>92781.582517384231</v>
-      </c>
-      <c r="E64" s="28">
-        <v>93390</v>
-      </c>
-      <c r="F64" s="28">
-        <v>2546.073288760841</v>
-      </c>
-      <c r="G64" s="28">
-        <v>96325.820970575587</v>
-      </c>
-      <c r="H64" s="28">
-        <v>88301</v>
-      </c>
-      <c r="I64" s="28">
-        <v>95911.879932071985</v>
-      </c>
-      <c r="J64" s="28">
-        <v>93976</v>
-      </c>
-      <c r="K64" s="28">
-        <v>91361.429766141431</v>
-      </c>
-      <c r="L64" s="28">
-        <v>89637.714789816528</v>
+      <c r="D64" s="40">
+        <v>92672.708496741048</v>
+      </c>
+      <c r="E64" s="40">
+        <v>93341</v>
+      </c>
+      <c r="F64" s="40">
+        <v>3321.282627690025</v>
+      </c>
+      <c r="G64" s="40">
+        <v>97749.93501511385</v>
+      </c>
+      <c r="H64" s="40">
+        <v>86448.63791588493</v>
+      </c>
+      <c r="I64" s="40">
+        <v>95468.521638987004</v>
+      </c>
+      <c r="J64" s="40">
+        <v>94603.97935707029</v>
+      </c>
+      <c r="K64" s="40">
+        <v>91530.363740780696</v>
+      </c>
+      <c r="L64" s="40">
+        <v>88115.763791588499</v>
       </c>
       <c r="M64" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N64" s="44"/>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="22"/>
       <c r="C65" s="23"/>
     </row>
-    <row r="66" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="22"/>
       <c r="C66" s="23"/>
     </row>
-    <row r="67" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B67" s="33" t="s">
+    <row r="67" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="34"/>
-    </row>
-    <row r="68" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B68" s="24" t="s">
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+    </row>
+    <row r="68" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F68" s="24" t="s">
+      <c r="F68" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="24" t="s">
+      <c r="G68" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H68" s="24" t="s">
+      <c r="H68" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="24" t="s">
+      <c r="I68" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J68" s="24" t="s">
+      <c r="J68" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K68" s="24" t="s">
+      <c r="K68" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L68" s="24" t="s">
+      <c r="L68" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M68" s="25" t="s">
+      <c r="M68" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B69" s="17">
-        <v>46022</v>
-      </c>
-      <c r="C69" s="18" t="s">
+    <row r="69" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="31">
+        <v>46053</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="29">
-        <v>5822.0504756277569</v>
-      </c>
-      <c r="E69" s="29">
-        <v>5885.6936661659483</v>
-      </c>
-      <c r="F69" s="29">
-        <v>267.29315965127267</v>
-      </c>
-      <c r="G69" s="29">
-        <v>6155</v>
-      </c>
-      <c r="H69" s="29">
-        <v>5400.9748814102923</v>
-      </c>
-      <c r="I69" s="29">
-        <v>6105.5</v>
-      </c>
-      <c r="J69" s="29">
-        <v>6004.9606351361363</v>
-      </c>
-      <c r="K69" s="29">
-        <v>5628.736013753055</v>
-      </c>
-      <c r="L69" s="29">
-        <v>5440.5842734291082</v>
-      </c>
-      <c r="M69" s="20">
+      <c r="D69" s="39">
+        <v>5982.6908653457494</v>
+      </c>
+      <c r="E69" s="39">
+        <v>6029.9084311130609</v>
+      </c>
+      <c r="F69" s="39">
+        <v>302.90637568773838</v>
+      </c>
+      <c r="G69" s="39">
+        <v>6430</v>
+      </c>
+      <c r="H69" s="39">
+        <v>5319.4634418897685</v>
+      </c>
+      <c r="I69" s="39">
+        <v>6268.9</v>
+      </c>
+      <c r="J69" s="39">
+        <v>6149.6332029231917</v>
+      </c>
+      <c r="K69" s="39">
+        <v>5849.6714661441902</v>
+      </c>
+      <c r="L69" s="39">
+        <v>5770.7462557155604</v>
+      </c>
+      <c r="M69" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N69" s="44"/>
+    </row>
+    <row r="70" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
-        <v>46053</v>
+        <v>46081</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="28">
-        <v>6161.6255206476244</v>
-      </c>
-      <c r="E70" s="28">
-        <v>6230.2960363061366</v>
-      </c>
-      <c r="F70" s="28">
-        <v>249.66659367072819</v>
-      </c>
-      <c r="G70" s="28">
-        <v>6430</v>
-      </c>
-      <c r="H70" s="28">
-        <v>5657.7570893360135</v>
-      </c>
-      <c r="I70" s="28">
-        <v>6394</v>
-      </c>
-      <c r="J70" s="28">
-        <v>6356.1320196889219</v>
-      </c>
-      <c r="K70" s="28">
-        <v>6060.7262135718129</v>
-      </c>
-      <c r="L70" s="28">
-        <v>5839.9183565235262</v>
+      <c r="D70" s="40">
+        <v>5798.2480377051997</v>
+      </c>
+      <c r="E70" s="40">
+        <v>5941.415890888371</v>
+      </c>
+      <c r="F70" s="40">
+        <v>390.10296901195738</v>
+      </c>
+      <c r="G70" s="40">
+        <v>6160</v>
+      </c>
+      <c r="H70" s="40">
+        <v>4955.6656843901901</v>
+      </c>
+      <c r="I70" s="40">
+        <v>6139.3</v>
+      </c>
+      <c r="J70" s="40">
+        <v>6063.0432483003624</v>
+      </c>
+      <c r="K70" s="40">
+        <v>5661.2329038085454</v>
+      </c>
+      <c r="L70" s="40">
+        <v>5306.8278116617139</v>
       </c>
       <c r="M70" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B71" s="17">
-        <v>46081</v>
-      </c>
-      <c r="C71" s="18" t="s">
+      <c r="N70" s="44"/>
+    </row>
+    <row r="71" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="37">
+        <v>46112</v>
+      </c>
+      <c r="C71" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="29">
-        <v>5869.4724502418712</v>
-      </c>
-      <c r="E71" s="29">
-        <v>5993.0535814731393</v>
-      </c>
-      <c r="F71" s="29">
-        <v>434.7301072051834</v>
-      </c>
-      <c r="G71" s="29">
-        <v>6400</v>
-      </c>
-      <c r="H71" s="29">
-        <v>4955.6656843901901</v>
-      </c>
-      <c r="I71" s="29">
-        <v>6222.7</v>
-      </c>
-      <c r="J71" s="29">
-        <v>6155.75</v>
-      </c>
-      <c r="K71" s="29">
-        <v>5675.7610462651073</v>
-      </c>
-      <c r="L71" s="29">
-        <v>5366.577023563309</v>
-      </c>
-      <c r="M71" s="20">
+      <c r="D71" s="39">
+        <v>6481.2058532939136</v>
+      </c>
+      <c r="E71" s="39">
+        <v>6609.8108428513588</v>
+      </c>
+      <c r="F71" s="39">
+        <v>464.14727295210821</v>
+      </c>
+      <c r="G71" s="39">
+        <v>6901.3929451472677</v>
+      </c>
+      <c r="H71" s="39">
+        <v>5402.1652097985616</v>
+      </c>
+      <c r="I71" s="39">
+        <v>6894.0030358126696</v>
+      </c>
+      <c r="J71" s="39">
+        <v>6780.048085298291</v>
+      </c>
+      <c r="K71" s="39">
+        <v>6410.75</v>
+      </c>
+      <c r="L71" s="39">
+        <v>5942.4704956695914</v>
+      </c>
+      <c r="M71" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N71" s="44"/>
+    </row>
+    <row r="72" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
-        <v>46112</v>
+        <v>46142</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="28">
-        <v>6490.102934101059</v>
-      </c>
-      <c r="E72" s="28">
-        <v>6610</v>
-      </c>
-      <c r="F72" s="28">
-        <v>431.78057855031801</v>
-      </c>
-      <c r="G72" s="28">
-        <v>6908.1532811600291</v>
-      </c>
-      <c r="H72" s="28">
-        <v>5402.1652097985616</v>
-      </c>
-      <c r="I72" s="28">
-        <v>6834.2153281160026</v>
-      </c>
-      <c r="J72" s="28">
-        <v>6729.1809471103534</v>
-      </c>
-      <c r="K72" s="28">
-        <v>6410.3888666967978</v>
-      </c>
-      <c r="L72" s="28">
-        <v>6154.5541810777486</v>
+      <c r="D72" s="40">
+        <v>6743.5935373103712</v>
+      </c>
+      <c r="E72" s="40">
+        <v>6680.7289583038491</v>
+      </c>
+      <c r="F72" s="40">
+        <v>343.25662100949842</v>
+      </c>
+      <c r="G72" s="40">
+        <v>7531.129713440665</v>
+      </c>
+      <c r="H72" s="40">
+        <v>6366.4991686741851</v>
+      </c>
+      <c r="I72" s="40">
+        <v>7089.112971344066</v>
+      </c>
+      <c r="J72" s="40">
+        <v>6807.25</v>
+      </c>
+      <c r="K72" s="40">
+        <v>6532.8699520857108</v>
+      </c>
+      <c r="L72" s="40">
+        <v>6396.1857551783933</v>
       </c>
       <c r="M72" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B73" s="17">
-        <v>46142</v>
-      </c>
-      <c r="C73" s="18" t="s">
+      <c r="N72" s="44"/>
+    </row>
+    <row r="73" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="37">
+        <v>46173</v>
+      </c>
+      <c r="C73" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="29">
-        <v>6739.8128462351424</v>
-      </c>
-      <c r="E73" s="29">
-        <v>6693.5197396936801</v>
-      </c>
-      <c r="F73" s="29">
-        <v>338.26803143338662</v>
-      </c>
-      <c r="G73" s="29">
-        <v>7531.129713440665</v>
-      </c>
-      <c r="H73" s="29">
-        <v>6338.3746723533723</v>
-      </c>
-      <c r="I73" s="29">
-        <v>7035.112971344066</v>
-      </c>
-      <c r="J73" s="29">
-        <v>6808.25</v>
-      </c>
-      <c r="K73" s="29">
-        <v>6553.0935210248626</v>
-      </c>
-      <c r="L73" s="29">
-        <v>6403.8513794585306</v>
-      </c>
-      <c r="M73" s="20">
+      <c r="D73" s="39">
+        <v>7149.1414689466637</v>
+      </c>
+      <c r="E73" s="39">
+        <v>7266.5858079433256</v>
+      </c>
+      <c r="F73" s="39">
+        <v>350.12822190868877</v>
+      </c>
+      <c r="G73" s="39">
+        <v>7531.0858216495244</v>
+      </c>
+      <c r="H73" s="39">
+        <v>6362.7542132760973</v>
+      </c>
+      <c r="I73" s="39">
+        <v>7511.0802304927429</v>
+      </c>
+      <c r="J73" s="39">
+        <v>7321.472587869469</v>
+      </c>
+      <c r="K73" s="39">
+        <v>6998.2896818478857</v>
+      </c>
+      <c r="L73" s="39">
+        <v>6799.4754213276101</v>
+      </c>
+      <c r="M73" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N73" s="44"/>
+    </row>
+    <row r="74" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
-        <v>46173</v>
+        <v>46203</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="28">
-        <v>7093.546307234089</v>
-      </c>
-      <c r="E74" s="28">
-        <v>7251.0145339082392</v>
-      </c>
-      <c r="F74" s="28">
-        <v>354.87263143617503</v>
-      </c>
-      <c r="G74" s="28">
-        <v>7531.0858216495244</v>
-      </c>
-      <c r="H74" s="28">
-        <v>6398.2985947835996</v>
-      </c>
-      <c r="I74" s="28">
-        <v>7413.1085821649522</v>
-      </c>
-      <c r="J74" s="28">
-        <v>7302.4829141676246</v>
-      </c>
-      <c r="K74" s="28">
-        <v>6876.8514256336148</v>
-      </c>
-      <c r="L74" s="28">
-        <v>6669.82985947836</v>
+      <c r="D74" s="40">
+        <v>6954.5511495336923</v>
+      </c>
+      <c r="E74" s="40">
+        <v>7028.2822656868912</v>
+      </c>
+      <c r="F74" s="40">
+        <v>429.00600449921183</v>
+      </c>
+      <c r="G74" s="40">
+        <v>7483.8731524841869</v>
+      </c>
+      <c r="H74" s="40">
+        <v>6213.7266457764263</v>
+      </c>
+      <c r="I74" s="40">
+        <v>7417.5431131731739</v>
+      </c>
+      <c r="J74" s="40">
+        <v>7241.75</v>
+      </c>
+      <c r="K74" s="40">
+        <v>6778.0479748586131</v>
+      </c>
+      <c r="L74" s="40">
+        <v>6312.9566062941558</v>
       </c>
       <c r="M74" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B75" s="17">
-        <v>46203</v>
-      </c>
-      <c r="C75" s="18" t="s">
+      <c r="N74" s="44"/>
+    </row>
+    <row r="75" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="37">
+        <v>46234</v>
+      </c>
+      <c r="C75" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="29">
-        <v>6968.0544122965757</v>
-      </c>
-      <c r="E75" s="29">
-        <v>7037.5137742894804</v>
-      </c>
-      <c r="F75" s="29">
-        <v>332.40969893326519</v>
-      </c>
-      <c r="G75" s="29">
-        <v>7320</v>
-      </c>
-      <c r="H75" s="29">
-        <v>6323.9821574627922</v>
-      </c>
-      <c r="I75" s="29">
-        <v>7311.2362754481937</v>
-      </c>
-      <c r="J75" s="29">
-        <v>7225.0499979596807</v>
-      </c>
-      <c r="K75" s="29">
-        <v>6781.1346395088331</v>
-      </c>
-      <c r="L75" s="29">
-        <v>6572.3982157462797</v>
-      </c>
-      <c r="M75" s="20">
+      <c r="D75" s="39">
+        <v>7399.2252721945433</v>
+      </c>
+      <c r="E75" s="39">
+        <v>7395.9148400180256</v>
+      </c>
+      <c r="F75" s="39">
+        <v>494.58717972010868</v>
+      </c>
+      <c r="G75" s="39">
+        <v>8342.9875834676568</v>
+      </c>
+      <c r="H75" s="39">
+        <v>6537.9395260694382</v>
+      </c>
+      <c r="I75" s="39">
+        <v>7809.5497785440093</v>
+      </c>
+      <c r="J75" s="39">
+        <v>7661.5</v>
+      </c>
+      <c r="K75" s="39">
+        <v>7139.9837018966373</v>
+      </c>
+      <c r="L75" s="39">
+        <v>6902.7088292687977</v>
+      </c>
+      <c r="M75" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B76" s="2" t="s">
+      <c r="N75" s="44"/>
+    </row>
+    <row r="76" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="28">
-        <v>82000.060520161263</v>
-      </c>
-      <c r="E76" s="28">
-        <v>82222.618042551388</v>
-      </c>
-      <c r="F76" s="28">
-        <v>3143.4895951073941</v>
-      </c>
-      <c r="G76" s="28">
-        <v>86207</v>
-      </c>
-      <c r="H76" s="28">
-        <v>77002.574088585054</v>
-      </c>
-      <c r="I76" s="28">
-        <v>86119.7</v>
-      </c>
-      <c r="J76" s="28">
-        <v>84431.258050456279</v>
-      </c>
-      <c r="K76" s="28">
-        <v>79805</v>
-      </c>
-      <c r="L76" s="28">
-        <v>78593.943952348214</v>
+      <c r="D76" s="40">
+        <v>81761.092321851887</v>
+      </c>
+      <c r="E76" s="40">
+        <v>81693.761218181346</v>
+      </c>
+      <c r="F76" s="40">
+        <v>3553.540104948283</v>
+      </c>
+      <c r="G76" s="40">
+        <v>86207.316470277612</v>
+      </c>
+      <c r="H76" s="40">
+        <v>75338</v>
+      </c>
+      <c r="I76" s="40">
+        <v>86119.731647027758</v>
+      </c>
+      <c r="J76" s="40">
+        <v>84668.348907849839</v>
+      </c>
+      <c r="K76" s="40">
+        <v>79449.5</v>
+      </c>
+      <c r="L76" s="40">
+        <v>78299.619812431294</v>
       </c>
       <c r="M76" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="N76" s="44"/>
+    </row>
+    <row r="77" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -7556,99 +7735,100 @@
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
     </row>
-    <row r="79" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="33" t="s">
+    <row r="79" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="34"/>
-    </row>
-    <row r="80" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B80" s="24" t="s">
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+    </row>
+    <row r="80" spans="2:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B80" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F80" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="G80" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H80" s="24" t="s">
+      <c r="H80" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I80" s="24" t="s">
+      <c r="I80" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J80" s="24" t="s">
+      <c r="J80" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K80" s="24" t="s">
+      <c r="K80" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L80" s="24" t="s">
+      <c r="L80" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M80" s="25" t="s">
+      <c r="M80" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B81" s="2" t="s">
+    <row r="81" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="28">
-        <v>15297.41601328344</v>
-      </c>
-      <c r="E81" s="28">
-        <v>16178.96249668551</v>
-      </c>
-      <c r="F81" s="28">
-        <v>3816.9927008511622</v>
-      </c>
-      <c r="G81" s="28">
-        <v>20376.34076779048</v>
-      </c>
-      <c r="H81" s="28">
-        <v>7666</v>
-      </c>
-      <c r="I81" s="28">
-        <v>19211.365268650501</v>
-      </c>
-      <c r="J81" s="28">
-        <v>17905.599999999999</v>
-      </c>
-      <c r="K81" s="28">
-        <v>13096.14270628727</v>
-      </c>
-      <c r="L81" s="28">
-        <v>11499.1</v>
+      <c r="D81" s="40">
+        <v>15466.36568859111</v>
+      </c>
+      <c r="E81" s="40">
+        <v>15650</v>
+      </c>
+      <c r="F81" s="40">
+        <v>1717.572730397166</v>
+      </c>
+      <c r="G81" s="40">
+        <v>17828.38290353704</v>
+      </c>
+      <c r="H81" s="40">
+        <v>11769</v>
+      </c>
+      <c r="I81" s="40">
+        <v>16957.279290353701</v>
+      </c>
+      <c r="J81" s="40">
+        <v>16451.7</v>
+      </c>
+      <c r="K81" s="40">
+        <v>15293.656302469661</v>
+      </c>
+      <c r="L81" s="40">
+        <v>13408.47802117305</v>
       </c>
       <c r="M81" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="N81" s="43"/>
+    </row>
+    <row r="82" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -7662,99 +7842,100 @@
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
     </row>
-    <row r="84" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="33" t="s">
+    <row r="84" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="34"/>
-    </row>
-    <row r="85" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B85" s="24" t="s">
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+    </row>
+    <row r="85" spans="2:16" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B85" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F85" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="24" t="s">
+      <c r="G85" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="24" t="s">
+      <c r="H85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="24" t="s">
+      <c r="I85" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J85" s="24" t="s">
+      <c r="J85" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K85" s="24" t="s">
+      <c r="K85" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L85" s="24" t="s">
+      <c r="L85" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M85" s="25" t="s">
+      <c r="M85" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B86" s="17" t="s">
+    <row r="86" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="19">
-        <v>6.8295419900378294</v>
-      </c>
-      <c r="E86" s="19">
-        <v>6.7949999999999999</v>
-      </c>
-      <c r="F86" s="19">
-        <v>0.35756187973074449</v>
-      </c>
-      <c r="G86" s="19">
+      <c r="D86" s="33">
+        <v>6.7198099088172913</v>
+      </c>
+      <c r="E86" s="33">
+        <v>6.6781123630373376</v>
+      </c>
+      <c r="F86" s="33">
+        <v>0.37496752367985042</v>
+      </c>
+      <c r="G86" s="33">
         <v>7.3</v>
       </c>
-      <c r="H86" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="I86" s="19">
-        <v>7.2260190500415096</v>
-      </c>
-      <c r="J86" s="19">
-        <v>7.1719052389719327</v>
-      </c>
-      <c r="K86" s="19">
+      <c r="H86" s="33">
+        <v>6.1542534062105032</v>
+      </c>
+      <c r="I86" s="33">
+        <v>7.21</v>
+      </c>
+      <c r="J86" s="33">
+        <v>6.9907157169157976</v>
+      </c>
+      <c r="K86" s="33">
         <v>6.5250000000000004</v>
       </c>
-      <c r="L86" s="19">
-        <v>6.48</v>
-      </c>
-      <c r="M86" s="20">
+      <c r="L86" s="33">
+        <v>6.2854253406210514</v>
+      </c>
+      <c r="M86" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N86" s="43"/>
+    </row>
+    <row r="87" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>39</v>
       </c>
@@ -7762,13 +7943,13 @@
         <v>30</v>
       </c>
       <c r="D87" s="4">
-        <v>7.1307903616374322</v>
+        <v>7.2729057628387164</v>
       </c>
       <c r="E87" s="4">
-        <v>7.15</v>
+        <v>7.3</v>
       </c>
       <c r="F87" s="4">
-        <v>0.52339061862769176</v>
+        <v>0.50723307968402942</v>
       </c>
       <c r="G87" s="4">
         <v>8.0416788902996341</v>
@@ -7780,10 +7961,10 @@
         <v>7.8241678890299644</v>
       </c>
       <c r="J87" s="4">
-        <v>7.3</v>
+        <v>7.5786826271057901</v>
       </c>
       <c r="K87" s="4">
-        <v>6.7246685445560077</v>
+        <v>7.0750000000000002</v>
       </c>
       <c r="L87" s="4">
         <v>6.58</v>
@@ -7791,84 +7972,87 @@
       <c r="M87" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B88" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="18" t="s">
+      <c r="N87" s="43"/>
+    </row>
+    <row r="88" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="19">
-        <v>7.1110347095066357</v>
-      </c>
-      <c r="E88" s="19">
-        <v>7.1061001909775197</v>
-      </c>
-      <c r="F88" s="19">
-        <v>0.62155372362508543</v>
-      </c>
-      <c r="G88" s="19">
+      <c r="D88" s="33">
+        <v>7.0130089686393209</v>
+      </c>
+      <c r="E88" s="33">
+        <v>6.9811001909775197</v>
+      </c>
+      <c r="F88" s="33">
+        <v>0.65040632219387817</v>
+      </c>
+      <c r="G88" s="33">
         <v>8.3744438601916027</v>
       </c>
-      <c r="H88" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="I88" s="19">
-        <v>7.8574443860191598</v>
-      </c>
-      <c r="J88" s="19">
-        <v>7.2927771396897896</v>
-      </c>
-      <c r="K88" s="19">
-        <v>6.625</v>
-      </c>
-      <c r="L88" s="19">
-        <v>6.5699999999999994</v>
-      </c>
-      <c r="M88" s="20">
+      <c r="H88" s="33">
+        <v>6.2175137401140592</v>
+      </c>
+      <c r="I88" s="33">
+        <v>7.677444386019161</v>
+      </c>
+      <c r="J88" s="33">
+        <v>7.2569487780993693</v>
+      </c>
+      <c r="K88" s="33">
+        <v>6.55</v>
+      </c>
+      <c r="L88" s="33">
+        <v>6.2917513740114046</v>
+      </c>
+      <c r="M88" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B89" s="2" t="s">
+      <c r="N88" s="43"/>
+    </row>
+    <row r="89" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D89" s="4">
-        <v>6.6429528315723543</v>
+        <v>6.7176339393137736</v>
       </c>
       <c r="E89" s="4">
-        <v>6.45</v>
+        <v>6.7322781503441833</v>
       </c>
       <c r="F89" s="4">
-        <v>0.5899189534273247</v>
+        <v>0.52861171793905581</v>
       </c>
       <c r="G89" s="4">
-        <v>7.4559554615135513</v>
+        <v>7.5</v>
       </c>
       <c r="H89" s="4">
         <v>5.9</v>
       </c>
       <c r="I89" s="4">
-        <v>7.3155955461513553</v>
+        <v>7.3199999999999994</v>
       </c>
       <c r="J89" s="4">
-        <v>7.2133492083679247</v>
+        <v>7.1290022956824863</v>
       </c>
       <c r="K89" s="4">
-        <v>6.1939434774298556</v>
+        <v>6.2750000000000004</v>
       </c>
       <c r="L89" s="4">
-        <v>5.99</v>
+        <v>6.166196518747479</v>
       </c>
       <c r="M89" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="N89" s="43"/>
+    </row>
+    <row r="90" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -7882,99 +8066,101 @@
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
     </row>
-    <row r="92" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="33" t="s">
+    <row r="92" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="34"/>
-    </row>
-    <row r="93" spans="2:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="B93" s="24" t="s">
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="41"/>
+      <c r="M92" s="41"/>
+    </row>
+    <row r="93" spans="2:16" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B93" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F93" s="24" t="s">
+      <c r="F93" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G93" s="24" t="s">
+      <c r="G93" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H93" s="24" t="s">
+      <c r="H93" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I93" s="24" t="s">
+      <c r="I93" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J93" s="24" t="s">
+      <c r="J93" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K93" s="24" t="s">
+      <c r="K93" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L93" s="24" t="s">
+      <c r="L93" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M93" s="25" t="s">
+      <c r="M93" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B94" s="17" t="s">
+    <row r="94" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B94" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D94" s="19">
-        <v>0.51477509740480232</v>
-      </c>
-      <c r="E94" s="19">
-        <v>0.44553332416034241</v>
-      </c>
-      <c r="F94" s="19">
-        <v>0.42572418146608582</v>
-      </c>
-      <c r="G94" s="19">
-        <v>1.282302705382188</v>
-      </c>
-      <c r="H94" s="19">
-        <v>0.08</v>
-      </c>
-      <c r="I94" s="19">
-        <v>1.1370254573065</v>
-      </c>
-      <c r="J94" s="19">
-        <v>0.72</v>
-      </c>
-      <c r="K94" s="19">
-        <v>0.14837451987287639</v>
-      </c>
-      <c r="L94" s="19">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="M94" s="20">
+      <c r="D94" s="33">
+        <v>9.2919308142511189E-2</v>
+      </c>
+      <c r="E94" s="33">
+        <v>0.09</v>
+      </c>
+      <c r="F94" s="33">
+        <v>0.16242024832841251</v>
+      </c>
+      <c r="G94" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="H94" s="33">
+        <v>-0.19335920059689871</v>
+      </c>
+      <c r="I94" s="33">
+        <v>0.28309983975755448</v>
+      </c>
+      <c r="J94" s="33">
+        <v>0.13554744809199981</v>
+      </c>
+      <c r="K94" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="L94" s="33">
+        <v>-4.6109519128634258E-2</v>
+      </c>
+      <c r="M94" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N94" s="43"/>
+      <c r="P94" s="43"/>
+    </row>
+    <row r="95" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>39</v>
       </c>
@@ -7982,115 +8168,121 @@
         <v>33</v>
       </c>
       <c r="D95" s="4">
-        <v>0.89421820057147861</v>
+        <v>1.144898181066776</v>
       </c>
       <c r="E95" s="4">
-        <v>0.86</v>
+        <v>0.95906651890847971</v>
       </c>
       <c r="F95" s="4">
-        <v>0.54409877041006094</v>
+        <v>0.87256353441298051</v>
       </c>
       <c r="G95" s="4">
-        <v>1.962302222656986</v>
+        <v>3.46983603033526</v>
       </c>
       <c r="H95" s="4">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I95" s="4">
-        <v>1.4923192694261409</v>
+        <v>1.59692370589685</v>
       </c>
       <c r="J95" s="4">
-        <v>1</v>
+        <v>1.2324999999999999</v>
       </c>
       <c r="K95" s="4">
-        <v>0.69148487085555765</v>
+        <v>0.65664280450054913</v>
       </c>
       <c r="L95" s="4">
-        <v>0.46700000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="M95" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B96" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="18" t="s">
+      <c r="N95" s="43"/>
+      <c r="P95" s="43"/>
+    </row>
+    <row r="96" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="19">
-        <v>0.82658658031795196</v>
-      </c>
-      <c r="E96" s="19">
-        <v>0.84433425351553915</v>
-      </c>
-      <c r="F96" s="19">
-        <v>0.51889349304490573</v>
-      </c>
-      <c r="G96" s="19">
-        <v>1.743532106160028</v>
-      </c>
-      <c r="H96" s="19">
-        <v>-0.2</v>
-      </c>
-      <c r="I96" s="19">
-        <v>1.3713532106160029</v>
-      </c>
-      <c r="J96" s="19">
+      <c r="D96" s="33">
+        <v>0.89046049542566941</v>
+      </c>
+      <c r="E96" s="33">
+        <v>0.91135134999998435</v>
+      </c>
+      <c r="F96" s="33">
+        <v>0.30264257448882997</v>
+      </c>
+      <c r="G96" s="33">
+        <v>1.541348056939817</v>
+      </c>
+      <c r="H96" s="33">
+        <v>0.47</v>
+      </c>
+      <c r="I96" s="33">
+        <v>1.0541348056939821</v>
+      </c>
+      <c r="J96" s="33">
         <v>1</v>
       </c>
-      <c r="K96" s="19">
-        <v>0.57701504798767222</v>
-      </c>
-      <c r="L96" s="19">
-        <v>0.4608806134043642</v>
-      </c>
-      <c r="M96" s="20">
+      <c r="K96" s="33">
+        <v>0.67590060000000929</v>
+      </c>
+      <c r="L96" s="33">
+        <v>0.55941805758520669</v>
+      </c>
+      <c r="M96" s="36">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B97" s="36">
-        <v>2026</v>
+      <c r="N96" s="43"/>
+      <c r="P96" s="43"/>
+    </row>
+    <row r="97" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D97" s="4">
-        <v>3.2604998479822611</v>
+        <v>2.6821341358304829</v>
       </c>
       <c r="E97" s="4">
-        <v>3.1382600545107011</v>
+        <v>2.69</v>
       </c>
       <c r="F97" s="4">
-        <v>0.96515527247203914</v>
+        <v>0.90251538788567576</v>
       </c>
       <c r="G97" s="4">
-        <v>4.5796109684817843</v>
+        <v>4.2134933086128923</v>
       </c>
       <c r="H97" s="4">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="I97" s="4">
-        <v>4.4753719239079874</v>
+        <v>3.9547314316209459</v>
       </c>
       <c r="J97" s="4">
-        <v>4.0999999999999996</v>
+        <v>2.776623848687676</v>
       </c>
       <c r="K97" s="4">
-        <v>2.71</v>
+        <v>2.2697926387364888</v>
       </c>
       <c r="L97" s="4">
-        <v>2.3605698350276678</v>
+        <v>2.0169999999999999</v>
       </c>
       <c r="M97" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="N97" s="43"/>
+      <c r="P97" s="43"/>
+    </row>
+    <row r="98" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -8105,18 +8297,6 @@
       <c r="M98" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B67:M67"/>
-    <mergeCell ref="B79:M79"/>
-    <mergeCell ref="B84:M84"/>
-    <mergeCell ref="B92:M92"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B43:M43"/>
-    <mergeCell ref="B55:M55"/>
-  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="41" fitToHeight="2" orientation="landscape" r:id="rId1"/>
@@ -8136,11 +8316,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:O1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="JI4mgXj1vwTu7GkfF4fWYFkbUu0jpGNsZzzBPX3YfGFuPzcxt+Hjcx6rfoqdT04OcRkZuwwlAbTLaGLAEKR43Q==" saltValue="AakVtiLN9zmEwInSrU9sOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -8151,26 +8333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b80df5a0-8011-40eb-be96-4c6a59f56b6e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6b042263-e944-4dfe-97a8-6e4c84e0ae4b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E1357DA6D65CA49A875959554824B49" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e8f8602aebf7bbdcbcb5348c529dc11a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b80df5a0-8011-40eb-be96-4c6a59f56b6e" xmlns:ns3="6b042263-e944-4dfe-97a8-6e4c84e0ae4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a39dbf9ae3c20398b89cd584be7bda98" ns2:_="" ns3:_="">
     <xsd:import namespace="b80df5a0-8011-40eb-be96-4c6a59f56b6e"/>
@@ -8419,7 +8581,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b80df5a0-8011-40eb-be96-4c6a59f56b6e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6b042263-e944-4dfe-97a8-6e4c84e0ae4b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89E97169-F966-43F7-97A7-EB3192694F7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b80df5a0-8011-40eb-be96-4c6a59f56b6e"/>
+    <ds:schemaRef ds:uri="6b042263-e944-4dfe-97a8-6e4c84e0ae4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3E4A204-179E-478B-A62E-54900BF00ECD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -8427,23 +8628,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB7C2FA5-1A6F-45A0-B729-06C123F95F83}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6b042263-e944-4dfe-97a8-6e4c84e0ae4b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b80df5a0-8011-40eb-be96-4c6a59f56b6e"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6b042263-e944-4dfe-97a8-6e4c84e0ae4b"/>
-    <ds:schemaRef ds:uri="b80df5a0-8011-40eb-be96-4c6a59f56b6e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD676F35-7D8A-4EF2-9206-BAD3978C89F5}"/>
 </file>